--- a/LINUX.xlsx
+++ b/LINUX.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>NTP时间同步</t>
   </si>
@@ -387,19 +387,29 @@
     <t>Nginx作为负载均衡服务器：Nginx 既可以在内部直接支持 Rails 和 PHP 程序对外进行服务，也可以支持作为 HTTP代理服务器对外进行服务</t>
   </si>
   <si>
-    <r>
-      <t>默认HTTP的端口号为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>80</t>
-    </r>
+    <t>LNMP</t>
+  </si>
+  <si>
+    <t>LNMP指的是一个基于CentOS/Debian编写的Nginx、PHP、MySQL、phpMyAdmin、eAccelerator一键安装包。可以在VPS、独立主机上轻松的安装LNMP生产环境。
+LNMP代表的就是：Linux系统下Nginx+MySQL+PHP这种网站服务器架构。</t>
+  </si>
+  <si>
+    <t>软件</t>
+  </si>
+  <si>
+    <t>Nginx、MySQL、PHP、PHPMyAdmin、Apache（可选）、Zend Optimizer（可选）、eAccelerator（可选）、ionCube（可选）、PureFTPd（可选）、VsFTPd（可选）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNMP面板同样是基于Linux、Nginx、MySQL、PHP环境运行，同时具有SSH命令与Web端维护管理Nginx、MySQL、PHP、主机、FTP等。代表性的产品有由Amysql自主开发的LNMP/AMH面板 ，LNMP/AMH面板具有较高的安全性能，有效解决了主机之间跨站攻击问题，提高服务器整体安全性，并支持独立运行维护不同主机，互不影响，同时运行占用服务器内存、资源极少，拥有数据加密、远程、定时备份，与支持一键还原网站、面板数据等特色。
+</t>
+  </si>
+  <si>
+    <t>Memcached</t>
+  </si>
+  <si>
+    <t>Memcached 是一个高性能的分布式内存对象缓存系统，用于动态Web应用以减轻数据库负载。它通过在内存中缓存数据和对象来减少读取数据库的次数，从而提高动态、数据库驱动网站的速度。memcached作为高速运行的分布式缓存服务器</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -407,53 +417,6 @@
         <rFont val="仿宋"/>
         <charset val="134"/>
       </rPr>
-      <t>，HTTPS的端口号为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>443</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>LNMP</t>
-  </si>
-  <si>
-    <t>LNMP指的是一个基于CentOS/Debian编写的Nginx、PHP、MySQL、phpMyAdmin、eAccelerator一键安装包。可以在VPS、独立主机上轻松的安装LNMP生产环境。
-LNMP代表的就是：Linux系统下Nginx+MySQL+PHP这种网站服务器架构。</t>
-  </si>
-  <si>
-    <t>软件</t>
-  </si>
-  <si>
-    <t>Nginx、MySQL、PHP、PHPMyAdmin、Apache（可选）、Zend Optimizer（可选）、eAccelerator（可选）、ionCube（可选）、PureFTPd（可选）、VsFTPd（可选）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LNMP面板同样是基于Linux、Nginx、MySQL、PHP环境运行，同时具有SSH命令与Web端维护管理Nginx、MySQL、PHP、主机、FTP等。代表性的产品有由Amysql自主开发的LNMP/AMH面板 ，LNMP/AMH面板具有较高的安全性能，有效解决了主机之间跨站攻击问题，提高服务器整体安全性，并支持独立运行维护不同主机，互不影响，同时运行占用服务器内存、资源极少，拥有数据加密、远程、定时备份，与支持一键还原网站、面板数据等特色。
-</t>
-  </si>
-  <si>
-    <t>Memcached</t>
-  </si>
-  <si>
-    <t>Memcached 是一个高性能的分布式内存对象缓存系统，用于动态Web应用以减轻数据库负载。它通过在内存中缓存数据和对象来减少读取数据库的次数，从而提高动态、数据库驱动网站的速度。memcached作为高速运行的分布式缓存服务器</t>
-  </si>
-  <si>
-    <r>
       <t>默认HTTP的端口号为</t>
     </r>
     <r>
@@ -475,18 +438,24 @@
 Tomcat 是由 Apache 开发的一个 Servlet 容器，实现了对 Servlet 和 JSP 的支持，并提供了作为Web服务器的一些特有功能，如Tomcat管理和控制平台、安全域管理和Tomcat阀等。
 由于 Tomcat 本身也内含了一个 HTTP 服务器，它也可以被视作一个单独的 Web 服务器。但是，不能将 Tomcat 和 Apache HTTP 服务器混淆，Apache HTTP 服务器是一个用 C 语言实现的 HTTP Web 服务器；这两个 HTTP web server 不是捆绑在一起的。Tomcat 包含了一个配置管理工具，也可以通过编辑XML格式的配置文件来进行配置。</t>
   </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>虚拟专用网络的功能是：在公用网络上建立专用网络，进行加密通讯。在企业网络中有广泛应用。VPN网关通过对数据包的加密和数据包目标地址的转换实现远程访问。VPN有多种分类方式，主要是按协议进行分类。VPN可通过服务器、硬件、软件等多种方式实现。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -529,13 +498,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -550,41 +512,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,23 +528,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +553,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,23 +567,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -672,9 +621,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,43 +657,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,127 +789,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,8 +848,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,39 +904,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -951,17 +915,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,157 +933,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1146,9 +1108,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1173,7 +1132,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1520,166 +1479,166 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="17" customWidth="1"/>
-    <col min="4" max="16352" width="9" style="17"/>
-    <col min="16353" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="18.875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="16" customWidth="1"/>
+    <col min="4" max="16352" width="9" style="16"/>
+    <col min="16353" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
-      <c r="C12" s="20"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" ht="70" customHeight="1" spans="2:7">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1702,7 +1661,7 @@
   <sheetPr/>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:N42"/>
     </sheetView>
   </sheetViews>
@@ -1712,7 +1671,7 @@
     <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
     <col min="4" max="16" width="9" style="2"/>
-    <col min="17" max="16384" width="9" style="8"/>
+    <col min="17" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1794,49 +1753,49 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" ht="79" customHeight="1" spans="3:14">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="2:2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" ht="58" customHeight="1" spans="3:14">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1955,56 +1914,56 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" ht="55" customHeight="1" spans="2:15">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" ht="21" customHeight="1" spans="2:3">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" ht="21" customHeight="1" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="2:3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="2:3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="2:3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2049,28 +2008,28 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" ht="33" customHeight="1" spans="3:14">
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2113,40 +2072,40 @@
       <c r="N39" s="4"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
     </row>
     <row r="42" ht="72" customHeight="1" spans="1:14">
-      <c r="A42" s="13"/>
-      <c r="B42" s="15" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2181,8 +2140,8 @@
   <sheetPr/>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
@@ -2305,7 +2264,7 @@
     </row>
     <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2322,77 +2281,77 @@
     </row>
     <row r="11" customHeight="1" spans="1:1">
       <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" ht="72" customHeight="1" spans="2:14">
+      <c r="B12" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" ht="72" customHeight="1" spans="2:14">
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:2">
+      <c r="B13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" customHeight="1" spans="2:2">
-      <c r="B13" s="6" t="s">
+    </row>
+    <row r="14" ht="47" customHeight="1" spans="3:14">
+      <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" ht="47" customHeight="1" spans="3:14">
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" ht="90" customHeight="1" spans="2:2">
+      <c r="B15" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" ht="90" customHeight="1" spans="2:2">
-      <c r="B15" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" ht="61" customHeight="1" spans="2:14">
+      <c r="B18" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" ht="61" customHeight="1" spans="2:14">
-      <c r="B18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" customHeight="1" spans="2:14">
       <c r="B19" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2409,28 +2368,30 @@
     </row>
     <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" ht="167" customHeight="1" spans="2:14">
+      <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" ht="167" customHeight="1" spans="2:14">
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:14">
+      <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:14">
-      <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -2445,24 +2406,26 @@
       <c r="M23"/>
       <c r="N23"/>
     </row>
-    <row r="24" customHeight="1" spans="1:14">
+    <row r="24" ht="53" customHeight="1" spans="1:14">
       <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
+      <c r="B24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B4:N4"/>
@@ -2476,6 +2439,7 @@
     <mergeCell ref="B18:N18"/>
     <mergeCell ref="B19:N19"/>
     <mergeCell ref="B21:N21"/>
+    <mergeCell ref="B24:N24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/LINUX.xlsx
+++ b/LINUX.xlsx
@@ -1473,7 +1473,7 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1661,7 +1661,7 @@
   <sheetPr/>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42:N42"/>
     </sheetView>
   </sheetViews>
@@ -2140,8 +2140,8 @@
   <sheetPr/>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:N24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>

--- a/LINUX.xlsx
+++ b/LINUX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>NTP时间同步</t>
   </si>
@@ -133,18 +133,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
       <t>默认端口</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="仿宋"/>
         <charset val="134"/>
@@ -185,18 +179,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
       <t>默认端口</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="仿宋"/>
         <charset val="134"/>
@@ -214,18 +202,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
       <t>默认端口</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="仿宋"/>
         <charset val="134"/>
@@ -265,18 +247,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
       <t>默认端口</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="仿宋"/>
         <charset val="134"/>
@@ -315,6 +291,32 @@
   </si>
   <si>
     <t>Subversion是一个自由开源的版本控制系统。在Subversion管理下，文件和目录可以超越时空。Subversion将文件存放在中心版本库里，这个版本库很像一个普通的文件服务器，不同的是，它可以记录每一次文件和目录的修改情况，这样就可以借此将数据恢复到以前的版本，并可以查看数据的更改细节。正因为如此，许多人将版本控制系统当作一种神奇的“时间机器”。</t>
+  </si>
+  <si>
+    <t>GIThub</t>
+  </si>
+  <si>
+    <t>gitHub是一个面向开源及私有软件项目的托管平台，因为只支持git 作为唯一的版本库格式进行托管，故名gitHub。</t>
+  </si>
+  <si>
+    <t>Pssh远程套件</t>
+  </si>
+  <si>
+    <t>pssh是python写的可以并发在多台机器上批量执行命令的工具，它的用法可以媲美ansible的一些简单用法，执行起来速度比ansible快它支持文件并行复制，远程命令执行，杀掉远程主机上的进程等等。杀手锏是文件并行复制，，当进行再远程主机批量上传下载的时候，最好使用它。</t>
+  </si>
+  <si>
+    <t>pssh提供并发远程连接功能</t>
+  </si>
+  <si>
+    <t>-A                使用密码远程其他主机（默认使用密钥）
+-i                将输出显示在屏幕
+-H                设置需要连接的主机
+-h                设置主机列表文件
+-p                设置并发数量
+-t                设置超时时间
+-o dir            设置标准输出信息保存的目录
+-e dir            设置错误输出信息保存的目录
+-x                传递参数给ssh</t>
   </si>
   <si>
     <t>HTTP</t>
@@ -444,20 +446,159 @@
   <si>
     <t>虚拟专用网络的功能是：在公用网络上建立专用网络，进行加密通讯。在企业网络中有广泛应用。VPN网关通过对数据包的加密和数据包目标地址的转换实现远程访问。VPN有多种分类方式，主要是按协议进行分类。VPN可通过服务器、硬件、软件等多种方式实现。</t>
   </si>
+  <si>
+    <t>VPN的协议分类</t>
+  </si>
+  <si>
+    <t>VPN的隧道协议主要有三种，PPTP、L2TP和IPSec，其中PPTP和L2TP协议工作在OSI模型的第二层，又称为二层隧道协议；IPSec是第三层隧道协议。</t>
+  </si>
+  <si>
+    <t>VPN的应用分类</t>
+  </si>
+  <si>
+    <t>（1）Access VPN（远程接入VPN）：客户端到网关，使用公网作为骨干网在设备之间传输VPN数据流量；
+（2）Intranet VPN（内联网VPN）：网关到网关，通过公司的网络架构连接来自同公司的资源；
+（3）Extranet VPN（外联网VPN）：与合作伙伴企业网构成Extranet，将一个公司与另一个公司的资源进行连接。</t>
+  </si>
+  <si>
+    <t>设备类型进行分类</t>
+  </si>
+  <si>
+    <t>（1）路由器式VPN：路由器式VPN部署较容易，只要在路由器上添加VPN服务即可；
+（2）交换机式VPN：主要应用于连接用户较少的VPN网络；
+（3）防火墙式VPN：防火墙式VPN是最常见的一种VPN的实现方式，许多厂商都提供这种配置类型</t>
+  </si>
+  <si>
+    <t>实现原理划分</t>
+  </si>
+  <si>
+    <t>（1）重叠VPN：此VPN需要用户自己建立端节点之间的VPN链路，主要包括：GRE、L2TP、IPSec等众多技术。
+（2）对等VPN：由网络运营商在主干网上完成VPN通道的建立，主要包括MPLS、VPN技术。</t>
+  </si>
+  <si>
+    <t>实现方式</t>
+  </si>
+  <si>
+    <t>1．VPN服务器：在大型局域网中，可以通过在网络中心搭建VPN服务器的方法实现VPN。
+2．软件VPN：可以通过专用的软件实现VPN。
+3．硬件VPN：可以通过专用的硬件实现VPN。
+4．集成VPN：某些硬件设备，如路由器、防火墙等，都含有VPN功能，但是一般拥有VPN功能的硬件设备通常都比没有这一功能的要贵。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="36">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -472,30 +613,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -507,6 +629,90 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,6 +726,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -528,75 +749,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -604,43 +756,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -657,43 +772,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,37 +904,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,91 +928,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,17 +963,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,17 +984,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -900,6 +995,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,17 +1038,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,8 +1052,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,152 +1062,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1100,45 +1215,117 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1147,13 +1334,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1479,166 +1669,166 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="16" customWidth="1"/>
-    <col min="4" max="16352" width="9" style="16"/>
-    <col min="16353" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="18.875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="40" customWidth="1"/>
+    <col min="4" max="16352" width="9" style="40"/>
+    <col min="16353" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="43" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="42" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="42" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
-      <c r="C12" s="19"/>
+      <c r="C12" s="43"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="40" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" ht="70" customHeight="1" spans="2:7">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1659,456 +1849,523 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:N42"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
-    <col min="4" max="16" width="9" style="2"/>
-    <col min="17" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="17.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="16" customWidth="1"/>
+    <col min="4" max="12" width="9" style="16"/>
+    <col min="13" max="15" width="9" style="17"/>
+    <col min="16" max="16" width="9" style="2"/>
+    <col min="17" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:14">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="39" customHeight="1" spans="2:14">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" ht="79" customHeight="1" spans="3:14">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="2:2">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" ht="58" customHeight="1" spans="3:14">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="3:14">
-      <c r="C13" s="3" t="s">
+    <row r="13" ht="78" customHeight="1" spans="3:14">
+      <c r="C13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" ht="71" customHeight="1" spans="2:15">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1" spans="2:15">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
     </row>
     <row r="21" ht="55" customHeight="1" spans="2:15">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
     </row>
     <row r="22" ht="55" customHeight="1" spans="2:15">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
     </row>
     <row r="23" ht="21" customHeight="1" spans="2:3">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="26"/>
     </row>
     <row r="24" ht="21" customHeight="1" spans="2:3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="2:3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="2:3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="2:3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" ht="81" customHeight="1" spans="2:14">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" ht="33" customHeight="1" spans="3:14">
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" ht="36" customHeight="1" spans="3:14">
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" ht="54" customHeight="1" spans="2:14">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
     </row>
     <row r="42" ht="72" customHeight="1" spans="1:14">
-      <c r="A42" s="12"/>
-      <c r="B42" s="14" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" ht="54" customHeight="1" spans="2:14">
+      <c r="B48" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+    </row>
+    <row r="49" ht="21" customHeight="1" spans="2:2">
+      <c r="B49" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" ht="120" customHeight="1" spans="3:14">
+      <c r="C50" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B4:N4"/>
@@ -2128,6 +2385,9 @@
     <mergeCell ref="C36:N36"/>
     <mergeCell ref="B39:N39"/>
     <mergeCell ref="B42:N42"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B48:N48"/>
+    <mergeCell ref="C50:N50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2138,294 +2398,401 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="22.875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="9" style="3"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:14">
-      <c r="B2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="2:14">
-      <c r="B3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="2:14">
-      <c r="B4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="B5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="2:14">
-      <c r="B8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" ht="49" customHeight="1" spans="2:14">
-      <c r="B9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="2:14">
-      <c r="B10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" ht="72" customHeight="1" spans="2:14">
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="2:2">
-      <c r="B13" s="5" t="s">
-        <v>70</v>
+      <c r="B13" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" ht="47" customHeight="1" spans="3:14">
-      <c r="C14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" ht="90" customHeight="1" spans="2:2">
-      <c r="B15" s="6" t="s">
-        <v>72</v>
+      <c r="B15" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" ht="61" customHeight="1" spans="2:14">
-      <c r="B18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="2:14">
-      <c r="B19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="B19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="167" customHeight="1" spans="2:14">
-      <c r="B21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
       <c r="N23"/>
     </row>
     <row r="24" ht="53" customHeight="1" spans="1:14">
-      <c r="A24"/>
-      <c r="B24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:2">
+      <c r="B25" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" ht="48" customHeight="1" spans="3:14">
+      <c r="C26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:2">
+      <c r="B27" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" ht="56" customHeight="1" spans="3:14">
+      <c r="C28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:2">
+      <c r="B29" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" ht="58" customHeight="1" spans="3:14">
+      <c r="C30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:2">
+      <c r="B31" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" ht="33" customHeight="1" spans="3:14">
+      <c r="C32" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" customHeight="1" spans="2:2">
+      <c r="B33" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" ht="72" customHeight="1" spans="3:14">
+      <c r="C34" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="19">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B4:N4"/>
@@ -2440,6 +2807,11 @@
     <mergeCell ref="B19:N19"/>
     <mergeCell ref="B21:N21"/>
     <mergeCell ref="B24:N24"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="C34:N34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/LINUX.xlsx
+++ b/LINUX.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>NTP时间同步</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>默认端口</t>
     </r>
     <r>
@@ -179,6 +185,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>默认端口</t>
     </r>
     <r>
@@ -202,6 +214,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>默认端口</t>
     </r>
     <r>
@@ -247,6 +265,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>默认端口</t>
     </r>
     <r>
@@ -317,6 +341,22 @@
 -o dir            设置标准输出信息保存的目录
 -e dir            设置错误输出信息保存的目录
 -x                传递参数给ssh</t>
+  </si>
+  <si>
+    <t>Pssh复制（上行与下行）</t>
+  </si>
+  <si>
+    <t>pscp.pssh                         //上行
+pslurp                            //下行</t>
+  </si>
+  <si>
+    <t>Pssh批量杀死进程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punke                             //杀死进程      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>HTTP</t>
@@ -490,10 +530,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -614,12 +654,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -627,15 +714,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,98 +791,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -772,181 +812,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,23 +1003,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,21 +1063,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1052,8 +1077,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,152 +1102,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1268,9 +1308,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1307,6 +1344,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1320,9 +1360,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1664,171 +1701,171 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="40" customWidth="1"/>
-    <col min="4" max="16352" width="9" style="40"/>
-    <col min="16353" max="16384" width="9" style="41"/>
+    <col min="1" max="1" width="18.875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="39" customWidth="1"/>
+    <col min="4" max="16352" width="9" style="39"/>
+    <col min="16353" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
-      <c r="C12" s="43"/>
+      <c r="C12" s="42"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="38" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" ht="70" customHeight="1" spans="2:7">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1849,10 +1886,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1928,82 +1965,82 @@
       </c>
     </row>
     <row r="7" ht="39" customHeight="1" spans="2:14">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" ht="79" customHeight="1" spans="3:14">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="2:2">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" ht="58" customHeight="1" spans="3:14">
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" ht="78" customHeight="1" spans="3:14">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
     </row>
@@ -2030,19 +2067,19 @@
       </c>
     </row>
     <row r="16" ht="71" customHeight="1" spans="2:15">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
@@ -2070,92 +2107,92 @@
       </c>
     </row>
     <row r="20" ht="60" customHeight="1" spans="2:15">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
     </row>
     <row r="21" ht="55" customHeight="1" spans="2:15">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="34"/>
       <c r="N21" s="34"/>
       <c r="O21" s="34"/>
     </row>
     <row r="22" ht="55" customHeight="1" spans="2:15">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
     </row>
     <row r="23" ht="21" customHeight="1" spans="2:3">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="26"/>
+      <c r="C23" s="25"/>
     </row>
     <row r="24" ht="21" customHeight="1" spans="2:3">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="2:3">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="2:3">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="2:3">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="2:3">
-      <c r="B28" s="25"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2183,61 +2220,61 @@
       </c>
     </row>
     <row r="32" ht="81" customHeight="1" spans="2:14">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
       <c r="M32" s="34"/>
       <c r="N32" s="34"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" ht="33" customHeight="1" spans="3:14">
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
       <c r="M34" s="34"/>
       <c r="N34" s="34"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" ht="36" customHeight="1" spans="3:14">
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
       <c r="M36" s="34"/>
       <c r="N36" s="34"/>
     </row>
@@ -2247,7 +2284,7 @@
       </c>
     </row>
     <row r="39" ht="54" customHeight="1" spans="2:14">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C39" s="19"/>
@@ -2264,38 +2301,38 @@
       <c r="N39" s="33"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
     </row>
     <row r="42" ht="72" customHeight="1" spans="1:14">
-      <c r="A42" s="27"/>
-      <c r="B42" s="30" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
       <c r="M42" s="37"/>
       <c r="N42" s="37"/>
     </row>
@@ -2308,18 +2345,18 @@
       <c r="B45" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="14" t="s">
@@ -2330,42 +2367,87 @@
       <c r="B48" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
     </row>
     <row r="49" ht="21" customHeight="1" spans="2:2">
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="50" ht="120" customHeight="1" spans="3:14">
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" ht="31" customHeight="1" spans="3:14">
+      <c r="C52" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="16" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B4:N4"/>
@@ -2388,6 +2470,8 @@
     <mergeCell ref="B45:N45"/>
     <mergeCell ref="B48:N48"/>
     <mergeCell ref="C50:N50"/>
+    <mergeCell ref="C52:N52"/>
+    <mergeCell ref="C53:N53"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2414,12 +2498,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:14">
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -2436,7 +2520,7 @@
     </row>
     <row r="3" ht="57" customHeight="1" spans="2:14">
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2453,7 +2537,7 @@
     </row>
     <row r="4" customHeight="1" spans="2:14">
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -2470,7 +2554,7 @@
     </row>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2487,12 +2571,12 @@
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="2:14">
       <c r="B8" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2509,7 +2593,7 @@
     </row>
     <row r="9" ht="49" customHeight="1" spans="2:14">
       <c r="B9" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2526,7 +2610,7 @@
     </row>
     <row r="10" customHeight="1" spans="2:14">
       <c r="B10" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2543,12 +2627,12 @@
     </row>
     <row r="11" customHeight="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" ht="72" customHeight="1" spans="2:14">
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2565,12 +2649,12 @@
     </row>
     <row r="13" customHeight="1" spans="2:2">
       <c r="B13" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" ht="47" customHeight="1" spans="3:14">
       <c r="C14" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2586,17 +2670,17 @@
     </row>
     <row r="15" ht="90" customHeight="1" spans="2:2">
       <c r="B15" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" ht="61" customHeight="1" spans="2:14">
       <c r="B18" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2613,7 +2697,7 @@
     </row>
     <row r="19" customHeight="1" spans="2:14">
       <c r="B19" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2630,12 +2714,12 @@
     </row>
     <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" ht="167" customHeight="1" spans="2:14">
       <c r="B21" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2652,7 +2736,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B23"/>
       <c r="C23" s="10"/>
@@ -2671,7 +2755,7 @@
     <row r="24" ht="53" customHeight="1" spans="1:14">
       <c r="A24" s="11"/>
       <c r="B24" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2688,12 +2772,12 @@
     </row>
     <row r="25" customHeight="1" spans="2:2">
       <c r="B25" s="8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" ht="48" customHeight="1" spans="3:14">
       <c r="C26" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -2709,12 +2793,12 @@
     </row>
     <row r="27" customHeight="1" spans="2:2">
       <c r="B27" s="8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" ht="56" customHeight="1" spans="3:14">
       <c r="C28" s="12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -2730,12 +2814,12 @@
     </row>
     <row r="29" customHeight="1" spans="2:2">
       <c r="B29" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" ht="58" customHeight="1" spans="3:14">
       <c r="C30" s="12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -2751,12 +2835,12 @@
     </row>
     <row r="31" customHeight="1" spans="2:2">
       <c r="B31" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="33" customHeight="1" spans="3:14">
       <c r="C32" s="12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -2772,12 +2856,12 @@
     </row>
     <row r="33" customHeight="1" spans="2:2">
       <c r="B33" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" ht="72" customHeight="1" spans="3:14">
       <c r="C34" s="12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>

--- a/LINUX.xlsx
+++ b/LINUX.xlsx
@@ -4,37 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="共享服务" sheetId="2" r:id="rId2"/>
     <sheet name="WEB" sheetId="3" r:id="rId3"/>
+    <sheet name="Linux" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>NTP时间同步</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
       <t>默认端口</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF7030A0"/>
         <rFont val="仿宋"/>
         <charset val="134"/>
       </rPr>
@@ -85,19 +80,13 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <charset val="134"/>
-      </rPr>
       <t>默认端口</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF7030A0"/>
         <rFont val="仿宋"/>
         <charset val="134"/>
       </rPr>
@@ -354,9 +343,6 @@
   </si>
   <si>
     <t xml:space="preserve">punke                             //杀死进程      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>HTTP</t>
@@ -524,6 +510,100 @@
 3．硬件VPN：可以通过专用的硬件实现VPN。
 4．集成VPN：某些硬件设备，如路由器、防火墙等，都含有VPN功能，但是一般拥有VPN功能的硬件设备通常都比没有这一功能的要贵。</t>
   </si>
+  <si>
+    <t>Linux基本防护措施</t>
+  </si>
+  <si>
+    <t>设置帐号有效期</t>
+  </si>
+  <si>
+    <t>chage</t>
+  </si>
+  <si>
+    <t># chage命令的语法格式：
+# chage –l    账户名称                                //查看账户信息
+# chage –E 时间 账户名称                            //修改账户有效期</t>
+  </si>
+  <si>
+    <t>设置密码有效期</t>
+  </si>
+  <si>
+    <t>/etc/login.defs</t>
+  </si>
+  <si>
+    <t>锁定帐号</t>
+  </si>
+  <si>
+    <t># passwd -l              //锁定用户账号lock
+# passwd -u              //解锁用户账号lock
+# passwd -S              //查看状态status</t>
+  </si>
+  <si>
+    <t>tty登录的提示信息
+隐藏系统版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/etc/issue          这个配置文件里保存的就是这些登陆信息，修改该文件防止内核信息泄露。      </t>
+  </si>
+  <si>
+    <t>锁定文件</t>
+  </si>
+  <si>
+    <t># chattr +i  文件名                    //锁定文件（无法修改、删除等）
+# chattr -i  文件名                    //解锁文件
+# chattr +a  文件名                    //锁定后文件仅可追加
+# chattr -a  文件名                    //解锁文件
+# lsattr 文件名                        //查看文件特殊属性</t>
+  </si>
+  <si>
+    <t>用户切换与提权</t>
+  </si>
+  <si>
+    <t>sudo分配管理权限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  /etc/sudoers</t>
+  </si>
+  <si>
+    <t>sudo命令用来以其他身份来执行命令，预设的身份为root。在/etc/sudoers中设置了可执行sudo指令的用户。若其未经授权的用户企图使用sudo，则会发出警告的邮件给管理员。用户使用sudo时，必须先输入密码，之后有5分钟的有效期限，超过期限则必须重新输入密码。</t>
+  </si>
+  <si>
+    <t>sudo是linux系统管理指令，是允许系统管理员让普通用户执行一些或者全部的root命令的一个工具，如halt，reboot，su等等。这样不仅减少了root用户的登录 和管理时间，同样也提高了安全性。sudo不是对shell的一个代替，它是面向每个命令的。</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>§ sudo能够限制用户只在某台主机上运行某些命令。
+§ sudo提供了丰富的日志，详细地记录了每个用户干了什么。它能够将日志传到中心主机或者日志服务器。
+§ sudo使用时间戳文件来执行类似的“检票”系统。当用户调用sudo并且输入它的密码时，用户获得了一张存活期为5分钟的票（这个值可以在编译的时候改变）。
+§ sudo的配置文件是sudoers文件，它允许系统管理员集中的管理用户的使用权限和使用的主机。它所存放的位置默认是在/etc/sudoers，属性必须为0440。</t>
+  </si>
+  <si>
+    <t>语法/参数</t>
+  </si>
+  <si>
+    <t>-b：在后台执行指令；
+-h：显示帮助；
+-H：将HOME环境变量设为新身份的HOME环境变量；
+-k：结束密码的有效期限，也就是下次再执行sudo时便需要输入密码；。
+-l：列出目前用户可执行与无法执行的指令；
+-p：改变询问密码的提示符号；
+-s&lt;shell&gt;：执行指定的shell；
+-u&lt;用户&gt;：以指定的用户作为新的身份。若不加上此参数，则预设以root作为新的身份；
+-v：延长密码有效期限5分钟；
+-V ：显示版本信息。</t>
+  </si>
+  <si>
+    <t>sudo机制启用日志记录</t>
+  </si>
+  <si>
+    <t>[root@svr5 ~]# visudo
+Defaults  logfile="/var/log/sudo"              //添加日志文件</t>
+  </si>
+  <si>
+    <t>SSH服务安全</t>
+  </si>
 </sst>
 </file>
 
@@ -535,13 +615,46 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -553,25 +666,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF7030A0"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -585,21 +679,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF7030A0"/>
-      <name val="仿宋"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="仿宋"/>
       <charset val="134"/>
@@ -646,9 +741,14 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="仿宋"/>
       <charset val="134"/>
     </font>
@@ -1102,156 +1202,198 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1272,115 +1414,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1700,172 +1854,173 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="39" customWidth="1"/>
-    <col min="4" max="16352" width="9" style="39"/>
-    <col min="16353" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="18.875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="53" customWidth="1"/>
+    <col min="4" max="8" width="9" style="53"/>
+    <col min="9" max="16352" width="9" style="52"/>
+    <col min="16353" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="53" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="56" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="57" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="58" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="57" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="57" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="58" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
-      <c r="C12" s="42"/>
+      <c r="C12" s="58"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="51" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" ht="70" customHeight="1" spans="2:7">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1888,563 +2043,560 @@
   <sheetPr/>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="15" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="16" customWidth="1"/>
-    <col min="4" max="12" width="9" style="16"/>
-    <col min="13" max="15" width="9" style="17"/>
-    <col min="16" max="16" width="9" style="2"/>
-    <col min="17" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="17.375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="27" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="28" customWidth="1"/>
+    <col min="4" max="12" width="9" style="28"/>
+    <col min="13" max="15" width="9" style="29"/>
+    <col min="16" max="16" width="9" style="16"/>
+    <col min="17" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:14">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="39" customHeight="1" spans="2:14">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="34" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" ht="79" customHeight="1" spans="3:14">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="2:2">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" ht="58" customHeight="1" spans="3:14">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" ht="78" customHeight="1" spans="3:14">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" ht="71" customHeight="1" spans="2:15">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1" spans="2:15">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
     </row>
     <row r="21" ht="55" customHeight="1" spans="2:15">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
     </row>
     <row r="22" ht="55" customHeight="1" spans="2:15">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
     </row>
     <row r="23" ht="21" customHeight="1" spans="2:3">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="38"/>
     </row>
     <row r="24" ht="21" customHeight="1" spans="2:3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="2:3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="2:3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="38" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="2:3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="37"/>
+      <c r="C27" s="38" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="2:3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="38" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" ht="81" customHeight="1" spans="2:14">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="34" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" ht="33" customHeight="1" spans="3:14">
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" ht="36" customHeight="1" spans="3:14">
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" ht="54" customHeight="1" spans="2:14">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
     </row>
     <row r="42" ht="72" customHeight="1" spans="1:14">
-      <c r="A42" s="26"/>
-      <c r="B42" s="29" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="48" ht="54" customHeight="1" spans="2:14">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
     </row>
     <row r="49" ht="21" customHeight="1" spans="2:2">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="34" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="50" ht="120" customHeight="1" spans="3:14">
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="34" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52" ht="31" customHeight="1" spans="3:14">
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-    </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="21" t="s">
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="32" t="s">
+    </row>
+    <row r="54" spans="3:14">
+      <c r="C54" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" s="16" t="s">
-        <v>70</v>
-      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2471,7 +2623,7 @@
     <mergeCell ref="B48:N48"/>
     <mergeCell ref="C50:N50"/>
     <mergeCell ref="C52:N52"/>
-    <mergeCell ref="C53:N53"/>
+    <mergeCell ref="C54:N54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2485,395 +2637,396 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="2" customWidth="1"/>
-    <col min="3" max="13" width="9" style="3"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="16" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="16" customWidth="1"/>
+    <col min="3" max="13" width="9" style="17"/>
+    <col min="14" max="14" width="11.625" style="16" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="2:14">
+      <c r="B2" s="18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="2:14">
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" ht="57" customHeight="1" spans="2:14">
+      <c r="B3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" ht="57" customHeight="1" spans="2:14">
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:14">
+      <c r="B4" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" customHeight="1" spans="2:14">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:14">
+      <c r="B5" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="8" ht="54" customHeight="1" spans="2:14">
+      <c r="B8" s="18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" ht="54" customHeight="1" spans="2:14">
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" ht="49" customHeight="1" spans="2:14">
+      <c r="B9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" ht="49" customHeight="1" spans="2:14">
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:14">
+      <c r="B10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" customHeight="1" spans="2:14">
-      <c r="B10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="12" ht="72" customHeight="1" spans="2:14">
+      <c r="B12" s="18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" ht="72" customHeight="1" spans="2:14">
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:2">
+      <c r="B13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" customHeight="1" spans="2:2">
-      <c r="B13" s="8" t="s">
+    </row>
+    <row r="14" ht="47" customHeight="1" spans="3:14">
+      <c r="C14" s="19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" ht="47" customHeight="1" spans="3:14">
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" ht="90" customHeight="1" spans="2:2">
+      <c r="B15" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" ht="90" customHeight="1" spans="2:2">
-      <c r="B15" s="9" t="s">
+    </row>
+    <row r="17" customHeight="1" spans="1:1">
+      <c r="A17" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="18" ht="61" customHeight="1" spans="2:14">
+      <c r="B18" s="18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" ht="61" customHeight="1" spans="2:14">
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:14">
+      <c r="B19" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" customHeight="1" spans="2:14">
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:1">
+      <c r="A20" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="21" ht="167" customHeight="1" spans="2:14">
+      <c r="B21" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" ht="167" customHeight="1" spans="2:14">
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:14">
+      <c r="A23" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="1" t="s">
+      <c r="B23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" ht="53" customHeight="1" spans="1:14">
+      <c r="A24" s="24"/>
+      <c r="B24" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B23"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23"/>
-    </row>
-    <row r="24" ht="53" customHeight="1" spans="1:14">
-      <c r="A24" s="11"/>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:2">
+      <c r="B25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" customHeight="1" spans="2:2">
-      <c r="B25" s="8" t="s">
+    </row>
+    <row r="26" ht="48" customHeight="1" spans="3:14">
+      <c r="C26" s="19" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" ht="48" customHeight="1" spans="3:14">
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:2">
+      <c r="B27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" customHeight="1" spans="2:2">
-      <c r="B27" s="8" t="s">
+    </row>
+    <row r="28" ht="79" customHeight="1" spans="3:14">
+      <c r="C28" s="19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" ht="56" customHeight="1" spans="3:14">
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:2">
+      <c r="B29" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="13"/>
-    </row>
-    <row r="29" customHeight="1" spans="2:2">
-      <c r="B29" s="8" t="s">
+    </row>
+    <row r="30" ht="58" customHeight="1" spans="3:14">
+      <c r="C30" s="19" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" ht="58" customHeight="1" spans="3:14">
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="18"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:2">
+      <c r="B31" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" customHeight="1" spans="2:2">
-      <c r="B31" s="8" t="s">
+    </row>
+    <row r="32" ht="33" customHeight="1" spans="3:14">
+      <c r="C32" s="19" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" ht="33" customHeight="1" spans="3:14">
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" customHeight="1" spans="2:2">
+      <c r="B33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="13"/>
-    </row>
-    <row r="33" customHeight="1" spans="2:2">
-      <c r="B33" s="8" t="s">
+    </row>
+    <row r="34" ht="95" customHeight="1" spans="3:14">
+      <c r="C34" s="19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="34" ht="72" customHeight="1" spans="3:14">
-      <c r="C34" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="13"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2900,4 +3053,275 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="26.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="2" customWidth="1"/>
+    <col min="3" max="13" width="9" style="3"/>
+    <col min="14" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" ht="57" customHeight="1" spans="4:13">
+      <c r="D4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="2:11">
+      <c r="B5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" ht="54" customHeight="1" spans="3:13">
+      <c r="C7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="9" ht="37" customHeight="1" spans="2:13">
+      <c r="B9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" ht="19" customHeight="1" spans="2:2">
+      <c r="B11" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" ht="93" customHeight="1" spans="3:13">
+      <c r="C12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" ht="53" customHeight="1" spans="2:13">
+      <c r="B16" s="5"/>
+      <c r="C16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" ht="54" customHeight="1" spans="3:13">
+      <c r="C17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" ht="21" customHeight="1" spans="2:2">
+      <c r="B18" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" ht="129" customHeight="1" spans="3:13">
+      <c r="C19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" ht="180" customHeight="1" spans="3:13">
+      <c r="C21" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" ht="49" customHeight="1" spans="3:13">
+      <c r="C23" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C23:M23"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/LINUX.xlsx
+++ b/LINUX.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="共享服务" sheetId="2" r:id="rId2"/>
-    <sheet name="WEB" sheetId="3" r:id="rId3"/>
-    <sheet name="Linux" sheetId="4" r:id="rId4"/>
+    <sheet name="目录" sheetId="1" r:id="rId1"/>
+    <sheet name="Linux命令大全" sheetId="2" r:id="rId2"/>
+    <sheet name="服务" sheetId="3" r:id="rId3"/>
+    <sheet name="共享服务" sheetId="4" r:id="rId4"/>
+    <sheet name="WEB" sheetId="5" r:id="rId5"/>
+    <sheet name="Linux" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
   <si>
     <t>NTP时间同步</t>
   </si>
@@ -104,12 +106,6 @@
   </si>
   <si>
     <t>LDAP提供很复杂的不同层次的访问控制或者ACI</t>
-  </si>
-  <si>
-    <t>SELinux</t>
-  </si>
-  <si>
-    <t>SELinux(Security-Enhanced Linux) 是美国国家安全局（NSA）对于强制访问控制的实现，是 Linux历史上最杰出的新安全子系统。NSA是在Linux社区的帮助下开发了一种访问控制体系，在这种访问控制体系的限制下，进程只能访问那些在他的任务中所需要文件。</t>
   </si>
   <si>
     <t>Samba</t>
@@ -604,6 +600,93 @@
   <si>
     <t>SSH服务安全</t>
   </si>
+  <si>
+    <t xml:space="preserve">ssh (SSH 客户端) 用于登录远程主机, 并且在远程主机上执行命令.
+     它的目的是替换 rlogin 和 rsh, 同时在不安全的网络之上, 两个互不
+     信任的主机之间, 提供加密的, 安全的通信连接.  X11 连接和任意 TCP/IP
+     端口均可以通过此安全通道转发(forward).
+</t>
+  </si>
+  <si>
+    <t>SSH组成部分</t>
+  </si>
+  <si>
+    <t>传输层协议 [SSH-TRANS]//提供了服务器认证，保密性及完整性。此外它有时还提供压缩功能。
+用户认证协议 [SSH-USERAUTH]    //用于向服务器提供客户端用户鉴别功能。
+连接协议 [SSH-CONNECT]         //将多个加密隧道分成逻辑通道。</t>
+  </si>
+  <si>
+    <t>配置基本安全策略</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  /etc/ssh/sshd_config</t>
+  </si>
+  <si>
+    <t>Protocol 2                                          //去掉SSH协议V1
+PermitRootLogin no                                  //禁止root用户登录
+PermitEmptyPasswords no                              //禁止密码为空的用户登录
+UseDNS  no                                          //不解析客户机地址
+LoginGraceTime  1m                                  //登录限时
+MaxAuthTries  3                                      //每连接最多认证次数
+.. ..</t>
+  </si>
+  <si>
+    <t>AllowUsers策略</t>
+  </si>
+  <si>
+    <t>AllowUsers zengye john useradm@192.168.4.0/24            //定义账户白名单
+##DenyUsers  USER1  USER2                                //定义账户黑名单
+##DenyGroups  GROUP1 GROUP2                            //定义组黑名单
+##AllowGroups  GROUP1 GROUP2                            //定义组白名单</t>
+  </si>
+  <si>
+    <t>SSH密钥对</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  使用ssh-keygen创建密钥对
+  使用ssh-copy-id命令将自己的公钥部署到服务器</t>
+  </si>
+  <si>
+    <t>禁用口令验证</t>
+  </si>
+  <si>
+    <t>调整sshd服务配置，将PasswordAuthentication设为no</t>
+  </si>
+  <si>
+    <t>SELinux安全防护</t>
+  </si>
+  <si>
+    <t>SELinux(Security-Enhanced Linux) 是美国国家安全局（NSA）对于强制访问控制的实现，是 Linux历史上最杰出的新安全子系统。NSA是在Linux社区的帮助下开发了一种访问控制体系，在这种访问控制体系的限制下，进程只能访问那些在他的任务中所需要文件。</t>
+  </si>
+  <si>
+    <t>修改防护机制</t>
+  </si>
+  <si>
+    <t>固定配置：修改/etc/selinux/config文件</t>
+  </si>
+  <si>
+    <t>SELINUX=enforcing                //设置SELinux为强制模式
+SELINUXTYPE=targeted            //保护策略为保护主要的网络服务安全</t>
+  </si>
+  <si>
+    <t>临时配置：使用setenforce命令</t>
+  </si>
+  <si>
+    <t>setenforce 1/0                  //设置SELinux为强制模式
+getenforce                     //查看当前模式为强制模式</t>
+  </si>
+  <si>
+    <t>SELinux安全上下文</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ls 在命令后加个-Z 或者加 --context   查看标签</t>
+  </si>
+  <si>
+    <t>更改标签</t>
+  </si>
+  <si>
+    <t>chcon -t 或chcon --reference（复原来的 文件标签）=修改标签</t>
+  </si>
 </sst>
 </file>
 
@@ -615,7 +698,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -655,6 +738,13 @@
       <sz val="14"/>
       <name val="仿宋"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1202,152 +1292,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1393,7 +1483,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1417,9 +1525,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1438,67 +1543,70 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,10 +1627,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1531,7 +1639,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -1852,178 +1960,213 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A22" sqref="A22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="51" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="53" customWidth="1"/>
-    <col min="4" max="8" width="9" style="53"/>
-    <col min="9" max="16352" width="9" style="52"/>
-    <col min="16353" max="16384" width="9" style="54"/>
+    <col min="1" max="1" width="18.875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="59" customWidth="1"/>
+    <col min="4" max="8" width="9" style="59"/>
+    <col min="9" max="16352" width="9" style="58"/>
+    <col min="16353" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="62" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="64" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="63" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="64" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
-      <c r="C12" s="58"/>
+      <c r="C12" s="64"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="57" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" ht="70" customHeight="1" spans="2:7">
-      <c r="B23" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" ht="70" customHeight="1" spans="1:7">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
@@ -2031,14 +2174,13 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B23:G23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O54"/>
@@ -2049,554 +2191,554 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="28" customWidth="1"/>
-    <col min="4" max="12" width="9" style="28"/>
-    <col min="13" max="15" width="9" style="29"/>
-    <col min="16" max="16" width="9" style="16"/>
-    <col min="17" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="17.375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="33" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="34" customWidth="1"/>
+    <col min="4" max="12" width="9" style="34"/>
+    <col min="13" max="15" width="9" style="35"/>
+    <col min="16" max="16" width="9" style="22"/>
+    <col min="17" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="2:14">
-      <c r="B2" s="30" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="30" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="30" t="s">
+    </row>
+    <row r="7" ht="39" customHeight="1" spans="2:14">
+      <c r="B7" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="26" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="39" customHeight="1" spans="2:14">
-      <c r="B7" s="32" t="s">
+    <row r="9" ht="79" customHeight="1" spans="3:14">
+      <c r="C9" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="34" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="2:2">
+      <c r="B10" s="40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="79" customHeight="1" spans="3:14">
-      <c r="C9" s="33" t="s">
+    <row r="11" ht="58" customHeight="1" spans="3:14">
+      <c r="C11" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-    </row>
-    <row r="10" ht="25" customHeight="1" spans="2:2">
-      <c r="B10" s="34" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="58" customHeight="1" spans="3:14">
-      <c r="C11" s="33" t="s">
+    <row r="13" ht="78" customHeight="1" spans="3:14">
+      <c r="C13" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="34" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" ht="78" customHeight="1" spans="3:14">
-      <c r="C13" s="33" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+    </row>
+    <row r="15" ht="19" customHeight="1" spans="1:1">
+      <c r="A15" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="30" t="s">
+    </row>
+    <row r="16" ht="71" customHeight="1" spans="2:15">
+      <c r="B16" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-    </row>
-    <row r="15" ht="19" customHeight="1" spans="1:1">
-      <c r="A15" s="26" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" ht="71" customHeight="1" spans="2:15">
-      <c r="B16" s="32" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="30" t="s">
+    </row>
+    <row r="20" ht="60" customHeight="1" spans="2:15">
+      <c r="B20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="26" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+    </row>
+    <row r="21" ht="55" customHeight="1" spans="2:15">
+      <c r="B21" s="38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" ht="60" customHeight="1" spans="2:15">
-      <c r="B20" s="32" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+    </row>
+    <row r="22" ht="55" customHeight="1" spans="2:15">
+      <c r="B22" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-    </row>
-    <row r="21" ht="55" customHeight="1" spans="2:15">
-      <c r="B21" s="32" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+    </row>
+    <row r="23" ht="21" customHeight="1" spans="2:3">
+      <c r="B23" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-    </row>
-    <row r="22" ht="55" customHeight="1" spans="2:15">
-      <c r="B22" s="35" t="s">
+      <c r="C23" s="44"/>
+    </row>
+    <row r="24" ht="21" customHeight="1" spans="2:3">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-    </row>
-    <row r="23" ht="21" customHeight="1" spans="2:3">
-      <c r="B23" s="37" t="s">
+    </row>
+    <row r="25" ht="21" customHeight="1" spans="2:3">
+      <c r="B25" s="43"/>
+      <c r="C25" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="38"/>
-    </row>
-    <row r="24" ht="21" customHeight="1" spans="2:3">
-      <c r="B24" s="37"/>
-      <c r="C24" s="38" t="s">
+    </row>
+    <row r="26" ht="21" customHeight="1" spans="2:3">
+      <c r="B26" s="43"/>
+      <c r="C26" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" ht="21" customHeight="1" spans="2:3">
-      <c r="B25" s="37"/>
-      <c r="C25" s="38" t="s">
+    <row r="27" ht="21" customHeight="1" spans="2:3">
+      <c r="B27" s="43"/>
+      <c r="C27" s="44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" ht="21" customHeight="1" spans="2:3">
-      <c r="B26" s="37"/>
-      <c r="C26" s="38" t="s">
+    <row r="28" ht="21" customHeight="1" spans="2:3">
+      <c r="B28" s="43"/>
+      <c r="C28" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" ht="21" customHeight="1" spans="2:3">
-      <c r="B27" s="37"/>
-      <c r="C27" s="38" t="s">
+    <row r="29" spans="2:15">
+      <c r="B29" s="36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" ht="21" customHeight="1" spans="2:3">
-      <c r="B28" s="37"/>
-      <c r="C28" s="38" t="s">
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="30" t="s">
+    <row r="32" ht="81" customHeight="1" spans="2:14">
+      <c r="B32" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="26" t="s">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" ht="81" customHeight="1" spans="2:14">
-      <c r="B32" s="32" t="s">
+    <row r="34" ht="33" customHeight="1" spans="3:14">
+      <c r="C34" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="34" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" ht="33" customHeight="1" spans="3:14">
-      <c r="C34" s="33" t="s">
+    <row r="36" ht="36" customHeight="1" spans="3:14">
+      <c r="C36" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="34" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" ht="36" customHeight="1" spans="3:14">
-      <c r="C36" s="33" t="s">
+    <row r="39" ht="54" customHeight="1" spans="2:14">
+      <c r="B39" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="26" t="s">
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="45" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" ht="54" customHeight="1" spans="2:14">
-      <c r="B39" s="32" t="s">
+      <c r="B41" s="46"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+    </row>
+    <row r="42" ht="72" customHeight="1" spans="1:14">
+      <c r="A42" s="45"/>
+      <c r="B42" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="39" t="s">
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-    </row>
-    <row r="42" ht="72" customHeight="1" spans="1:14">
-      <c r="A42" s="39"/>
-      <c r="B42" s="42" t="s">
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="26" t="s">
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
-      <c r="B45" s="32" t="s">
+    <row r="48" ht="54" customHeight="1" spans="2:14">
+      <c r="B48" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="26" t="s">
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+    </row>
+    <row r="49" ht="21" customHeight="1" spans="2:2">
+      <c r="B49" s="40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" ht="54" customHeight="1" spans="2:14">
-      <c r="B48" s="32" t="s">
+    <row r="50" ht="120" customHeight="1" spans="3:14">
+      <c r="C50" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-    </row>
-    <row r="49" ht="21" customHeight="1" spans="2:2">
-      <c r="B49" s="34" t="s">
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" ht="120" customHeight="1" spans="3:14">
-      <c r="C50" s="61" t="s">
+    <row r="52" ht="31" customHeight="1" spans="3:14">
+      <c r="C52" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="34" t="s">
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="40" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" ht="31" customHeight="1" spans="3:14">
-      <c r="C52" s="44" t="s">
+    <row r="54" spans="3:14">
+      <c r="C54" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14">
-      <c r="C54" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2631,7 +2773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N34"/>
@@ -2642,391 +2784,391 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="16" customWidth="1"/>
-    <col min="3" max="13" width="9" style="17"/>
-    <col min="14" max="14" width="11.625" style="16" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="16" style="21" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="22" customWidth="1"/>
+    <col min="3" max="13" width="9" style="23"/>
+    <col min="14" max="14" width="11.625" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="2:14">
+      <c r="B2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" ht="57" customHeight="1" spans="2:14">
+      <c r="B3" s="24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="2:14">
-      <c r="B2" s="18" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:14">
+      <c r="B4" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="18"/>
-    </row>
-    <row r="3" ht="57" customHeight="1" spans="2:14">
-      <c r="B3" s="18" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:14">
+      <c r="B5" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="18"/>
-    </row>
-    <row r="4" customHeight="1" spans="2:14">
-      <c r="B4" s="18" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="26"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="20" t="s">
+    </row>
+    <row r="8" ht="54" customHeight="1" spans="2:14">
+      <c r="B8" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="20"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="15" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" ht="49" customHeight="1" spans="2:14">
+      <c r="B9" s="24" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" ht="54" customHeight="1" spans="2:14">
-      <c r="B8" s="18" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:14">
+      <c r="B10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" ht="49" customHeight="1" spans="2:14">
-      <c r="B9" s="18" t="s">
+    </row>
+    <row r="12" ht="72" customHeight="1" spans="2:14">
+      <c r="B12" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="18"/>
-    </row>
-    <row r="10" customHeight="1" spans="2:14">
-      <c r="B10" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="20"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" ht="72" customHeight="1" spans="2:14">
-      <c r="B12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="18"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="24"/>
     </row>
     <row r="13" customHeight="1" spans="2:2">
       <c r="B13" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" ht="47" customHeight="1" spans="3:14">
+      <c r="C14" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" ht="90" customHeight="1" spans="2:2">
+      <c r="B15" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" ht="47" customHeight="1" spans="3:14">
-      <c r="C14" s="19" t="s">
+    <row r="17" customHeight="1" spans="1:1">
+      <c r="A17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" ht="90" customHeight="1" spans="2:2">
-      <c r="B15" s="22" t="s">
+    </row>
+    <row r="18" ht="61" customHeight="1" spans="2:14">
+      <c r="B18" s="24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="15" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:14">
+      <c r="B19" s="26" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" ht="61" customHeight="1" spans="2:14">
-      <c r="B18" s="18" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="26"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:1">
+      <c r="A20" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="18"/>
-    </row>
-    <row r="19" customHeight="1" spans="2:14">
-      <c r="B19" s="20" t="s">
+    </row>
+    <row r="21" ht="167" customHeight="1" spans="2:14">
+      <c r="B21" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="15" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:14">
+      <c r="A23" s="21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" ht="167" customHeight="1" spans="2:14">
-      <c r="B21" s="18" t="s">
+      <c r="B23"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="31"/>
+    </row>
+    <row r="24" ht="53" customHeight="1" spans="1:14">
+      <c r="A24" s="30"/>
+      <c r="B24" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="25"/>
-    </row>
-    <row r="24" ht="53" customHeight="1" spans="1:14">
-      <c r="A24" s="24"/>
-      <c r="B24" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="18"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="24"/>
     </row>
     <row r="25" customHeight="1" spans="2:2">
       <c r="B25" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" ht="48" customHeight="1" spans="3:14">
-      <c r="C26" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="18"/>
+      <c r="C26" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="24"/>
     </row>
     <row r="27" customHeight="1" spans="2:2">
       <c r="B27" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" ht="79" customHeight="1" spans="3:14">
-      <c r="C28" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="18"/>
+      <c r="C28" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="24"/>
     </row>
     <row r="29" customHeight="1" spans="2:2">
       <c r="B29" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="58" customHeight="1" spans="3:14">
-      <c r="C30" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="18"/>
+      <c r="C30" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="24"/>
     </row>
     <row r="31" customHeight="1" spans="2:2">
       <c r="B31" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" ht="33" customHeight="1" spans="3:14">
-      <c r="C32" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="18"/>
+      <c r="C32" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="24"/>
     </row>
     <row r="33" customHeight="1" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" ht="95" customHeight="1" spans="3:14">
-      <c r="C34" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="18"/>
+      <c r="C34" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3055,41 +3197,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="26.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="2" customWidth="1"/>
-    <col min="3" max="13" width="9" style="3"/>
+    <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="3" customWidth="1"/>
+    <col min="4" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="11.625" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" ht="57" customHeight="1" spans="4:13">
       <c r="D4" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -3103,10 +3247,10 @@
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:11">
       <c r="B5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -3119,12 +3263,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="54" customHeight="1" spans="3:13">
       <c r="C7" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -3139,10 +3283,10 @@
     </row>
     <row r="9" ht="37" customHeight="1" spans="2:13">
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -3171,12 +3315,12 @@
     </row>
     <row r="11" ht="19" customHeight="1" spans="2:2">
       <c r="B11" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" ht="93" customHeight="1" spans="3:13">
       <c r="C12" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -3191,15 +3335,15 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -3214,7 +3358,7 @@
     <row r="16" ht="53" customHeight="1" spans="2:13">
       <c r="B16" s="5"/>
       <c r="C16" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -3229,7 +3373,7 @@
     </row>
     <row r="17" ht="54" customHeight="1" spans="3:13">
       <c r="C17" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -3244,12 +3388,12 @@
     </row>
     <row r="18" ht="21" customHeight="1" spans="2:2">
       <c r="B18" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" ht="129" customHeight="1" spans="3:13">
       <c r="C19" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -3264,12 +3408,12 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" ht="180" customHeight="1" spans="3:13">
-      <c r="C21" s="62" t="s">
-        <v>120</v>
+      <c r="C21" s="68" t="s">
+        <v>118</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -3284,12 +3428,12 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" ht="49" customHeight="1" spans="3:13">
       <c r="C23" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -3304,11 +3448,284 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" ht="73" customHeight="1" spans="2:13">
+      <c r="B26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="5" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="28" ht="57" customHeight="1" spans="3:13">
+      <c r="C28" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" ht="127" customHeight="1" spans="3:13">
+      <c r="C30" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" ht="81" customHeight="1" spans="3:13">
+      <c r="C32" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" ht="36" customHeight="1" spans="3:13">
+      <c r="C34" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" ht="60" customHeight="1" spans="1:13">
+      <c r="A38" s="18"/>
+      <c r="B38" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" ht="37" customHeight="1" spans="3:13">
+      <c r="C40" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="4:13">
+      <c r="D41" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" ht="37" customHeight="1" spans="3:13">
+      <c r="C42" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13">
+      <c r="D45" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="26">
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="C7:M7"/>
@@ -3320,6 +3737,21 @@
     <mergeCell ref="C19:M19"/>
     <mergeCell ref="C21:M21"/>
     <mergeCell ref="C23:M23"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="C32:M32"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="D45:M45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/LINUX.xlsx
+++ b/LINUX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -13,18 +13,25 @@
     <sheet name="共享服务" sheetId="4" r:id="rId4"/>
     <sheet name="WEB" sheetId="5" r:id="rId5"/>
     <sheet name="Linux" sheetId="6" r:id="rId6"/>
+    <sheet name="Shell" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301">
   <si>
     <t>NTP时间同步</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>默认端口</t>
     </r>
     <r>
@@ -82,6 +89,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>默认端口</t>
     </r>
     <r>
@@ -687,6 +700,661 @@
   <si>
     <t>chcon -t 或chcon --reference（复原来的 文件标签）=修改标签</t>
   </si>
+  <si>
+    <t>shell 脚本</t>
+  </si>
+  <si>
+    <t>常用符号</t>
+  </si>
+  <si>
+    <t>&lt;                // 重定向输入
+&gt;               //覆盖重定向输出
+&gt;&gt;             //追加重定向输出
+2&gt;            //覆盖重定向错误输出
+2&gt;&gt;          //追加重定向错误输出
+&amp;&gt;          //混合重定向输出</t>
+  </si>
+  <si>
+    <t>read格式：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  标准输入取值</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -p  提示信息
+ -t  可制定超时秒数</t>
+  </si>
+  <si>
+    <t>终端显示控制</t>
+  </si>
+  <si>
+    <t>stty -echo 关闭终端显示
+stty  echo 恢复终端显示</t>
+  </si>
+  <si>
+    <t>什么是shell</t>
+  </si>
+  <si>
+    <t>命令行解释器（通常linux的解释器为/bin/bash）（将某种命令或应用程序翻译成电脑识别的二进制代码）
+ /sbin/nologin 非交互式shell
+ 负责向内核翻译及传达用户/程序指令
+ 相当于操作系统的“外壳”
+ （当前登陆用户命令：whoami）</t>
+  </si>
+  <si>
+    <t>交互式硬件设备
+ 标准输入 /dev/stdin 文件描述（0）  硬件设备（键盘）
+ 标准输出 /dev/stdout 文件描述（1） 硬件设备（显示器）
+ 标准错误输出 /dev/stderr 文件描述（2） 硬件设备（显示器）</t>
+  </si>
+  <si>
+    <t>什么是脚本</t>
+  </si>
+  <si>
+    <t>实现一种功能的有执行权限的文件</t>
+  </si>
+  <si>
+    <t>执行shell脚本</t>
+  </si>
+  <si>
+    <t>占用新的系统资源运行：
+ ./脚本     执行当前文件下的脚本
+ /bin/bash  绝对路径
+ sh（bash）+绝对路径  专属命令
+ 占用系统当前终端资源与运行：
+ source /etc/ *.sh 
+ . 脚本   执行脚本时，不分配性的资源来执行脚本，而是占用当前运行终端的资源运行脚本。</t>
+  </si>
+  <si>
+    <t>shell特性</t>
+  </si>
+  <si>
+    <t>/bin/bash</t>
+  </si>
+  <si>
+    <t>支持快捷键与TAB建补齐
+ 历史命令
+ 命令别名/etc/bashrc
+ 重定向</t>
+  </si>
+  <si>
+    <t>shell变量</t>
+  </si>
+  <si>
+    <t>查看当前已有的系统环境变量  env
+查看当前已有的系统环境变量以及自定义变量  set</t>
+  </si>
+  <si>
+    <t>定义变量</t>
+  </si>
+  <si>
+    <t>变量名=值（变量名：数字、字母、下划线）</t>
+  </si>
+  <si>
+    <t>使用及命名规则</t>
+  </si>
+  <si>
+    <t>变量附值时等号前后不能有空格
+变量名不能是纯数字或数字开头
+变量名区分字母大小写</t>
+  </si>
+  <si>
+    <t>使用变量</t>
+  </si>
+  <si>
+    <t>交互式：命令行  非交互式：脚本           //$变量名</t>
+  </si>
+  <si>
+    <t>输出销毁</t>
+  </si>
+  <si>
+    <t>echo $变量名             unset 变量名</t>
+  </si>
+  <si>
+    <t>shell变量类型</t>
+  </si>
+  <si>
+    <t>系统环境变量</t>
+  </si>
+  <si>
+    <t>系统启动时读取配置文件或服务的配置文件，定义的变量。（变量名与存储的值是固定的，值水根据系统的运行环境和配置自动获取。我们在写脚本时，可以直接使用系统环境变量，也可以修改系统环境变量值，通常变量用大小写字母表示）
+$PATH  $PWD  $HOME  $USER  $HOSTNAME  $MAIL  $SHELL</t>
+  </si>
+  <si>
+    <t>位置变量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash内置，储存执行脚本时提供的参数
+在执行脚本时提供的命令行参数
+表示为$n
+$1 ..... ${10} ...... </t>
+  </si>
+  <si>
+    <t>预定义变量</t>
+  </si>
+  <si>
+    <t>bash内置，一类有特殊用图的变量，可直接调用但不能直接赋值或修改，用来保存脚本程序的执行信息
+    变量名：
+     $0 当前所在的进程或脚本
+     $$ 当前运行进程的PID
+     $! 后台进程的PID
+     $? 命令执行后的返回值，0为正常，其他为异常
+     $# 已加载位置变量的个数
+     $* 所有位置变量的值</t>
+  </si>
+  <si>
+    <t>自定义变量</t>
+  </si>
+  <si>
+    <t>编写脚本时，程序员程序需要定义变量，定义变量时，要遵循变量的使用规则。</t>
+  </si>
+  <si>
+    <t>变量附值的方式</t>
+  </si>
+  <si>
+    <t>普通赋值</t>
+  </si>
+  <si>
+    <t>从键盘接收数据给变量赋值
+read -p “提示信息：  ” -t 等待输入时间 变量名 
+使用一个变量给另一个变量赋值</t>
+  </si>
+  <si>
+    <t>累加赋值</t>
+  </si>
+  <si>
+    <t>变量自己给自己添加新的值
+添加环境变量（局部变量）： PATH=/shell：$PATH</t>
+  </si>
+  <si>
+    <t>结果赋值</t>
+  </si>
+  <si>
+    <t>变量名=$( ) 变量名=` `</t>
+  </si>
+  <si>
+    <t>变量的作用范围</t>
+  </si>
+  <si>
+    <t>在脚本中定义的变量只在脚本执行过程中有效</t>
+  </si>
+  <si>
+    <t>全局变量</t>
+  </si>
+  <si>
+    <t>在当强shell与子shell中都可以使用
+/etc/profile    /etc/bashrc
+export PATH=/shell：$PATH
+source 重新加载文件</t>
+  </si>
+  <si>
+    <t>局部变量</t>
+  </si>
+  <si>
+    <t>只可以在当前shell中使用
+使用export   使局部变量变成全局变量
+export -x   取消全局变量</t>
+  </si>
+  <si>
+    <t>调用变量时单引</t>
+  </si>
+  <si>
+    <t>单引号‘’：禁止扩展，即便是$也是为普通字符
+双引号“”：允许扩展，以$引用其他变量</t>
+  </si>
+  <si>
+    <t>shell运算与判断</t>
+  </si>
+  <si>
+    <t>数值运算</t>
+  </si>
+  <si>
+    <t>运算符号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      '+ -  *  /  ++  --  +=  -=  *=  /=  %=</t>
+  </si>
+  <si>
+    <t>表达式</t>
+  </si>
+  <si>
+    <t>++ 自加运算 ：每次自己加1再把值赋给自己
+--   自减运算 ：每次自己减1再把值赋给自己
+自加或自减置前置后的区别
+运算的前后顺序不同
++=  -=  *=  /=  %= 自定义运算的步长 let</t>
+  </si>
+  <si>
+    <t>整数运算</t>
+  </si>
+  <si>
+    <t>命令：
+  expr 表达式
+  z=`expr  $x \* $y`
+  let  表达式
+  表达式：
+  $[2 * 3] $(（x * y）)</t>
+  </si>
+  <si>
+    <t>小数运算</t>
+  </si>
+  <si>
+    <t>echo “表达式” | bc
+bc 交互式计算</t>
+  </si>
+  <si>
+    <t>Shell条件判断</t>
+  </si>
+  <si>
+    <t>判断命令： test 【】</t>
+  </si>
+  <si>
+    <t>判断符号类型</t>
+  </si>
+  <si>
+    <t>字符比较</t>
+  </si>
+  <si>
+    <t>== 相等
+=！ 不相等
+-z 字符串的值为空
+-n 字符串的值不为空</t>
+  </si>
+  <si>
+    <t>数值比较</t>
+  </si>
+  <si>
+    <t>-gt 大于
+-ge 大于等于
+-eq 等于
+-ne 不等于
+-le 小于等于
+-lt 小于</t>
+  </si>
+  <si>
+    <t>小数比较</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     '&gt;    &gt;=     &lt;     &lt;=     ==     =!</t>
+  </si>
+  <si>
+    <t>逻辑比较</t>
+  </si>
+  <si>
+    <t>&amp;&amp; 与
+|| 或
+！ 非/取反</t>
+  </si>
+  <si>
+    <t>判断文件</t>
+  </si>
+  <si>
+    <t>-e  存在为真
+-d 存在并为目录
+-f 存在并为文件
+-r 读权限
+-w 写权限
+-x 执行权限</t>
+  </si>
+  <si>
+    <t>流程控制</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>if 条件判断；then
+   代码。。。。
+  elfi 条件判断；then
+   代码。。。。
+  elfi 条件判断；then
+   代码。。。。
+  else
+   代码。。。。
+  fi</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>简单的 if</t>
+  </si>
+  <si>
+    <t>case 分支属于匹配执行的方式，它针对指定的变量预先设置一个可能的取值，判断该变量的实际取值是否与预设的某一个值相匹配，如果匹配上了，就执行相应的一组操作，如果没有任何值能够匹配，就执行预先设置的默认操作。</t>
+  </si>
+  <si>
+    <t>语法格式</t>
+  </si>
+  <si>
+    <t>case  变量值  in
+  模式1)
+       命令序列1 ;;
+  模式2)
+       命令序列2 ;;
+      .. ..
+  *)  
+      默认命令序列
+  esac</t>
+  </si>
+  <si>
+    <t>Shell循环</t>
+  </si>
+  <si>
+    <t>for循环</t>
+  </si>
+  <si>
+    <t>for  变量名  in  值列表 //（循环列表，循环的次数）
+  do
+          命令序列
+  done</t>
+  </si>
+  <si>
+    <t>循环列表</t>
+  </si>
+  <si>
+    <t>`ls /etc/*.conf` //（应用命令执行结果参与循环）
+{1..5}  //（循环数字序列）
+`seq 5` //（循环数字序列）</t>
+  </si>
+  <si>
+    <t>while循环</t>
+  </si>
+  <si>
+    <t>while循环属于条件式的执行流程，会反复判断指定的测试条件，只要条件成立即执行固定的一组操作，直到条件变化为不成立为止。所以while循环的条件一般通过变量来进行控制，在循环体内对变量值做相应改变，以便在适当的时候退出，避免陷入死循环。</t>
+  </si>
+  <si>
+    <t>语法结构</t>
+  </si>
+  <si>
+    <t>while  条件测试  //条件判断
+    do
+        命令序列
+    done
+    while ：   //永久死循环
+    do
+        命令序列
+    done</t>
+  </si>
+  <si>
+    <t>Shell函数</t>
+  </si>
+  <si>
+    <t>在 Shell 脚本中，将一些需重复使用的操作，定义为公共的语句块，即可称为函数。通过使用函数，可以使脚本代码更加简洁，增强易读性，提高Shell脚本的执行效率</t>
+  </si>
+  <si>
+    <t>定义方法</t>
+  </si>
+  <si>
+    <t>格式1：
+   function  函数名 {
+       命令序列
+       .. ..
+   }
+格式2：
+   函数名() {
+       命令序列
+       .. ..
+   }</t>
+  </si>
+  <si>
+    <t>函数的调用</t>
+  </si>
+  <si>
+    <t>直接使用“函数名”的形式调用，如果该函数能够处理位置参数，则可以使用“函数名 参数1 参数2 .. ..”的形式调用
+  注意：函数的定义语句必须出现在调用之前，否则无法执行。</t>
+  </si>
+  <si>
+    <r>
+      <t>fork 炸弹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+_____________________________________        
+|         .(){  .变量名              | 
+|         .|.&amp;  &amp;放入后台            |
+|             }                      |
+|         .  调用.函数               |     
+————————————————————</t>
+    </r>
+  </si>
+  <si>
+    <t>脚本的中断及推出</t>
+  </si>
+  <si>
+    <t>通过break、continue、exit在Shell脚本中实现中断与退出的功能。</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>可以结束整个循环</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>结束本次循环，进入下一次循环</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>结束整个脚本</t>
+  </si>
+  <si>
+    <t>字符串截取及切割</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取字符串长度 </t>
+  </si>
+  <si>
+    <t>string="abcd"
+echo ${#string} #输出 4</t>
+  </si>
+  <si>
+    <t>子串截取</t>
+  </si>
+  <si>
+    <t>${变量名:起始位置:长度}</t>
+  </si>
+  <si>
+    <t>//使用${}方式截取字符串时，起始位置是从0开始的（和数组下标编号类似） 。使用${}截取时，起始位置可以省略，省略时从第一个字符开始截。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expr substr "$变量名" 起始位置 长度  </t>
+  </si>
+  <si>
+    <t>//使用expr substr截取字符串时，起始编号从1开始，这个要注意与${ }相区分。</t>
+  </si>
+  <si>
+    <t>echo $var | cut -b 起始位置-结束位置    ( 第N位，第N位。。。)</t>
+  </si>
+  <si>
+    <t>//选项 -b 表示按字节截取字符，其中起始位置、结束位置都可以省略。当省略起始位置时，视为从第1个字符开始（编号也是从1开始，与expr类似），当省略结束位置时，视为截取到最后。</t>
+  </si>
+  <si>
+    <t>路径分割</t>
+  </si>
+  <si>
+    <t>取目录位置：dirname "字符串"
+取文档的基本名称：basename "字符串"</t>
+  </si>
+  <si>
+    <t>子串替换</t>
+  </si>
+  <si>
+    <t>只替换第一个匹配结果</t>
+  </si>
+  <si>
+    <t>${变量名/匹配字符（替换字符）/新字符}</t>
+  </si>
+  <si>
+    <t>替换全部匹配结果</t>
+  </si>
+  <si>
+    <t>${变量名//匹配字符（替换字符）/新字符}</t>
+  </si>
+  <si>
+    <t>字符串掐头去尾</t>
+  </si>
+  <si>
+    <t>从左向右，最短匹配删除（#）</t>
+  </si>
+  <si>
+    <t>格式：${变量名#*关键词} //删除从左侧第1个字符到最近的关键词“：”的部分，* 作通配符理解
+        #[root@svr5 ~]# echo ${A#*:}
+        #x:0:0:root:/root:/bin/bash</t>
+  </si>
+  <si>
+    <t>从左向右，最长匹配删除（##）</t>
+  </si>
+  <si>
+    <t>格式：${变量名##*关键词} //删除从左侧第1个字符到最远的关键词“:”的部分
+        #[root@svr5 ~]# echo $A                      //确认变量A的值
+        #root:x:0:0:root:/root:/bin/bash
+        #[root@svr5 ~]# echo ${A##*:}
+        #/bin/bash</t>
+  </si>
+  <si>
+    <t>从右向左，最短匹配删除（%）</t>
+  </si>
+  <si>
+    <t>格式：${变量名%关键词*} //删除从右侧最后1个字符到往左最近的关键词“:”的部分，* 做通配符理解
+        #[root@svr5 ~]# echo ${A%:*}
+        #root:x:0:0:root:/root</t>
+  </si>
+  <si>
+    <t>从右向左，最长匹配删除（%%）</t>
+  </si>
+  <si>
+    <t>格式：${变量名%%关键词*} //删除从右侧最后1个字符到往左最远的关键词“:”的部分
+        #[root@svr5 ~]# echo ${A%%:*}
+        #root</t>
+  </si>
+  <si>
+    <t>字符串初值</t>
+  </si>
+  <si>
+    <t>通过${var:-word}判断变量是否存在，决定是否给变量赋初始值</t>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>一个变量可以储存多个变量值</t>
+  </si>
+  <si>
+    <t>赋值： a=(11 22 33)
+  a[0]=11
+ 提取： echo ${a[0]}
+  echo ${a[*]} //显示数组的全部值
+ 获取数组长度的方法与获取字符串长度的方法相同，例如：
+    # 取得数组元素的个数
+    length=${#array_name[@]}
+    # 或者
+    length=${#array_name[*]}
+    # 取得数组单个元素的长度
+    lengthn=${#array_name[n]}</t>
+  </si>
+  <si>
+    <t>expect预期交互</t>
+  </si>
+  <si>
+    <t>xpect可以为交互式过程（比如FTP、SSH等登录过程）自动输送预先准备的文本或指令，而无需人工干预。触发的依据是预期会出现的特征提示文本。</t>
+  </si>
+  <si>
+    <t>expect指令</t>
+  </si>
+  <si>
+    <t>定义环境变量：set 变量名 变量值
+  创建交互式进程：spawn 交互式命令行
+  触发预期交互：expect "预期会出现的文本关键词:" { send "发送的文本\r" }
+  在spawn建立的进程中允许交互指令：interact
+   #!/bin/bash
+   host=192.168.4.5
+   expect &lt;&lt; EOF      //expect 自动交互工具
+   spawn ssh root@$host                           //spawn  创建ssh连接
+   expect "password:" { send "123456\r" }            //expect 在这里相当于眼睛 send 在这里相当于手
+   expect "#"  { send "pwd &gt; /tmp/$user.txt \r" }   //脚本中的 "# 以及 password " 在这里是眼睛寻找查看的东西
+   expect "#"  { send "exit\r" }    //当眼睛寻找到关键字符时  send开始输入</t>
+  </si>
+  <si>
+    <t>正则表达式</t>
+  </si>
+  <si>
+    <t>计算机的通用表达式，用特殊符号表示的一种形式</t>
+  </si>
+  <si>
+    <t>基本正则列表</t>
+  </si>
+  <si>
+    <t>^                                   //匹配行首
+$                                  //匹配行尾
+[ ]                               //集合，匹配集合中的任意单个字符
+[^]                              //对集合区反
+.                               //匹配任意单个字符
+*                              //匹配前一个字符任意次数（*不允许单独使用）
+.*                            //匹配所有
+\{n,m\}                      //匹配前一个字符n到m次
+\{n\}                       //匹配前一个字符n次
+\{n,\}                     //匹配前一个字符n次以上
+\(\)                      //保留</t>
+  </si>
+  <si>
+    <t>扩展正则列表</t>
+  </si>
+  <si>
+    <t>+                            //最少匹配一次
+?                            //最多匹配一次
+{n,m}                       //匹配n到m次
+()                         //组合为整体，保留
+|                         //或者
+\b                       //单词边界</t>
+  </si>
+  <si>
+    <t>sed基本用法</t>
+  </si>
+  <si>
+    <t>文本编辑器（非交互编辑器）诸行处理软件</t>
+  </si>
+  <si>
+    <t>工具的用法</t>
+  </si>
+  <si>
+    <t>用法1：前置命令 | sed  [选项]  '条件指令'  //指令：增、删、改、查：前置命令输出结果
+用法2：sed  [选项]  '条件指令'  文件.. ..  //指令：增、删、改、查：对文件
+   相关说明如下：
+                条件可以是行号或者/正则/
+                没有条件时，默认为所有条件
+                指令可以是增、删、改、查等指令
+                默认sed会将所有输出的内容都打印出来，可以使用-n屏蔽默认输出
+                选项中可以使用-r选项，让sed支持扩展正则</t>
+  </si>
+  <si>
+    <t>sed基本选项</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-n（屏蔽默认输出，默认sed会输出读取文档的全部内容）
+-r（让sed支持扩展正则）
+-i（sed直接修改源文件，默认sed只是通过内存临时修改文件，源文件无影响）
+  1）sed命令的 -n 选项
+  执行p打印等过滤操作时，希望看到的是符合条件的文本。但不使用任何选项时，默认会将原始文本一并输出，从而干扰过滤效果。
+</t>
+  </si>
+  <si>
+    <t>工具p、d、s操作</t>
+  </si>
+  <si>
+    <t>1）sed工具的p指令案例集锦
+          sed  -n 'p'（'4p'）（'4,7p'）（'4,+10p'）（'/^bin/p'）（'$='） a.txt          
+          sed  -n '$=' a.txt            //输出文件的行数</t>
+  </si>
 </sst>
 </file>
 
@@ -695,10 +1363,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -715,6 +1383,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="仿宋"/>
@@ -727,7 +1396,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="仿宋"/>
@@ -736,6 +1404,7 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FF7030A0"/>
       <name val="仿宋"/>
       <charset val="134"/>
     </font>
@@ -745,6 +1414,18 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -830,13 +1511,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF7030A0"/>
-      <name val="仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
       <name val="仿宋"/>
@@ -844,7 +1518,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,30 +1554,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -890,15 +1564,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,8 +1600,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,13 +1625,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,20 +1638,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -971,19 +1646,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1002,7 +1676,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,169 +1844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,23 +1867,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,30 +1923,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1264,11 +1932,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,152 +1966,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1450,196 +2124,229 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -1962,7 +2669,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1994,160 +2701,160 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="57" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="59" customWidth="1"/>
-    <col min="4" max="8" width="9" style="59"/>
-    <col min="9" max="16352" width="9" style="58"/>
-    <col min="16353" max="16384" width="9" style="60"/>
+    <col min="1" max="1" width="18.875" style="67" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="68" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="69" customWidth="1"/>
+    <col min="4" max="8" width="9" style="69"/>
+    <col min="9" max="16352" width="9" style="68"/>
+    <col min="16353" max="16384" width="9" style="70"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="69" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="72" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="73" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="73" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="74" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="73" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="74" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="73" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="74" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
-      <c r="C12" s="64"/>
+      <c r="C12" s="74"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="67" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="69" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+    </row>
+    <row r="22" ht="13.5" spans="1:7">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2191,554 +2898,554 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="33" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="34" customWidth="1"/>
-    <col min="4" max="12" width="9" style="34"/>
-    <col min="13" max="15" width="9" style="35"/>
-    <col min="16" max="16" width="9" style="22"/>
-    <col min="17" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="17.375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="47" customWidth="1"/>
+    <col min="4" max="12" width="9" style="47"/>
+    <col min="13" max="15" width="9" style="48"/>
+    <col min="16" max="16" width="9" style="24"/>
+    <col min="17" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:14">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="45" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" ht="39" customHeight="1" spans="2:14">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" ht="79" customHeight="1" spans="3:14">
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="2:2">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="53" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" ht="58" customHeight="1" spans="3:14">
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="53" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" ht="78" customHeight="1" spans="3:14">
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:1">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="45" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="71" customHeight="1" spans="2:15">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="45" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1" spans="2:15">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
     </row>
     <row r="21" ht="55" customHeight="1" spans="2:15">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
     </row>
     <row r="22" ht="55" customHeight="1" spans="2:15">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
     </row>
     <row r="23" ht="21" customHeight="1" spans="2:3">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="44"/>
+      <c r="C23" s="57"/>
     </row>
     <row r="24" ht="21" customHeight="1" spans="2:3">
-      <c r="B24" s="43"/>
-      <c r="C24" s="44" t="s">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="2:3">
-      <c r="B25" s="43"/>
-      <c r="C25" s="44" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="57" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="2:3">
-      <c r="B26" s="43"/>
-      <c r="C26" s="44" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="57" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="2:3">
-      <c r="B27" s="43"/>
-      <c r="C27" s="44" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="2:3">
-      <c r="B28" s="43"/>
-      <c r="C28" s="44" t="s">
+      <c r="B28" s="56"/>
+      <c r="C28" s="57" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="45" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" ht="81" customHeight="1" spans="2:14">
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="53" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" ht="33" customHeight="1" spans="3:14">
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="53" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" ht="36" customHeight="1" spans="3:14">
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" ht="54" customHeight="1" spans="2:14">
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
     </row>
     <row r="42" ht="72" customHeight="1" spans="1:14">
-      <c r="A42" s="45"/>
-      <c r="B42" s="48" t="s">
+      <c r="A42" s="58"/>
+      <c r="B42" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="45" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="45" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" ht="54" customHeight="1" spans="2:14">
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
     </row>
     <row r="49" ht="21" customHeight="1" spans="2:2">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="53" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="50" ht="120" customHeight="1" spans="3:14">
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="53" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" ht="31" customHeight="1" spans="3:14">
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="53" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="54" spans="3:14">
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="51"/>
-      <c r="N54" s="51"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2784,391 +3491,391 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16" style="21" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="22" customWidth="1"/>
-    <col min="3" max="13" width="9" style="23"/>
-    <col min="14" max="14" width="11.625" style="22" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="16" style="38" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="24" customWidth="1"/>
+    <col min="3" max="13" width="9" style="25"/>
+    <col min="14" max="14" width="11.625" style="24" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:14">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="39"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="2:14">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="24"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="39"/>
     </row>
     <row r="4" customHeight="1" spans="2:14">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="39"/>
     </row>
     <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="26"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="40"/>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="38" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="2:14">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="24"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" ht="49" customHeight="1" spans="2:14">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="10" customHeight="1" spans="2:14">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="26"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="38" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" ht="72" customHeight="1" spans="2:14">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="24"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" customHeight="1" spans="2:2">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" ht="47" customHeight="1" spans="3:14">
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="24"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" ht="90" customHeight="1" spans="2:2">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="41" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="38" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" ht="61" customHeight="1" spans="2:14">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="39"/>
     </row>
     <row r="19" customHeight="1" spans="2:14">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="26"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="40"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="38" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" ht="167" customHeight="1" spans="2:14">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="38" t="s">
         <v>86</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="31"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="44"/>
     </row>
     <row r="24" ht="53" customHeight="1" spans="1:14">
-      <c r="A24" s="30"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="39"/>
     </row>
     <row r="25" customHeight="1" spans="2:2">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26" ht="48" customHeight="1" spans="3:14">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="24"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="39"/>
     </row>
     <row r="27" customHeight="1" spans="2:2">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" ht="79" customHeight="1" spans="3:14">
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="24"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="39"/>
     </row>
     <row r="29" customHeight="1" spans="2:2">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="30" ht="58" customHeight="1" spans="3:14">
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="24"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="39"/>
     </row>
     <row r="31" customHeight="1" spans="2:2">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" ht="33" customHeight="1" spans="3:14">
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="24"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="39"/>
     </row>
     <row r="33" customHeight="1" spans="2:2">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" ht="95" customHeight="1" spans="3:14">
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="24"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3202,527 +3909,527 @@
   <sheetPr/>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="26.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="3" customWidth="1"/>
-    <col min="4" max="12" width="9" style="3"/>
-    <col min="13" max="13" width="11.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="26.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="25" customWidth="1"/>
+    <col min="4" max="12" width="9" style="25"/>
+    <col min="13" max="13" width="11.625" style="25" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="26" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" ht="57" customHeight="1" spans="4:13">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:11">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" ht="54" customHeight="1" spans="3:13">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="9" ht="37" customHeight="1" spans="2:13">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" ht="19" customHeight="1" spans="2:2">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" ht="93" customHeight="1" spans="3:13">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" ht="53" customHeight="1" spans="2:13">
-      <c r="B16" s="5"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" ht="54" customHeight="1" spans="3:13">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" ht="21" customHeight="1" spans="2:2">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="19" ht="129" customHeight="1" spans="3:13">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="21" ht="180" customHeight="1" spans="3:13">
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" ht="49" customHeight="1" spans="3:13">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" ht="73" customHeight="1" spans="2:13">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" ht="57" customHeight="1" spans="3:13">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
     </row>
     <row r="30" ht="127" customHeight="1" spans="3:13">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" ht="81" customHeight="1" spans="3:13">
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
     </row>
     <row r="34" ht="36" customHeight="1" spans="3:13">
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" ht="60" customHeight="1" spans="1:13">
-      <c r="A38" s="18"/>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
     </row>
     <row r="40" ht="37" customHeight="1" spans="3:13">
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
     </row>
     <row r="41" spans="4:13">
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
     </row>
     <row r="42" ht="37" customHeight="1" spans="3:13">
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="26" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="45" spans="4:13">
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -3756,4 +4463,1793 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N160"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="23" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="3" customWidth="1"/>
+    <col min="4" max="14" width="9" style="3"/>
+    <col min="15" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" ht="108" customHeight="1" spans="3:14">
+      <c r="C3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="3:14">
+      <c r="C5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" ht="37" customHeight="1" spans="3:14">
+      <c r="C7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" ht="108" customHeight="1" spans="3:14">
+      <c r="C10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" ht="76" customHeight="1" spans="3:14">
+      <c r="C11" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="C13" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" ht="136" customHeight="1" spans="3:14">
+      <c r="C15" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" ht="72" customHeight="1" spans="3:14">
+      <c r="C17" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="3:14">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" ht="38" customHeight="1" spans="2:14">
+      <c r="B20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" ht="54" customHeight="1" spans="3:14">
+      <c r="C24" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14">
+      <c r="D26" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14">
+      <c r="D28" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" ht="73" customHeight="1" spans="3:14">
+      <c r="C32" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" ht="82" customHeight="1" spans="3:14">
+      <c r="C34" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" ht="145" customHeight="1" spans="3:14">
+      <c r="C36" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="C38" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" ht="55" customHeight="1" spans="4:14">
+      <c r="D41" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" ht="38" customHeight="1" spans="4:14">
+      <c r="D43" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14">
+      <c r="D45" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" ht="74" customHeight="1" spans="3:14">
+      <c r="C49" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" ht="57" customHeight="1" spans="3:14">
+      <c r="C51" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" ht="37" customHeight="1" spans="3:14">
+      <c r="C53" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="14"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14">
+      <c r="C58" s="14"/>
+      <c r="D58" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" ht="95" customHeight="1" spans="3:14">
+      <c r="C60" s="14"/>
+      <c r="D60" s="79" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" ht="108" customHeight="1" spans="3:14">
+      <c r="C62" s="14"/>
+      <c r="D62" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" ht="36" customHeight="1" spans="4:14">
+      <c r="D64" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="4:13">
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+    </row>
+    <row r="66" ht="19" customHeight="1" spans="1:14">
+      <c r="A66" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" ht="72" customHeight="1" spans="3:14">
+      <c r="C69" s="14"/>
+      <c r="D69" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" ht="102" customHeight="1" spans="3:14">
+      <c r="C71" s="14"/>
+      <c r="D71" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" spans="3:13">
+      <c r="C72" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+    </row>
+    <row r="73" spans="3:13">
+      <c r="C73" s="14"/>
+      <c r="D73" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+    </row>
+    <row r="74" spans="3:13">
+      <c r="C74" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+    </row>
+    <row r="75" ht="57" customHeight="1" spans="3:14">
+      <c r="C75" s="14"/>
+      <c r="D75" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" ht="108" customHeight="1" spans="3:14">
+      <c r="C77" s="14"/>
+      <c r="D77" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" ht="159" customHeight="1" spans="3:14">
+      <c r="C81" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+    </row>
+    <row r="82" spans="2:14">
+      <c r="B82" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+    </row>
+    <row r="83" ht="58" customHeight="1" spans="3:14">
+      <c r="C83" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" ht="22" customHeight="1" spans="3:13">
+      <c r="C84" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+    </row>
+    <row r="85" ht="161" customHeight="1" spans="3:14">
+      <c r="C85" s="9"/>
+      <c r="D85" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" ht="85" customHeight="1" spans="3:14">
+      <c r="C88" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" ht="60" customHeight="1" spans="4:14">
+      <c r="D90" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" ht="56" customHeight="1" spans="3:14">
+      <c r="C92" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="94" ht="153" customHeight="1" spans="4:14">
+      <c r="D94" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+    </row>
+    <row r="95" customHeight="1" spans="4:14">
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+    </row>
+    <row r="96" ht="20" customHeight="1" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" ht="41" customHeight="1" spans="2:14">
+      <c r="B97" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+    </row>
+    <row r="98" ht="23" customHeight="1" spans="2:2">
+      <c r="B98" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" ht="172" customHeight="1" spans="3:14">
+      <c r="C99" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" ht="55" customHeight="1" spans="3:14">
+      <c r="C101" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+    </row>
+    <row r="102" ht="125" customHeight="1" spans="3:14">
+      <c r="C102" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+    </row>
+    <row r="103" ht="23" customHeight="1" spans="3:14">
+      <c r="C103" s="18"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="19"/>
+    </row>
+    <row r="104" ht="24" customHeight="1" spans="1:14">
+      <c r="A104" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+    </row>
+    <row r="105" ht="20" customHeight="1" spans="2:2">
+      <c r="B105" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106" ht="20" customHeight="1" spans="3:14">
+      <c r="C106" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+    </row>
+    <row r="107" ht="20" customHeight="1" spans="2:2">
+      <c r="B107" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="108" ht="20" customHeight="1" spans="3:14">
+      <c r="C108" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+    </row>
+    <row r="109" ht="20" customHeight="1" spans="2:2">
+      <c r="B109" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" ht="19" customHeight="1" spans="3:14">
+      <c r="C110" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+    </row>
+    <row r="112" ht="19" customHeight="1" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="114" ht="35" customHeight="1" spans="3:14">
+      <c r="C114" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="117" ht="37" customHeight="1" spans="4:14">
+      <c r="D117" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="119" spans="4:14">
+      <c r="D119" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="121" ht="54" customHeight="1" spans="4:14">
+      <c r="D121" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="123" ht="36" customHeight="1" spans="3:14">
+      <c r="C123" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="126" spans="4:14">
+      <c r="D126" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" ht="21" customHeight="1" spans="4:14">
+      <c r="D128" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+    </row>
+    <row r="129" ht="19" customHeight="1" spans="2:2">
+      <c r="B129" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="3:13">
+      <c r="C130" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
+      <c r="J130" s="21"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="21"/>
+      <c r="M130" s="21"/>
+    </row>
+    <row r="131" ht="76" customHeight="1" spans="3:14">
+      <c r="C131" s="22"/>
+      <c r="D131" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
+      <c r="I131" s="23"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="23"/>
+      <c r="M131" s="23"/>
+      <c r="N131" s="23"/>
+    </row>
+    <row r="132" spans="3:13">
+      <c r="C132" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="21"/>
+      <c r="J132" s="21"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="21"/>
+      <c r="M132" s="21"/>
+    </row>
+    <row r="133" ht="95" customHeight="1" spans="3:14">
+      <c r="C133" s="22"/>
+      <c r="D133" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23"/>
+      <c r="H133" s="23"/>
+      <c r="I133" s="23"/>
+      <c r="J133" s="23"/>
+      <c r="K133" s="23"/>
+      <c r="L133" s="23"/>
+      <c r="M133" s="23"/>
+      <c r="N133" s="23"/>
+    </row>
+    <row r="134" spans="3:13">
+      <c r="C134" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="21"/>
+      <c r="M134" s="21"/>
+    </row>
+    <row r="135" ht="79" customHeight="1" spans="3:14">
+      <c r="C135" s="22"/>
+      <c r="D135" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23"/>
+      <c r="I135" s="23"/>
+      <c r="J135" s="23"/>
+      <c r="K135" s="23"/>
+      <c r="L135" s="23"/>
+      <c r="M135" s="23"/>
+      <c r="N135" s="23"/>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="137" ht="73" customHeight="1" spans="4:14">
+      <c r="D137" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="23"/>
+      <c r="J137" s="23"/>
+      <c r="K137" s="23"/>
+      <c r="L137" s="23"/>
+      <c r="M137" s="23"/>
+      <c r="N137" s="23"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="139" spans="3:14">
+      <c r="C139" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+    </row>
+    <row r="142" ht="187" customHeight="1" spans="2:14">
+      <c r="B142" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="145" ht="39" customHeight="1" spans="2:14">
+      <c r="B145" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="147" ht="220" customHeight="1" spans="3:14">
+      <c r="C147" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="9"/>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="151" ht="190" customHeight="1" spans="3:14">
+      <c r="C151" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="9"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="153" ht="117" customHeight="1" spans="3:14">
+      <c r="C153" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="9"/>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="9"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="156" ht="145" customHeight="1" spans="3:14">
+      <c r="C156" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="9"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="158" ht="102" customHeight="1" spans="3:14">
+      <c r="C158" s="79" t="s">
+        <v>298</v>
+      </c>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9"/>
+      <c r="M158" s="9"/>
+      <c r="N158" s="9"/>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="160" ht="55" customHeight="1" spans="3:14">
+      <c r="C160" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="75">
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="C15:N15"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="B20:N20"/>
+    <mergeCell ref="C22:N22"/>
+    <mergeCell ref="C24:N24"/>
+    <mergeCell ref="D26:N26"/>
+    <mergeCell ref="D28:N28"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="C36:N36"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="D41:N41"/>
+    <mergeCell ref="D43:N43"/>
+    <mergeCell ref="D45:N45"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="C49:N49"/>
+    <mergeCell ref="C51:N51"/>
+    <mergeCell ref="C53:N53"/>
+    <mergeCell ref="D58:N58"/>
+    <mergeCell ref="D60:N60"/>
+    <mergeCell ref="D62:N62"/>
+    <mergeCell ref="D64:N64"/>
+    <mergeCell ref="C66:N66"/>
+    <mergeCell ref="D69:N69"/>
+    <mergeCell ref="D71:N71"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="D75:N75"/>
+    <mergeCell ref="D77:N77"/>
+    <mergeCell ref="C81:N81"/>
+    <mergeCell ref="D82:N82"/>
+    <mergeCell ref="C83:N83"/>
+    <mergeCell ref="D85:N85"/>
+    <mergeCell ref="C88:N88"/>
+    <mergeCell ref="D90:N90"/>
+    <mergeCell ref="C92:N92"/>
+    <mergeCell ref="D94:N94"/>
+    <mergeCell ref="B97:N97"/>
+    <mergeCell ref="C99:N99"/>
+    <mergeCell ref="C101:N101"/>
+    <mergeCell ref="C102:N102"/>
+    <mergeCell ref="C104:N104"/>
+    <mergeCell ref="C106:N106"/>
+    <mergeCell ref="C108:N108"/>
+    <mergeCell ref="C110:N110"/>
+    <mergeCell ref="C114:N114"/>
+    <mergeCell ref="D117:N117"/>
+    <mergeCell ref="D119:N119"/>
+    <mergeCell ref="D121:N121"/>
+    <mergeCell ref="C123:N123"/>
+    <mergeCell ref="D126:N126"/>
+    <mergeCell ref="D128:N128"/>
+    <mergeCell ref="D131:N131"/>
+    <mergeCell ref="D133:N133"/>
+    <mergeCell ref="D135:N135"/>
+    <mergeCell ref="D137:N137"/>
+    <mergeCell ref="C139:N139"/>
+    <mergeCell ref="C141:N141"/>
+    <mergeCell ref="B142:N142"/>
+    <mergeCell ref="B145:N145"/>
+    <mergeCell ref="C147:N147"/>
+    <mergeCell ref="C149:N149"/>
+    <mergeCell ref="C151:N151"/>
+    <mergeCell ref="C153:N153"/>
+    <mergeCell ref="C154:N154"/>
+    <mergeCell ref="C156:N156"/>
+    <mergeCell ref="C158:N158"/>
+    <mergeCell ref="C160:N160"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/LINUX.xlsx
+++ b/LINUX.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458">
   <si>
     <t>NTP时间同步</t>
   </si>
@@ -121,6 +121,19 @@
   </si>
   <si>
     <t>LDAP提供很复杂的不同层次的访问控制或者ACI</t>
+  </si>
+  <si>
+    <t>DHCP服务</t>
+  </si>
+  <si>
+    <t>配置文件 /etc/dhcp/dhcpd.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> subnet  192.168.4.0  netmask  255.255.255.0  {  #指定分配的网段
+   range 192.168.4.10  192.168.4.100;       #指定的分配具体的ip地址范围
+   option domain-name-servers  8.8.8.8;         #指定dns地址
+   option routers  192.168.4.254;               #指定网关地址
+ }</t>
   </si>
   <si>
     <t>FTP</t>
@@ -403,16 +416,100 @@
     <t>泛域名解析</t>
   </si>
   <si>
+    <t>*        A   1.2.3.4
+  $GENERATE  1-50  web$   A   192.168.10.$
+函数： $GENERATE  生成连续范围的数字</t>
+  </si>
+  <si>
     <t>DNS轮询</t>
   </si>
   <si>
     <t>缓存DNS</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">作用：加速解析过程，让客户端最快得到结果
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <charset val="134"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 方式1:全局转发
+– 将请求转发给指定的公共DNS(其他缓存DNS),请求递归服务
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <charset val="134"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 方式2:根域迭代
+– 依次向根、一级、二级......域的DNS服务器迭代</t>
+    </r>
+  </si>
+  <si>
+    <t>DNS子域授权</t>
+  </si>
+  <si>
+    <t>递归解析： 首选DNS服务器，跑到相应其他DNS服务器上，询问最终将结果带回来过程（客户端与首选DNS服务器交互）
+迭代查询： 首选DNS服务器 与 其他DNS服务器交互</t>
+  </si>
+  <si>
     <t>Split分离解析</t>
   </si>
   <si>
-    <t>DNS子域授权</t>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 当收到客户机的DNS查询请求的时候
+– 能够区分客户机的来源地址
+– 为不同类别的客户机提供不同的解析结果(IP地址)
+– 当不同类别的客户机请求解析同一个域名时，得到的解析结果不同
+– 意义：让客户端访问网络中最近的服务器</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> view   "nsd"    {
+  match-clients   {  192.168.4.207;  }   #匹配客户端的地址
+  zone "tedu.cn"    {
+        type  master;
+        file  地址库1;
+   }; };
+ view   "abc"   {
+  match-clients  {   any;   }             
+  zone "tedu.cn"    {                           
+        type  master;
+        file 地址库2;
+  }; };</t>
   </si>
   <si>
     <r>
@@ -458,6 +555,71 @@
   </si>
   <si>
     <t>DHCP服务、TFTP服务、PXE引导程序、TFTP简单文件传输协议、网卡启动程序pxelinux.0、PXE+kickstart自动装机（system-config-kickstart来生成应答文件）</t>
+  </si>
+  <si>
+    <t>dhcp服务pxe的设置</t>
+  </si>
+  <si>
+    <t>.修改配置文件/etc/dhcp/dhcpd.conf
+subnet 192.168.4.0 netmask 255.255.255.0 {
+  range 192.168.4.10 192.168.4.100;
+  option domain-name-servers 8.8.8.8;
+  option routers 192.168.4.254;
+  next-server   192.168.4.7;     #指定下一个服务器地址
+  filename   "pxelinux.0";       #指定到下一个服务器下载的文件名字
+}</t>
+  </si>
+  <si>
+    <t>搭建tftp服务</t>
+  </si>
+  <si>
+    <t>tftp:简单文件传输协议      端口:69
+软件包：tftp-server
+默认共享的路径：/var/lib/tftpboot</t>
+  </si>
+  <si>
+    <t>部署 pxelinux.0 引导文件</t>
+  </si>
+  <si>
+    <t>yum provides  */pxelinux.0  #查询什么软件包产生pxelinux.0
+yum -y install  syslinux
+rpm -ql syslinux | grep pxelinux.0  #查询软件包安装清单
+cp /usr/share/syslinux/pxelinux.0 /var/lib/tftpboot/</t>
+  </si>
+  <si>
+    <t>部署默认菜单文件</t>
+  </si>
+  <si>
+    <t>/dvd/isolinux/isolinux.cfg               /var/lib/tftpboot/pxelinux.cfg/default</t>
+  </si>
+  <si>
+    <t>部署启动内核与驱动程序
+    vmlinuz :启动内核
+    initrd.img :驱动程序</t>
+  </si>
+  <si>
+    <t>httpd服务</t>
+  </si>
+  <si>
+    <t>httpd服务共享光盘所有内容</t>
+  </si>
+  <si>
+    <t>配置无人值守安装，应答文件的生成</t>
+  </si>
+  <si>
+    <t>工具：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安装图形的工具，system-config-kickstart </t>
+  </si>
+  <si>
+    <t>运行图形的工具</t>
+  </si>
+  <si>
+    <t>yum仓库的标识 必须为  [development]</t>
+  </si>
+  <si>
+    <t>httpd服务共享ks.cfg应答文件</t>
   </si>
   <si>
     <t>Cobble</t>
@@ -2069,7 +2231,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2218,6 +2380,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2703,152 +2880,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3016,6 +3193,27 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3028,16 +3226,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3070,7 +3259,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -3421,8 +3616,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="72"/>
-    <col min="2" max="2" width="9" style="73"/>
+    <col min="1" max="1" width="9" style="78"/>
+    <col min="2" max="2" width="9" style="79"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData/>
@@ -3436,174 +3631,179 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="62" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="63" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="64" customWidth="1"/>
-    <col min="4" max="8" width="9" style="64"/>
-    <col min="9" max="16352" width="9" style="63"/>
-    <col min="16353" max="16384" width="9" style="65"/>
+    <col min="1" max="1" width="18.875" style="66" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="67" customWidth="1"/>
+    <col min="3" max="3" width="73.125" style="68" customWidth="1"/>
+    <col min="4" max="8" width="9" style="68"/>
+    <col min="9" max="16352" width="9" style="67"/>
+    <col min="16353" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="71" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="73" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="72" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="73" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="73" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="72" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="73" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
-      <c r="C12" s="69"/>
+      <c r="C12" s="73"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="66" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="68" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-    </row>
-    <row r="22" ht="13.5" spans="1:7">
-      <c r="A22"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+    </row>
+    <row r="22" ht="22" customHeight="1" spans="1:7">
+      <c r="A22" s="66" t="s">
+        <v>21</v>
+      </c>
       <c r="B22"/>
-      <c r="C22"/>
+      <c r="C22" s="76" t="s">
+        <v>22</v>
+      </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" ht="70" customHeight="1" spans="1:7">
-      <c r="A23"/>
+    <row r="23" ht="90" customHeight="1" spans="2:7">
       <c r="B23"/>
-      <c r="C23"/>
+      <c r="C23" s="77" t="s">
+        <v>23</v>
+      </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -3628,19 +3828,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B52" sqref="B52"/>
+      <selection pane="topRight" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="37" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="38" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="37" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="38" customWidth="1"/>
     <col min="4" max="14" width="9" style="38"/>
     <col min="15" max="15" width="9" style="39"/>
     <col min="16" max="16" width="9" style="4"/>
@@ -3649,13 +3849,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
@@ -3671,17 +3871,17 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="42" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
@@ -3698,7 +3898,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -3715,7 +3915,7 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="42" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
@@ -3732,7 +3932,7 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -3749,10 +3949,10 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="45" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -3768,7 +3968,7 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -3786,7 +3986,7 @@
     <row r="11" spans="2:14">
       <c r="B11" s="42"/>
       <c r="C11" s="41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
@@ -3802,7 +4002,7 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
@@ -3819,8 +4019,8 @@
     </row>
     <row r="13" ht="39" customHeight="1" spans="2:14">
       <c r="B13" s="42"/>
-      <c r="C13" s="74" t="s">
-        <v>35</v>
+      <c r="C13" s="80" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
@@ -3836,10 +4036,10 @@
     </row>
     <row r="14" ht="42" customHeight="1" spans="2:14">
       <c r="B14" s="42" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -3855,13 +4055,13 @@
     </row>
     <row r="16" ht="34" customHeight="1" spans="1:14">
       <c r="A16" s="36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
@@ -3877,7 +4077,7 @@
     </row>
     <row r="17" ht="39" customHeight="1" spans="2:14">
       <c r="B17" s="45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -3894,12 +4094,12 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" ht="79" customHeight="1" spans="3:14">
       <c r="C19" s="46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
@@ -3915,12 +4115,12 @@
     </row>
     <row r="20" ht="25" customHeight="1" spans="2:2">
       <c r="B20" s="47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="58" customHeight="1" spans="3:14">
       <c r="C21" s="46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
@@ -3936,12 +4136,12 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="78" customHeight="1" spans="3:14">
       <c r="C23" s="46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
@@ -3957,7 +4157,7 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
@@ -3974,7 +4174,7 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
@@ -4051,18 +4251,18 @@
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:3">
       <c r="A30" s="36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" ht="71" customHeight="1" spans="2:15">
       <c r="B31" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -4076,11 +4276,11 @@
       <c r="L31" s="51"/>
       <c r="M31" s="51"/>
       <c r="N31" s="51"/>
-      <c r="O31" s="59"/>
+      <c r="O31" s="57"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
@@ -4097,12 +4297,12 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" ht="60" customHeight="1" spans="2:15">
       <c r="B35" s="45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -4116,11 +4316,11 @@
       <c r="L35" s="46"/>
       <c r="M35" s="46"/>
       <c r="N35" s="46"/>
-      <c r="O35" s="60"/>
+      <c r="O35" s="58"/>
     </row>
     <row r="36" ht="55" customHeight="1" spans="2:15">
       <c r="B36" s="45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -4134,11 +4334,11 @@
       <c r="L36" s="46"/>
       <c r="M36" s="46"/>
       <c r="N36" s="46"/>
-      <c r="O36" s="60"/>
+      <c r="O36" s="58"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:15">
       <c r="B37" s="42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="41"/>
@@ -4152,112 +4352,165 @@
       <c r="L37" s="41"/>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
-      <c r="O37" s="61"/>
+      <c r="O37" s="59"/>
     </row>
     <row r="38" ht="21" customHeight="1" spans="2:3">
       <c r="B38" s="54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C38" s="50"/>
     </row>
-    <row r="39" ht="21" customHeight="1" spans="2:3">
+    <row r="39" ht="54" customHeight="1" spans="2:14">
       <c r="B39" s="54"/>
       <c r="C39" s="50" t="s">
-        <v>60</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
     </row>
     <row r="40" ht="21" customHeight="1" spans="2:3">
       <c r="B40" s="54"/>
       <c r="C40" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" ht="21" customHeight="1" spans="2:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" ht="72" customHeight="1" spans="2:14">
       <c r="B41" s="54"/>
       <c r="C41" s="50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" ht="21" customHeight="1" spans="2:3">
+        <v>66</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+    </row>
+    <row r="42" ht="39" customHeight="1" spans="2:14">
       <c r="B42" s="54"/>
       <c r="C42" s="50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" ht="21" customHeight="1" spans="2:3">
+        <v>68</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+    </row>
+    <row r="43" ht="21" customHeight="1" spans="2:4">
       <c r="B43" s="54"/>
       <c r="C43" s="50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15">
-      <c r="B44" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="61"/>
-    </row>
-    <row r="45" spans="2:14">
-      <c r="B45" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" ht="81" customHeight="1" spans="2:14">
-      <c r="B48" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="47" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" ht="33" customHeight="1" spans="3:14">
-      <c r="C50" s="46" t="s">
+      <c r="D43" s="50"/>
+    </row>
+    <row r="44" ht="66" customHeight="1" spans="2:14">
+      <c r="B44" s="54"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="48" t="s">
         <v>71</v>
       </c>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+    </row>
+    <row r="45" ht="161" customHeight="1" spans="2:14">
+      <c r="B45" s="54"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="59"/>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" ht="81" customHeight="1" spans="2:14">
+      <c r="B50" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="46"/>
       <c r="D50" s="46"/>
       <c r="E50" s="46"/>
       <c r="F50" s="46"/>
@@ -4272,12 +4525,12 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" ht="36" customHeight="1" spans="3:14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" ht="33" customHeight="1" spans="3:14">
       <c r="C52" s="46" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D52" s="46"/>
       <c r="E52" s="46"/>
@@ -4291,75 +4544,134 @@
       <c r="M52" s="46"/>
       <c r="N52" s="46"/>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" ht="54" customHeight="1" spans="2:14">
-      <c r="B55" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="56"/>
-    </row>
-    <row r="58" ht="72" customHeight="1" spans="1:14">
-      <c r="A58" s="55"/>
-      <c r="B58" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="58"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14">
-      <c r="B61" s="45" t="s">
-        <v>79</v>
+    <row r="53" spans="2:2">
+      <c r="B53" s="47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" ht="36" customHeight="1" spans="3:14">
+      <c r="C54" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+    </row>
+    <row r="55" ht="19" customHeight="1" spans="2:14">
+      <c r="B55" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+    </row>
+    <row r="56" ht="103" customHeight="1" spans="3:14">
+      <c r="C56" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+    </row>
+    <row r="57" ht="23" customHeight="1" spans="2:14">
+      <c r="B57" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+    </row>
+    <row r="58" ht="41" customHeight="1" spans="3:14">
+      <c r="C58" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+    </row>
+    <row r="59" ht="23" customHeight="1" spans="2:14">
+      <c r="B59" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+    </row>
+    <row r="60" ht="57" customHeight="1" spans="3:14">
+      <c r="C60" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+    </row>
+    <row r="61" ht="27" customHeight="1" spans="2:14">
+      <c r="B61" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
+      <c r="D61" s="46" t="s">
+        <v>89</v>
+      </c>
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
@@ -4371,14 +4683,44 @@
       <c r="M61" s="46"/>
       <c r="N61" s="46"/>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" ht="54" customHeight="1" spans="2:14">
-      <c r="B64" s="45" t="s">
-        <v>81</v>
+    <row r="62" ht="41" customHeight="1" spans="3:14">
+      <c r="C62" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+    </row>
+    <row r="63" ht="26" customHeight="1" spans="2:14">
+      <c r="B63" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+    </row>
+    <row r="64" ht="25" customHeight="1" spans="2:14">
+      <c r="B64" s="47" t="s">
+        <v>93</v>
       </c>
       <c r="C64" s="46"/>
       <c r="D64" s="46"/>
@@ -4393,16 +4735,33 @@
       <c r="M64" s="46"/>
       <c r="N64" s="46"/>
     </row>
-    <row r="65" ht="21" customHeight="1" spans="2:2">
-      <c r="B65" s="47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" ht="120" customHeight="1" spans="3:14">
-      <c r="C66" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="46"/>
+    <row r="65" ht="25" customHeight="1" spans="2:14">
+      <c r="B65" s="47"/>
+      <c r="C65" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+    </row>
+    <row r="66" ht="25" customHeight="1" spans="2:14">
+      <c r="B66" s="47"/>
+      <c r="C66" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>97</v>
+      </c>
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
       <c r="G66" s="46"/>
@@ -4414,15 +4773,25 @@
       <c r="M66" s="46"/>
       <c r="N66" s="46"/>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" ht="31" customHeight="1" spans="3:14">
-      <c r="C68" s="46" t="s">
-        <v>85</v>
-      </c>
+    <row r="67" ht="25" customHeight="1" spans="2:14">
+      <c r="B67" s="47"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+    </row>
+    <row r="68" ht="36" customHeight="1" spans="3:14">
+      <c r="C68" s="46"/>
       <c r="D68" s="46"/>
       <c r="E68" s="46"/>
       <c r="F68" s="46"/>
@@ -4435,29 +4804,323 @@
       <c r="M68" s="46"/>
       <c r="N68" s="46"/>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="3:14">
-      <c r="C70" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
+    <row r="70" spans="1:1">
+      <c r="A70" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" ht="54" customHeight="1" spans="2:14">
+      <c r="B71" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="41"/>
+    </row>
+    <row r="72" ht="54" customHeight="1" spans="2:14">
+      <c r="B72" s="45"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+    </row>
+    <row r="73" ht="54" customHeight="1" spans="2:14">
+      <c r="B73" s="45"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="41"/>
+    </row>
+    <row r="74" ht="54" customHeight="1" spans="2:14">
+      <c r="B74" s="45"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="41"/>
+    </row>
+    <row r="75" ht="54" customHeight="1" spans="2:14">
+      <c r="B75" s="45"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="41"/>
+    </row>
+    <row r="76" ht="54" customHeight="1" spans="2:14">
+      <c r="B76" s="45"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+    </row>
+    <row r="77" ht="54" customHeight="1" spans="2:14">
+      <c r="B77" s="45"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="41"/>
+    </row>
+    <row r="78" ht="54" customHeight="1" spans="2:14">
+      <c r="B78" s="45"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="41"/>
+    </row>
+    <row r="79" ht="54" customHeight="1" spans="2:14">
+      <c r="B79" s="45"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="41"/>
+    </row>
+    <row r="80" ht="54" customHeight="1" spans="2:14">
+      <c r="B80" s="45"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="41"/>
+    </row>
+    <row r="81" ht="54" customHeight="1" spans="2:14">
+      <c r="B81" s="45"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="41"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="41"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="26"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
+      <c r="L83" s="63"/>
+      <c r="M83" s="63"/>
+      <c r="N83" s="63"/>
+    </row>
+    <row r="84" ht="72" customHeight="1" spans="1:14">
+      <c r="A84" s="62"/>
+      <c r="B84" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
+      <c r="M84" s="65"/>
+      <c r="N84" s="65"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="B87" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="46"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" ht="54" customHeight="1" spans="2:14">
+      <c r="B90" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="46"/>
+      <c r="N90" s="46"/>
+    </row>
+    <row r="91" ht="21" customHeight="1" spans="2:2">
+      <c r="B91" s="47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" ht="120" customHeight="1" spans="3:14">
+      <c r="C92" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" ht="31" customHeight="1" spans="3:14">
+      <c r="C94" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="46"/>
+      <c r="K94" s="46"/>
+      <c r="L94" s="46"/>
+      <c r="M94" s="46"/>
+      <c r="N94" s="46"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="3:14">
+      <c r="C96" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="41"/>
+      <c r="N96" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="47">
     <mergeCell ref="C1:N1"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="B6:N6"/>
@@ -4479,18 +5142,32 @@
     <mergeCell ref="B35:O35"/>
     <mergeCell ref="B36:O36"/>
     <mergeCell ref="B37:O37"/>
-    <mergeCell ref="B44:O44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B48:N48"/>
-    <mergeCell ref="C50:N50"/>
+    <mergeCell ref="D39:N39"/>
+    <mergeCell ref="D41:N41"/>
+    <mergeCell ref="D42:N42"/>
+    <mergeCell ref="D44:N44"/>
+    <mergeCell ref="D45:N45"/>
+    <mergeCell ref="B46:O46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B50:N50"/>
     <mergeCell ref="C52:N52"/>
-    <mergeCell ref="B55:N55"/>
-    <mergeCell ref="B58:N58"/>
-    <mergeCell ref="B61:N61"/>
-    <mergeCell ref="B64:N64"/>
-    <mergeCell ref="C66:N66"/>
-    <mergeCell ref="C68:N68"/>
-    <mergeCell ref="C70:N70"/>
+    <mergeCell ref="C54:N54"/>
+    <mergeCell ref="C56:N56"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C60:N60"/>
+    <mergeCell ref="D61:N61"/>
+    <mergeCell ref="C62:N62"/>
+    <mergeCell ref="C63:N63"/>
+    <mergeCell ref="D65:N65"/>
+    <mergeCell ref="D66:N66"/>
+    <mergeCell ref="D67:N67"/>
+    <mergeCell ref="B71:N71"/>
+    <mergeCell ref="B84:N84"/>
+    <mergeCell ref="B87:N87"/>
+    <mergeCell ref="B90:N90"/>
+    <mergeCell ref="C92:N92"/>
+    <mergeCell ref="C94:N94"/>
+    <mergeCell ref="C96:N96"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4503,7 +5180,7 @@
   <sheetPr/>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="B14" sqref="B14"/>
@@ -4520,12 +5197,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="28" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:14">
       <c r="B2" s="9" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -4542,7 +5219,7 @@
     </row>
     <row r="3" ht="57" customHeight="1" spans="2:14">
       <c r="B3" s="9" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -4559,7 +5236,7 @@
     </row>
     <row r="4" customHeight="1" spans="2:14">
       <c r="B4" s="9" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4576,7 +5253,7 @@
     </row>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="29" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -4593,10 +5270,10 @@
     </row>
     <row r="6" ht="45" customHeight="1" spans="2:14">
       <c r="B6" s="30" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -4612,10 +5289,10 @@
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="30" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -4632,7 +5309,7 @@
     <row r="8" ht="70" customHeight="1" spans="2:14">
       <c r="B8" s="29"/>
       <c r="C8" s="11" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -4648,10 +5325,10 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="30" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -4668,7 +5345,7 @@
     <row r="10" ht="70" customHeight="1" spans="2:14">
       <c r="B10" s="29"/>
       <c r="C10" s="11" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -4684,11 +5361,11 @@
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:14">
       <c r="B11" s="30" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="7" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -4704,7 +5381,7 @@
     <row r="12" ht="142" customHeight="1" spans="2:14">
       <c r="B12" s="29"/>
       <c r="C12" s="11" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -4720,11 +5397,11 @@
     </row>
     <row r="13" ht="22" customHeight="1" spans="2:14">
       <c r="B13" s="30" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
@@ -4740,7 +5417,7 @@
     <row r="14" ht="156" customHeight="1" spans="2:14">
       <c r="B14" s="30"/>
       <c r="C14" s="11" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -4756,12 +5433,12 @@
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="28" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:14">
       <c r="B17" s="9" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4778,7 +5455,7 @@
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
       <c r="B18" s="9" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4795,7 +5472,7 @@
     </row>
     <row r="19" customHeight="1" spans="2:14">
       <c r="B19" s="29" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -4812,12 +5489,12 @@
     </row>
     <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="28" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" ht="72" customHeight="1" spans="2:14">
       <c r="B21" s="9" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4834,12 +5511,12 @@
     </row>
     <row r="22" customHeight="1" spans="2:2">
       <c r="B22" s="5" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" ht="47" customHeight="1" spans="3:14">
       <c r="C23" s="7" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -4855,17 +5532,17 @@
     </row>
     <row r="24" ht="90" customHeight="1" spans="2:2">
       <c r="B24" s="31" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:1">
       <c r="A26" s="28" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" ht="61" customHeight="1" spans="2:14">
       <c r="B27" s="9" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -4882,7 +5559,7 @@
     </row>
     <row r="28" customHeight="1" spans="2:14">
       <c r="B28" s="29" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -4899,12 +5576,12 @@
     </row>
     <row r="29" customHeight="1" spans="1:1">
       <c r="A29" s="28" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" ht="167" customHeight="1" spans="2:14">
       <c r="B30" s="9" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -4921,7 +5598,7 @@
     </row>
     <row r="32" customHeight="1" spans="1:14">
       <c r="A32" s="28" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B32"/>
       <c r="C32" s="32"/>
@@ -4940,7 +5617,7 @@
     <row r="33" ht="53" customHeight="1" spans="1:14">
       <c r="A33" s="33"/>
       <c r="B33" s="9" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -4957,12 +5634,12 @@
     </row>
     <row r="34" customHeight="1" spans="2:2">
       <c r="B34" s="5" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" ht="48" customHeight="1" spans="3:14">
       <c r="C35" s="7" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -4978,12 +5655,12 @@
     </row>
     <row r="36" customHeight="1" spans="2:2">
       <c r="B36" s="5" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" ht="79" customHeight="1" spans="3:14">
       <c r="C37" s="7" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -4999,12 +5676,12 @@
     </row>
     <row r="38" customHeight="1" spans="2:2">
       <c r="B38" s="5" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" ht="58" customHeight="1" spans="3:14">
       <c r="C39" s="7" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -5020,12 +5697,12 @@
     </row>
     <row r="40" customHeight="1" spans="2:2">
       <c r="B40" s="5" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" ht="33" customHeight="1" spans="3:14">
       <c r="C41" s="7" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -5041,12 +5718,12 @@
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="5" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" ht="95" customHeight="1" spans="3:14">
       <c r="C43" s="7" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -5102,7 +5779,7 @@
   <sheetPr/>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="A1" sqref="A$1:A$1048576"/>
@@ -5120,22 +5797,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="19" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" ht="57" customHeight="1" spans="4:13">
       <c r="D4" s="7" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -5149,10 +5826,10 @@
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:11">
       <c r="B5" s="5" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -5165,12 +5842,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" ht="54" customHeight="1" spans="3:13">
       <c r="C7" s="7" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -5185,10 +5862,10 @@
     </row>
     <row r="9" ht="37" customHeight="1" spans="2:13">
       <c r="B9" s="21" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -5217,12 +5894,12 @@
     </row>
     <row r="11" ht="19" customHeight="1" spans="2:2">
       <c r="B11" s="5" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" ht="93" customHeight="1" spans="3:13">
       <c r="C12" s="7" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -5237,15 +5914,15 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -5260,7 +5937,7 @@
     <row r="16" ht="53" customHeight="1" spans="2:13">
       <c r="B16" s="5"/>
       <c r="C16" s="7" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -5275,7 +5952,7 @@
     </row>
     <row r="17" ht="54" customHeight="1" spans="3:13">
       <c r="C17" s="7" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -5290,12 +5967,12 @@
     </row>
     <row r="18" ht="21" customHeight="1" spans="2:2">
       <c r="B18" s="5" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" ht="129" customHeight="1" spans="3:13">
       <c r="C19" s="7" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -5310,12 +5987,12 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" ht="180" customHeight="1" spans="3:13">
-      <c r="C21" s="75" t="s">
-        <v>152</v>
+      <c r="C21" s="81" t="s">
+        <v>177</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -5330,12 +6007,12 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="5" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" ht="49" customHeight="1" spans="3:13">
       <c r="C23" s="7" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -5350,12 +6027,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" ht="73" customHeight="1" spans="2:13">
       <c r="B26" s="7" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -5371,12 +6048,12 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="5" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" ht="57" customHeight="1" spans="3:13">
       <c r="C28" s="7" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -5391,10 +6068,10 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="5" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -5408,7 +6085,7 @@
     </row>
     <row r="30" ht="127" customHeight="1" spans="3:13">
       <c r="C30" s="7" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -5423,10 +6100,10 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="5" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -5440,7 +6117,7 @@
     </row>
     <row r="32" ht="81" customHeight="1" spans="3:13">
       <c r="C32" s="7" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -5455,7 +6132,7 @@
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="5" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="3"/>
@@ -5471,7 +6148,7 @@
     </row>
     <row r="34" ht="36" customHeight="1" spans="3:13">
       <c r="C34" s="7" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -5486,10 +6163,10 @@
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="5" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -5503,7 +6180,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="25" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
@@ -5515,7 +6192,7 @@
     <row r="38" ht="60" customHeight="1" spans="1:13">
       <c r="A38" s="25"/>
       <c r="B38" s="27" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -5531,10 +6208,10 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="5" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -5548,7 +6225,7 @@
     </row>
     <row r="40" ht="37" customHeight="1" spans="3:13">
       <c r="C40" s="7" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -5563,7 +6240,7 @@
     </row>
     <row r="41" spans="4:13">
       <c r="D41" s="7" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -5577,7 +6254,7 @@
     </row>
     <row r="42" ht="37" customHeight="1" spans="3:13">
       <c r="C42" s="7" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -5592,10 +6269,10 @@
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="5" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -5609,12 +6286,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="19" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="4:13">
       <c r="D45" s="7" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -5683,17 +6360,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="3:14">
       <c r="C3" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -5709,10 +6386,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="5" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -5727,7 +6404,7 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="3:14">
       <c r="C5" s="7" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -5743,12 +6420,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="3:14">
       <c r="C7" s="7" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -5764,12 +6441,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1" spans="3:14">
       <c r="C10" s="7" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -5785,7 +6462,7 @@
     </row>
     <row r="11" ht="76" customHeight="1" spans="3:14">
       <c r="C11" s="7" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -5801,12 +6478,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="5" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="7" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -5822,12 +6499,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="5" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" ht="136" customHeight="1" spans="3:14">
       <c r="C15" s="7" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -5843,10 +6520,10 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="5" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -5861,7 +6538,7 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="3:14">
       <c r="C17" s="7" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -5891,12 +6568,12 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:14">
       <c r="B20" s="9" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -5913,12 +6590,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="5" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="7" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -5934,12 +6611,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="3:14">
       <c r="C24" s="7" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -5955,12 +6632,12 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="10" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="D26" s="7" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -5975,12 +6652,12 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="10" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="4:14">
       <c r="D28" s="8" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -5995,17 +6672,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="5" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" ht="73" customHeight="1" spans="3:14">
       <c r="C32" s="7" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -6021,12 +6698,12 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" ht="82" customHeight="1" spans="3:14">
       <c r="C34" s="7" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -6042,12 +6719,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" ht="145" customHeight="1" spans="3:14">
       <c r="C36" s="7" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -6063,12 +6740,12 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="5" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="8" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -6084,17 +6761,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="5" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="10" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="4:14">
       <c r="D41" s="7" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -6109,12 +6786,12 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="10" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" ht="38" customHeight="1" spans="4:14">
       <c r="D43" s="7" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -6129,12 +6806,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="10" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="D45" s="7" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -6149,10 +6826,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -6168,12 +6845,12 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="5" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" ht="74" customHeight="1" spans="3:14">
       <c r="C49" s="7" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -6189,12 +6866,12 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="5" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" ht="57" customHeight="1" spans="3:14">
       <c r="C51" s="7" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -6210,12 +6887,12 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="5" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" ht="37" customHeight="1" spans="3:14">
       <c r="C53" s="7" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -6231,24 +6908,24 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="5" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="C56" s="10"/>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="10" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="10"/>
       <c r="D58" s="7" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -6263,13 +6940,13 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="10" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" ht="95" customHeight="1" spans="3:14">
       <c r="C60" s="10"/>
-      <c r="D60" s="75" t="s">
-        <v>236</v>
+      <c r="D60" s="81" t="s">
+        <v>261</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -6284,13 +6961,13 @@
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="10" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" ht="108" customHeight="1" spans="3:14">
       <c r="C62" s="10"/>
       <c r="D62" s="7" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -6305,12 +6982,12 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="10" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" ht="36" customHeight="1" spans="4:14">
       <c r="D64" s="7" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -6337,10 +7014,10 @@
     </row>
     <row r="66" ht="19" customHeight="1" spans="1:14">
       <c r="A66" s="2" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -6356,19 +7033,19 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="5" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="C67" s="10"/>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="10" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" ht="72" customHeight="1" spans="3:14">
       <c r="C69" s="10"/>
-      <c r="D69" s="75" t="s">
-        <v>245</v>
+      <c r="D69" s="81" t="s">
+        <v>270</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -6383,13 +7060,13 @@
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="10" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" ht="102" customHeight="1" spans="3:14">
       <c r="C71" s="10"/>
-      <c r="D71" s="75" t="s">
-        <v>247</v>
+      <c r="D71" s="81" t="s">
+        <v>272</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -6404,7 +7081,7 @@
     </row>
     <row r="72" spans="3:13">
       <c r="C72" s="10" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -6420,7 +7097,7 @@
     <row r="73" spans="3:13">
       <c r="C73" s="10"/>
       <c r="D73" s="8" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -6434,7 +7111,7 @@
     </row>
     <row r="74" spans="3:13">
       <c r="C74" s="10" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -6450,7 +7127,7 @@
     <row r="75" ht="57" customHeight="1" spans="3:14">
       <c r="C75" s="10"/>
       <c r="D75" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
@@ -6465,13 +7142,13 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="10" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" ht="108" customHeight="1" spans="3:14">
       <c r="C77" s="10"/>
-      <c r="D77" s="75" t="s">
-        <v>253</v>
+      <c r="D77" s="81" t="s">
+        <v>278</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -6486,17 +7163,17 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="5" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" ht="159" customHeight="1" spans="3:14">
       <c r="C81" s="7" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -6512,10 +7189,10 @@
     </row>
     <row r="82" spans="2:14">
       <c r="B82" s="5" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -6530,7 +7207,7 @@
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:14">
       <c r="C83" s="7" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -6546,7 +7223,7 @@
     </row>
     <row r="84" ht="22" customHeight="1" spans="3:13">
       <c r="C84" s="11" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -6562,7 +7239,7 @@
     <row r="85" ht="161" customHeight="1" spans="3:14">
       <c r="C85" s="7"/>
       <c r="D85" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -6577,17 +7254,17 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="2" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="5" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" ht="85" customHeight="1" spans="3:14">
       <c r="C88" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -6603,12 +7280,12 @@
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="10" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" ht="60" customHeight="1" spans="4:14">
       <c r="D90" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -6623,12 +7300,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="5" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" ht="56" customHeight="1" spans="3:14">
       <c r="C92" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -6644,12 +7321,12 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="10" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" ht="153" customHeight="1" spans="4:14">
       <c r="D94" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -6677,12 +7354,12 @@
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:1">
       <c r="A96" s="2" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" ht="41" customHeight="1" spans="2:14">
       <c r="B97" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -6699,12 +7376,12 @@
     </row>
     <row r="98" ht="23" customHeight="1" spans="2:2">
       <c r="B98" s="5" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" ht="172" customHeight="1" spans="3:14">
       <c r="C99" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -6720,12 +7397,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="5" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="3:14">
       <c r="C101" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -6741,7 +7418,7 @@
     </row>
     <row r="102" ht="125" customHeight="1" spans="3:14">
       <c r="C102" s="12" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -6771,10 +7448,10 @@
     </row>
     <row r="104" ht="24" customHeight="1" spans="1:14">
       <c r="A104" s="2" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -6790,12 +7467,12 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="2:2">
       <c r="B105" s="5" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="3:14">
       <c r="C106" s="8" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -6811,12 +7488,12 @@
     </row>
     <row r="107" ht="20" customHeight="1" spans="2:2">
       <c r="B107" s="5" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="3:14">
       <c r="C108" s="8" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -6832,12 +7509,12 @@
     </row>
     <row r="109" ht="20" customHeight="1" spans="2:2">
       <c r="B109" s="5" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" ht="19" customHeight="1" spans="3:14">
       <c r="C110" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -6853,17 +7530,17 @@
     </row>
     <row r="112" ht="19" customHeight="1" spans="1:1">
       <c r="A112" s="2" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="5" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" ht="35" customHeight="1" spans="3:14">
       <c r="C114" s="7" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -6879,17 +7556,17 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="5" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="10" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
     </row>
     <row r="117" ht="37" customHeight="1" spans="4:14">
       <c r="D117" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
@@ -6904,12 +7581,12 @@
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="10" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" spans="4:14">
       <c r="D119" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
@@ -6924,12 +7601,12 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="10" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" ht="54" customHeight="1" spans="4:14">
       <c r="D121" s="7" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -6944,12 +7621,12 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="5" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" ht="36" customHeight="1" spans="3:14">
       <c r="C123" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -6965,17 +7642,17 @@
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="5" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="10" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
     </row>
     <row r="126" spans="4:14">
       <c r="D126" s="7" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -6990,12 +7667,12 @@
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="10" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
     </row>
     <row r="128" ht="21" customHeight="1" spans="4:14">
       <c r="D128" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -7010,12 +7687,12 @@
     </row>
     <row r="129" ht="19" customHeight="1" spans="2:2">
       <c r="B129" s="5" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="3:13">
       <c r="C130" s="14" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
@@ -7031,7 +7708,7 @@
     <row r="131" ht="76" customHeight="1" spans="3:14">
       <c r="C131" s="14"/>
       <c r="D131" s="16" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
@@ -7046,7 +7723,7 @@
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="14" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
@@ -7062,7 +7739,7 @@
     <row r="133" ht="95" customHeight="1" spans="3:14">
       <c r="C133" s="14"/>
       <c r="D133" s="16" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
@@ -7077,7 +7754,7 @@
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="14" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
@@ -7093,7 +7770,7 @@
     <row r="135" ht="79" customHeight="1" spans="3:14">
       <c r="C135" s="14"/>
       <c r="D135" s="16" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
@@ -7108,12 +7785,12 @@
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="10" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137" ht="73" customHeight="1" spans="4:14">
       <c r="D137" s="16" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
@@ -7128,12 +7805,12 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="5" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
     <row r="139" spans="3:14">
       <c r="C139" s="7" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -7149,10 +7826,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="2" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -7168,7 +7845,7 @@
     </row>
     <row r="142" ht="187" customHeight="1" spans="2:14">
       <c r="B142" s="9" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -7185,12 +7862,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="2" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
     </row>
     <row r="145" ht="39" customHeight="1" spans="2:14">
       <c r="B145" s="9" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -7207,12 +7884,12 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="5" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
     </row>
     <row r="147" ht="220" customHeight="1" spans="3:14">
       <c r="C147" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -7228,10 +7905,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="2" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -7247,12 +7924,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="5" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
     </row>
     <row r="151" ht="190" customHeight="1" spans="3:14">
       <c r="C151" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -7268,12 +7945,12 @@
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="5" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
     </row>
     <row r="153" ht="117" customHeight="1" spans="3:14">
-      <c r="C153" s="75" t="s">
-        <v>326</v>
+      <c r="C153" s="81" t="s">
+        <v>351</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -7289,10 +7966,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="2" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -7308,12 +7985,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="5" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
     </row>
     <row r="156" ht="145" customHeight="1" spans="3:14">
       <c r="C156" s="7" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -7329,12 +8006,12 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="5" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
     </row>
     <row r="158" ht="102" customHeight="1" spans="3:14">
-      <c r="C158" s="75" t="s">
-        <v>332</v>
+      <c r="C158" s="81" t="s">
+        <v>357</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -7350,12 +8027,12 @@
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="5" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
     </row>
     <row r="160" ht="55" customHeight="1" spans="3:14">
       <c r="C160" s="7" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -7371,7 +8048,7 @@
     </row>
     <row r="161" ht="71" customHeight="1" spans="3:14">
       <c r="C161" s="7" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -7387,7 +8064,7 @@
     </row>
     <row r="162" ht="162" customHeight="1" spans="3:14">
       <c r="C162" s="7" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -7403,7 +8080,7 @@
     </row>
     <row r="163" ht="139" customHeight="1" spans="3:14">
       <c r="C163" s="7" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -7419,12 +8096,12 @@
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="5" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
     </row>
     <row r="165" ht="54" customHeight="1" spans="3:14">
       <c r="C165" s="7" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -7440,20 +8117,20 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="2" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="5" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
     </row>
     <row r="169" ht="77" customHeight="1" spans="3:14">
       <c r="C169" s="6" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
@@ -7467,13 +8144,13 @@
       <c r="N169" s="7"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="76" t="s">
-        <v>344</v>
+      <c r="C171" s="82" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="172" spans="4:14">
       <c r="D172" s="8" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
@@ -7488,10 +8165,10 @@
     </row>
     <row r="173" spans="2:14">
       <c r="B173" s="5" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="18"/>
@@ -7506,7 +8183,7 @@
     </row>
     <row r="174" ht="83" customHeight="1" spans="3:14">
       <c r="C174" s="7" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
@@ -7522,17 +8199,17 @@
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="2" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="5" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
     </row>
     <row r="178" ht="72" customHeight="1" spans="3:14">
       <c r="C178" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -7548,12 +8225,12 @@
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="5" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
     </row>
     <row r="180" ht="58" customHeight="1" spans="3:14">
       <c r="C180" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -7569,12 +8246,12 @@
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="5" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
     </row>
     <row r="183" ht="37" customHeight="1" spans="3:14">
       <c r="C183" s="7" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -7590,12 +8267,12 @@
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="5" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
     </row>
     <row r="185" ht="33" customHeight="1" spans="3:14">
       <c r="C185" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -7611,17 +8288,17 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="2" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="5" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
     </row>
     <row r="189" ht="91" customHeight="1" spans="3:14">
       <c r="C189" s="7" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -7637,12 +8314,12 @@
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="5" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
     </row>
     <row r="191" ht="178" customHeight="1" spans="3:14">
       <c r="C191" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -7759,7 +8436,7 @@
   <sheetPr/>
   <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="A28" sqref="A$1:A$1048576"/>
@@ -7774,339 +8451,339 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" ht="66" spans="2:2">
       <c r="B3" s="3" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" ht="33" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" ht="82.5" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" ht="49.5" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" ht="66" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="3" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" ht="99" spans="2:2">
       <c r="B24" s="3" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" ht="165" spans="2:2">
       <c r="B27" s="3" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="2:2">
       <c r="B30" s="3" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" ht="82.5" spans="2:2">
       <c r="B33" s="3" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" ht="66" spans="2:2">
       <c r="B36" s="3" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" ht="49.5" spans="2:2">
       <c r="B39" s="3" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" ht="66" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" ht="66" spans="2:2">
       <c r="B45" s="3" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" ht="49.5" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" ht="82.5" spans="2:2">
       <c r="B51" s="3" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" ht="33" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" ht="49.5" spans="2:2">
       <c r="B57" s="3" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" ht="33" spans="2:2">
       <c r="B60" s="3" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" ht="82.5" spans="2:2">
       <c r="B63" s="3" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="3" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="3" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" ht="33" spans="2:2">
       <c r="B70" s="3" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" ht="49.5" spans="2:2">
       <c r="B71" s="3" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" ht="33" spans="2:2">
       <c r="B74" s="3" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="3" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:2">
       <c r="B80" s="3" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="2" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="3" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" ht="49.5" spans="2:2">
       <c r="B84" s="3" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" ht="33" spans="2:2">
       <c r="B87" s="3" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" ht="66" spans="2:2">
       <c r="B88" s="3" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" ht="148.5" spans="2:2">
       <c r="B91" s="3" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
     </row>
     <row r="92" ht="82.5" spans="2:2">
       <c r="B92" s="3" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94" ht="33" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
     </row>
     <row r="95" ht="115.5" spans="2:2">
       <c r="B95" s="3" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -8132,7 +8809,7 @@
   <sheetData>
     <row r="1" ht="198" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1"/>

--- a/LINUX.xlsx
+++ b/LINUX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486">
   <si>
     <t>NTP时间同步</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>•</t>
     </r>
     <r>
@@ -258,6 +264,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>•</t>
@@ -323,6 +330,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -428,6 +441,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">作用：加速解析过程，让客户端最快得到结果
 </t>
     </r>
@@ -435,6 +454,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>•</t>
@@ -454,6 +474,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>•</t>
@@ -481,6 +502,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>•</t>
     </r>
     <r>
@@ -628,6 +655,41 @@
     <t>Cobbler 可以用来快速建立 Linux 网络安装环境
 Cobbler 内部集成一个镜像版仓库
 Cobbler 内部集成一个Ks应答文件、还提供包括YUM 、WEB界面管理、API接口、电源管理等功能！</t>
+  </si>
+  <si>
+    <t>为真机搭建永久的本地的Yum仓库</t>
+  </si>
+  <si>
+    <t>安装cobbler主程序、工具包等</t>
+  </si>
+  <si>
+    <t>1.安装软件 cobbler cobbler-web dhcp tftp-server pykickstart httpd  tftp-server 
+ cobbler         #cobbler程序包
+ cobbler-web     #cobbler的web服务包
+ pykickstart     #cobbler检查kickstart语法错误
+ httpd           #Apache web服务
+ dhcp            #Dhcp服务
+ tftp-server     #tftp服务
+配置cobbler
+ vim /etc/cobbler/settings
+ 修改为  next_server:  192.168.4.254                #设置下一个服务器还为本机
+ 将 server: 127.0.0.1 修改为  server: 192.168.4.254  #设置本机为cobbler服务器
+ 将 manage_dhcp: 0  修改为 manage_dhcp: 1         #设置cobbler管理dhcp服务
+ 将 pxe_just_once: 0  修改为 pxe_just_once: 1     #防止客户端重复安装操作系统
+3.配置cobbler的dhcp
+[root@svr7 /]# vim /etc/cobbler/dhcp.template 
+  :%s /192.168.1/192.168.4/g
+[root@svr7 /]# vim /etc/sysconfig/dhcpd 
+ DHCPDARGS=private1   表示dhcp将只在private1 网络接口上提供DHCP服务</t>
+  </si>
+  <si>
+    <t>绝对路径解压cobbler_boot.tar.gz    #众多的引导文件</t>
+  </si>
+  <si>
+    <t>导入安装镜像数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cobbler import  --path=挂载点   --name=导入系统命名（随意起）</t>
   </si>
   <si>
     <t>Subversion</t>
@@ -810,6 +872,103 @@
     <t>Nginx作为负载均衡服务器：Nginx 既可以在内部直接支持 Rails 和 PHP 程序对外进行服务，也可以支持作为 HTTP代理服务器对外进行服务</t>
   </si>
   <si>
+    <t>安装软件包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安装nginx服务
+安装依赖关系包：gcc pcre-devel openssl-devel </t>
+  </si>
+  <si>
+    <t>Nginx命令的用法</t>
+  </si>
+  <si>
+    <t>/usr/local/nginx/sbin/nginx                    //启动服务
+ln -s /usr/local/nginx/sbin/nginx /sbin/        //方便后期使用
+nginx -s stop                                    //关闭服务
+nginx -s reload                               //重新加载配置文件
+nginx –V                                   //查看软件信息</t>
+  </si>
+  <si>
+    <t>用户认证</t>
+  </si>
+  <si>
+    <t>//通过Nginx实现Web页面的认证，需要修改Nginx配置文件，在配置文件中添加auth语句实现用户认证。最后使用htpasswd命令创建用户及密码
+修改Nginx配置文件  '///usr/local/nginx/conf/nginx.conf'</t>
+  </si>
+  <si>
+    <t>server {
+   listen       80;
+   server_name  localhost;
+   'auth_basic "Input Password:";                        //认证提示符
+   auth_basic_user_file "/usr/local/nginx/pass";'        //认证密码文件
+   location / {
+       root   html;
+       index  index.html index.htm;
+   }
+    }</t>
+  </si>
+  <si>
+    <t>生成密码</t>
+  </si>
+  <si>
+    <t>使用htpasswd命令创建账户文件
+     htpasswd -c /usr/local/nginx/pass   tom        //创建密码文件
+     htpasswd  /usr/local/nginx/pass   jerry    //追加用户，不使用-c选项</t>
+  </si>
+  <si>
+    <t>修改Nginx服务配置，添加相关虚拟主机配置
+      server {
+    listen  80;                                        //端口
+    server_name  www.bb.com;                            //域名
+   location / { 
+   root   www;                                 //指定网站根路径
+   index  index.html index.htm;
+   }
+   }</t>
+  </si>
+  <si>
+    <t>SSL虚拟主机</t>
+  </si>
+  <si>
+    <t>源码安装Nginx时必须使用--with-http_ssl_module参数，启用加密模块，对于需要进行SSL加密处理的站点添加ssl相关指令（设置网站需要的私钥和证书）。
+加密算法一般分为对称算法、非对称算法、信息摘要。
+  对称算法有：AES、DES，主要应用在单机数据加密。
+  非对称算法有：RSA、DSA，主要应用在网络数据加密。
+  信息摘要：MD5、sha256，主要应用在数据完整性校验、数据秒传等。</t>
+  </si>
+  <si>
+    <t>生成私钥与证书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    openssl genrsa &gt; cert.key                            //生成私钥
+    openssl req -new -x509 -key cert.key &gt; cert.pem      //生成证书</t>
+  </si>
+  <si>
+    <t>修改Nginx配置文件</t>
+  </si>
+  <si>
+    <t>/usr/local/nginx/conf/nginx.conf</t>
+  </si>
+  <si>
+    <t>server {
+    listen       443 ssl;
+    server_name            www.cc.com;
+    ssl_certificate      cert.pem;
+    ssl_certificate_key  cert.key;
+    ssl_session_cache    shared:SSL:1m;
+    ssl_session_timeout  5m;
+    ssl_ciphers  HIGH:!aNULL:!MD5;
+    ssl_prefer_server_ciphers  on;
+    location / {
+        root   html;
+        index  index.html index.htm;
+    }
+       }</t>
+  </si>
+  <si>
+    <t>文件Nginx配置文件</t>
+  </si>
+  <si>
     <t>LNMP</t>
   </si>
   <si>
@@ -860,6 +1019,19 @@
     <t>Tomcat是一个小型的轻量级应用服务器,它运行时占用的系统资源小，扩展性好，支持负载平衡与邮件服务等开发应用系统常用的功能,
 Tomcat 是由 Apache 开发的一个 Servlet 容器，实现了对 Servlet 和 JSP 的支持，并提供了作为Web服务器的一些特有功能，如Tomcat管理和控制平台、安全域管理和Tomcat阀等。
 由于 Tomcat 本身也内含了一个 HTTP 服务器，它也可以被视作一个单独的 Web 服务器。但是，不能将 Tomcat 和 Apache HTTP 服务器混淆，Apache HTTP 服务器是一个用 C 语言实现的 HTTP Web 服务器；这两个 HTTP web server 不是捆绑在一起的。Tomcat 包含了一个配置管理工具，也可以通过编辑XML格式的配置文件来进行配置。</t>
+  </si>
+  <si>
+    <t>部署Tomcat服务器软件</t>
+  </si>
+  <si>
+    <t>java-1.8.0-openjdk                //安装JDK
+java-1.8.0-openjdk-headless        //安装JDK</t>
+  </si>
+  <si>
+    <t>安装Tomcat</t>
+  </si>
+  <si>
+    <t>mv apache-tomcat-8.0.30  /usr/local/tomcat</t>
   </si>
   <si>
     <t>VPN</t>
@@ -2226,9 +2398,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="48">
@@ -2369,6 +2541,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2427,8 +2600,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2436,14 +2610,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2458,16 +2624,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2482,62 +2693,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2549,11 +2707,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2590,13 +2763,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2608,37 +2817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2650,31 +2829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2686,7 +2841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2704,7 +2865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2716,13 +2877,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2734,7 +2919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2746,25 +2931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2775,6 +2948,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2796,71 +3032,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2880,152 +3053,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3120,6 +3293,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3175,9 +3351,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3193,9 +3366,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3209,10 +3379,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3225,9 +3395,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3616,8 +3783,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="78"/>
-    <col min="2" max="2" width="9" style="79"/>
+    <col min="1" max="1" width="9" style="76"/>
+    <col min="2" max="2" width="9" style="77"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData/>
@@ -3639,159 +3806,159 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="66" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="67" customWidth="1"/>
-    <col min="3" max="3" width="73.125" style="68" customWidth="1"/>
-    <col min="4" max="8" width="9" style="68"/>
-    <col min="9" max="16352" width="9" style="67"/>
-    <col min="16353" max="16384" width="9" style="69"/>
+    <col min="1" max="1" width="18.875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="65" customWidth="1"/>
+    <col min="3" max="3" width="73.125" style="66" customWidth="1"/>
+    <col min="4" max="8" width="9" style="66"/>
+    <col min="9" max="16352" width="9" style="65"/>
+    <col min="16353" max="16384" width="9" style="67"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="66" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="71" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="70" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="70" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
-      <c r="C12" s="73"/>
+      <c r="C12" s="71"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="66" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:7">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="74" t="s">
         <v>22</v>
       </c>
       <c r="D22"/>
@@ -3801,7 +3968,7 @@
     </row>
     <row r="23" ht="90" customHeight="1" spans="2:7">
       <c r="B23"/>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="75" t="s">
         <v>23</v>
       </c>
       <c r="D23"/>
@@ -3830,125 +3997,125 @@
   <sheetPr/>
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G73" sqref="G73"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="37" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="38" customWidth="1"/>
-    <col min="4" max="14" width="9" style="38"/>
-    <col min="15" max="15" width="9" style="39"/>
+    <col min="1" max="1" width="17.375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="39" customWidth="1"/>
+    <col min="4" max="14" width="9" style="39"/>
+    <col min="15" max="15" width="9" style="40"/>
     <col min="16" max="16" width="9" style="4"/>
-    <col min="17" max="16384" width="9" style="37"/>
+    <col min="17" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -3967,293 +4134,293 @@
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="42"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
     </row>
     <row r="13" ht="39" customHeight="1" spans="2:14">
-      <c r="B13" s="42"/>
-      <c r="C13" s="80" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
     </row>
     <row r="14" ht="42" customHeight="1" spans="2:14">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="16" ht="34" customHeight="1" spans="1:14">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" ht="39" customHeight="1" spans="2:14">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="48" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" ht="79" customHeight="1" spans="3:14">
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="2:2">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="48" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" ht="58" customHeight="1" spans="3:14">
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="48" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" ht="78" customHeight="1" spans="3:14">
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="42"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="42"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="42"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="42"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:3">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="48" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="50" t="s">
@@ -4276,7 +4443,7 @@
       <c r="L31" s="51"/>
       <c r="M31" s="51"/>
       <c r="N31" s="51"/>
-      <c r="O31" s="57"/>
+      <c r="O31" s="56"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="52" t="s">
@@ -4296,63 +4463,63 @@
       <c r="N32" s="53"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" ht="60" customHeight="1" spans="2:15">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="58"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="57"/>
     </row>
     <row r="36" ht="55" customHeight="1" spans="2:15">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="58"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="57"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:15">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="59"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="58"/>
     </row>
     <row r="38" ht="21" customHeight="1" spans="2:3">
       <c r="B38" s="54" t="s">
@@ -4365,19 +4532,19 @@
       <c r="C39" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
     </row>
     <row r="40" ht="21" customHeight="1" spans="2:3">
       <c r="B40" s="54"/>
@@ -4390,38 +4557,38 @@
       <c r="C41" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
     </row>
     <row r="42" ht="39" customHeight="1" spans="2:14">
       <c r="B42" s="54"/>
       <c r="C42" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
     </row>
     <row r="43" ht="21" customHeight="1" spans="2:4">
       <c r="B43" s="54"/>
@@ -4433,694 +4600,706 @@
     <row r="44" ht="66" customHeight="1" spans="2:14">
       <c r="B44" s="54"/>
       <c r="C44" s="50"/>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
     </row>
     <row r="45" ht="161" customHeight="1" spans="2:14">
       <c r="B45" s="54"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="56" t="s">
+      <c r="D45" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="59"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="58"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41" t="s">
+      <c r="C47" s="42"/>
+      <c r="D47" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="37" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="50" ht="81" customHeight="1" spans="2:14">
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="48" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52" ht="33" customHeight="1" spans="3:14">
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="48" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" ht="36" customHeight="1" spans="3:14">
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
     </row>
     <row r="55" ht="19" customHeight="1" spans="2:14">
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
     </row>
     <row r="56" ht="103" customHeight="1" spans="3:14">
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
     </row>
     <row r="57" ht="23" customHeight="1" spans="2:14">
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
     </row>
     <row r="58" ht="41" customHeight="1" spans="3:14">
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
     </row>
     <row r="59" ht="23" customHeight="1" spans="2:14">
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
     </row>
     <row r="60" ht="57" customHeight="1" spans="3:14">
-      <c r="C60" s="46" t="s">
+      <c r="C60" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="46"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
     </row>
     <row r="61" ht="27" customHeight="1" spans="2:14">
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46" t="s">
+      <c r="C61" s="47"/>
+      <c r="D61" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
     </row>
     <row r="62" ht="41" customHeight="1" spans="3:14">
-      <c r="C62" s="46" t="s">
+      <c r="C62" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
     </row>
     <row r="63" ht="26" customHeight="1" spans="2:14">
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="47"/>
     </row>
     <row r="64" ht="25" customHeight="1" spans="2:14">
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
     </row>
     <row r="65" ht="25" customHeight="1" spans="2:14">
-      <c r="B65" s="47"/>
-      <c r="C65" s="60" t="s">
+      <c r="B65" s="48"/>
+      <c r="C65" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="46" t="s">
+      <c r="D65" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="46"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
     </row>
     <row r="66" ht="25" customHeight="1" spans="2:14">
-      <c r="B66" s="47"/>
-      <c r="C66" s="61" t="s">
+      <c r="B66" s="48"/>
+      <c r="C66" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="46" t="s">
+      <c r="D66" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
     </row>
     <row r="67" ht="25" customHeight="1" spans="2:14">
-      <c r="B67" s="47"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46" t="s">
+      <c r="B67" s="48"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="46"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
     </row>
     <row r="68" ht="36" customHeight="1" spans="3:14">
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="46"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="71" ht="54" customHeight="1" spans="2:14">
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="41"/>
-    </row>
-    <row r="72" ht="54" customHeight="1" spans="2:14">
-      <c r="B72" s="45"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
-    </row>
-    <row r="73" ht="54" customHeight="1" spans="2:14">
-      <c r="B73" s="45"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
-    </row>
-    <row r="74" ht="54" customHeight="1" spans="2:14">
-      <c r="B74" s="45"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="41"/>
-    </row>
-    <row r="75" ht="54" customHeight="1" spans="2:14">
-      <c r="B75" s="45"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
-    </row>
-    <row r="76" ht="54" customHeight="1" spans="2:14">
-      <c r="B76" s="45"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
-    </row>
-    <row r="77" ht="54" customHeight="1" spans="2:14">
-      <c r="B77" s="45"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+    </row>
+    <row r="72" ht="26" customHeight="1" spans="2:14">
+      <c r="B72" s="46"/>
+      <c r="C72" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+    </row>
+    <row r="73" ht="25" customHeight="1" spans="2:14">
+      <c r="B73" s="46"/>
+      <c r="C73" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+    </row>
+    <row r="74" ht="312" customHeight="1" spans="2:14">
+      <c r="B74" s="46"/>
+      <c r="C74" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+    </row>
+    <row r="75" ht="26" customHeight="1" spans="2:14">
+      <c r="B75" s="46"/>
+      <c r="C75" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+    </row>
+    <row r="76" ht="36" customHeight="1" spans="2:14">
+      <c r="B76" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+    </row>
+    <row r="77" ht="26" customHeight="1" spans="2:14">
+      <c r="B77" s="46"/>
+      <c r="C77" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
     </row>
     <row r="78" ht="54" customHeight="1" spans="2:14">
-      <c r="B78" s="45"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="41"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
     </row>
     <row r="79" ht="54" customHeight="1" spans="2:14">
-      <c r="B79" s="45"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="41"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="41"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
     </row>
     <row r="80" ht="54" customHeight="1" spans="2:14">
-      <c r="B80" s="45"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="41"/>
-      <c r="M80" s="41"/>
-      <c r="N80" s="41"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
     </row>
     <row r="81" ht="54" customHeight="1" spans="2:14">
-      <c r="B81" s="45"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
-      <c r="K81" s="41"/>
-      <c r="L81" s="41"/>
-      <c r="M81" s="41"/>
-      <c r="N81" s="41"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="62" t="s">
-        <v>101</v>
+      <c r="A83" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="B83" s="26"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="63"/>
-      <c r="H83" s="63"/>
-      <c r="I83" s="63"/>
-      <c r="J83" s="63"/>
-      <c r="K83" s="63"/>
-      <c r="L83" s="63"/>
-      <c r="M83" s="63"/>
-      <c r="N83" s="63"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="62"/>
     </row>
     <row r="84" ht="72" customHeight="1" spans="1:14">
-      <c r="A84" s="62"/>
-      <c r="B84" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
-      <c r="M84" s="65"/>
-      <c r="N84" s="65"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="64"/>
+      <c r="K84" s="64"/>
+      <c r="L84" s="64"/>
+      <c r="M84" s="64"/>
+      <c r="N84" s="64"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="36" t="s">
-        <v>103</v>
+      <c r="A86" s="37" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="2:14">
-      <c r="B87" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" s="46"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="46"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="46"/>
-      <c r="N87" s="46"/>
+      <c r="B87" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="47"/>
+      <c r="N87" s="47"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="36" t="s">
-        <v>105</v>
+      <c r="A89" s="37" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="90" ht="54" customHeight="1" spans="2:14">
-      <c r="B90" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="46"/>
-      <c r="J90" s="46"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="46"/>
-      <c r="N90" s="46"/>
+      <c r="B90" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="47"/>
+      <c r="K90" s="47"/>
+      <c r="L90" s="47"/>
+      <c r="M90" s="47"/>
+      <c r="N90" s="47"/>
     </row>
     <row r="91" ht="21" customHeight="1" spans="2:2">
-      <c r="B91" s="47" t="s">
-        <v>107</v>
+      <c r="B91" s="48" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="92" ht="120" customHeight="1" spans="3:14">
-      <c r="C92" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="D92" s="46"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="46"/>
-      <c r="K92" s="46"/>
-      <c r="L92" s="46"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
+      <c r="C92" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="47" t="s">
-        <v>109</v>
+      <c r="B93" s="48" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="94" ht="31" customHeight="1" spans="3:14">
-      <c r="C94" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="D94" s="46"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="46"/>
-      <c r="J94" s="46"/>
-      <c r="K94" s="46"/>
-      <c r="L94" s="46"/>
-      <c r="M94" s="46"/>
-      <c r="N94" s="46"/>
+      <c r="C94" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="47"/>
+      <c r="N94" s="47"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="47" t="s">
-        <v>111</v>
+      <c r="B95" s="48" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="3:14">
-      <c r="C96" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
+      <c r="C96" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="C1:N1"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="B6:N6"/>
@@ -5162,6 +5341,11 @@
     <mergeCell ref="D66:N66"/>
     <mergeCell ref="D67:N67"/>
     <mergeCell ref="B71:N71"/>
+    <mergeCell ref="C72:N72"/>
+    <mergeCell ref="C73:N73"/>
+    <mergeCell ref="C74:N74"/>
+    <mergeCell ref="C75:M75"/>
+    <mergeCell ref="C77:M77"/>
     <mergeCell ref="B84:N84"/>
     <mergeCell ref="B87:N87"/>
     <mergeCell ref="B90:N90"/>
@@ -5178,18 +5362,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="28" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26" style="4" customWidth="1"/>
     <col min="3" max="13" width="9" style="6"/>
     <col min="14" max="14" width="11.625" style="4" customWidth="1"/>
     <col min="15" max="16384" width="9" style="4"/>
@@ -5197,12 +5381,12 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="28" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:14">
       <c r="B2" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -5219,7 +5403,7 @@
     </row>
     <row r="3" ht="57" customHeight="1" spans="2:14">
       <c r="B3" s="9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -5236,7 +5420,7 @@
     </row>
     <row r="4" customHeight="1" spans="2:14">
       <c r="B4" s="9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -5253,7 +5437,7 @@
     </row>
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="29" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -5270,10 +5454,10 @@
     </row>
     <row r="6" ht="45" customHeight="1" spans="2:14">
       <c r="B6" s="30" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -5289,10 +5473,10 @@
     </row>
     <row r="7" customHeight="1" spans="2:14">
       <c r="B7" s="30" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -5309,7 +5493,7 @@
     <row r="8" ht="70" customHeight="1" spans="2:14">
       <c r="B8" s="29"/>
       <c r="C8" s="11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -5325,10 +5509,10 @@
     </row>
     <row r="9" customHeight="1" spans="2:14">
       <c r="B9" s="30" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -5345,7 +5529,7 @@
     <row r="10" ht="70" customHeight="1" spans="2:14">
       <c r="B10" s="29"/>
       <c r="C10" s="11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -5361,11 +5545,11 @@
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:14">
       <c r="B11" s="30" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -5381,7 +5565,7 @@
     <row r="12" ht="142" customHeight="1" spans="2:14">
       <c r="B12" s="29"/>
       <c r="C12" s="11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -5397,27 +5581,27 @@
     </row>
     <row r="13" ht="22" customHeight="1" spans="2:14">
       <c r="B13" s="30" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
+        <v>136</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
     </row>
     <row r="14" ht="156" customHeight="1" spans="2:14">
       <c r="B14" s="30"/>
       <c r="C14" s="11" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -5433,12 +5617,12 @@
     </row>
     <row r="16" customHeight="1" spans="1:1">
       <c r="A16" s="28" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:14">
       <c r="B17" s="9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5455,7 +5639,7 @@
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
       <c r="B18" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5472,7 +5656,7 @@
     </row>
     <row r="19" customHeight="1" spans="2:14">
       <c r="B19" s="29" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -5487,81 +5671,147 @@
       <c r="M19" s="8"/>
       <c r="N19" s="29"/>
     </row>
-    <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" ht="72" customHeight="1" spans="2:14">
-      <c r="B21" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" customHeight="1" spans="2:2">
-      <c r="B22" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" ht="47" customHeight="1" spans="3:14">
+    <row r="20" customHeight="1" spans="2:14">
+      <c r="B20" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="29"/>
+    </row>
+    <row r="21" ht="42" customHeight="1" spans="2:14">
+      <c r="B21" s="29"/>
+      <c r="C21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" customHeight="1" spans="2:14">
+      <c r="B22" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="29"/>
+    </row>
+    <row r="23" ht="84" customHeight="1" spans="2:14">
+      <c r="B23" s="29"/>
       <c r="C23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" ht="90" customHeight="1" spans="2:2">
-      <c r="B24" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" ht="61" customHeight="1" spans="2:14">
-      <c r="B27" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" customHeight="1" spans="2:14">
-      <c r="B28" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="8"/>
+        <v>144</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:14">
+      <c r="B24" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="29"/>
+    </row>
+    <row r="25" ht="52" customHeight="1" spans="2:14">
+      <c r="B25" s="29"/>
+      <c r="C25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" ht="169" customHeight="1" spans="2:14">
+      <c r="B26" s="29"/>
+      <c r="C26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:14">
+      <c r="B27" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="29"/>
+    </row>
+    <row r="28" ht="73" customHeight="1" spans="2:14">
+      <c r="B28" s="29"/>
+      <c r="C28" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -5572,138 +5822,203 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="29"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:1">
-      <c r="A29" s="28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" ht="167" customHeight="1" spans="2:14">
-      <c r="B30" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:14">
-      <c r="A32" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="35"/>
-    </row>
-    <row r="33" ht="53" customHeight="1" spans="1:14">
-      <c r="A33" s="33"/>
-      <c r="B33" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" customHeight="1" spans="2:2">
-      <c r="B34" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" ht="48" customHeight="1" spans="3:14">
-      <c r="C35" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" customHeight="1" spans="2:2">
-      <c r="B36" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" ht="79" customHeight="1" spans="3:14">
-      <c r="C37" s="7" t="s">
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:14">
+      <c r="B29" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="29"/>
+    </row>
+    <row r="30" ht="150" customHeight="1" spans="2:14">
+      <c r="B30" s="29"/>
+      <c r="C30" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="9"/>
-    </row>
-    <row r="38" customHeight="1" spans="2:2">
-      <c r="B38" s="5" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:14">
+      <c r="B31" s="30" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="39" ht="58" customHeight="1" spans="3:14">
-      <c r="C39" s="7" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" ht="112" customHeight="1" spans="2:14">
+      <c r="B32" s="29"/>
+      <c r="C32" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="9"/>
-    </row>
-    <row r="40" customHeight="1" spans="2:2">
-      <c r="B40" s="5" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" customHeight="1" spans="2:14">
+      <c r="B33" s="30" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="41" ht="33" customHeight="1" spans="3:14">
-      <c r="C41" s="7" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="34" ht="44" customHeight="1" spans="2:14">
+      <c r="B34" s="29"/>
+      <c r="C34" s="7" t="s">
         <v>154</v>
       </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" customHeight="1" spans="2:14">
+      <c r="B35" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" ht="233" customHeight="1" spans="2:14">
+      <c r="B36" s="29"/>
+      <c r="C36" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" customHeight="1" spans="2:14">
+      <c r="B37" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="29"/>
+    </row>
+    <row r="38" customHeight="1" spans="2:14">
+      <c r="B38" s="29"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="29"/>
+    </row>
+    <row r="39" customHeight="1" spans="2:14">
+      <c r="B39" s="29"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:1">
+      <c r="A40" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" ht="72" customHeight="1" spans="2:14">
+      <c r="B41" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -5718,12 +6033,12 @@
     </row>
     <row r="42" customHeight="1" spans="2:2">
       <c r="B42" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" ht="95" customHeight="1" spans="3:14">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" ht="47" customHeight="1" spans="3:14">
       <c r="C43" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -5737,8 +6052,373 @@
       <c r="M43" s="7"/>
       <c r="N43" s="9"/>
     </row>
+    <row r="44" ht="90" customHeight="1" spans="2:2">
+      <c r="B44" s="32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:1">
+      <c r="A46" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" ht="61" customHeight="1" spans="2:14">
+      <c r="B47" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" customHeight="1" spans="2:14">
+      <c r="B48" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="29"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:1">
+      <c r="A49" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" ht="146" customHeight="1" spans="2:14">
+      <c r="B50" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" ht="28" customHeight="1" spans="2:14">
+      <c r="B51" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" ht="42" customHeight="1" spans="2:14">
+      <c r="B52" s="9"/>
+      <c r="C52" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" ht="20" customHeight="1" spans="2:14">
+      <c r="B53" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" ht="20" customHeight="1" spans="2:14">
+      <c r="B54" s="9"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" ht="21" customHeight="1" spans="2:14">
+      <c r="B55" s="9"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" ht="21" customHeight="1" spans="2:14">
+      <c r="B56" s="9"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" customHeight="1" spans="2:14">
+      <c r="B57" s="9"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" customHeight="1" spans="2:14">
+      <c r="B58" s="9"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" ht="41" customHeight="1" spans="2:14">
+      <c r="B59" s="9"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" ht="41" customHeight="1" spans="2:14">
+      <c r="B60" s="9"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:14">
+      <c r="A62" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="36"/>
+    </row>
+    <row r="63" ht="53" customHeight="1" spans="1:14">
+      <c r="A63" s="34"/>
+      <c r="B63" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" customHeight="1" spans="2:2">
+      <c r="B64" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" ht="48" customHeight="1" spans="3:14">
+      <c r="C65" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" customHeight="1" spans="2:2">
+      <c r="B66" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" ht="79" customHeight="1" spans="3:14">
+      <c r="C67" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" customHeight="1" spans="2:2">
+      <c r="B68" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" ht="58" customHeight="1" spans="3:14">
+      <c r="C69" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" customHeight="1" spans="2:2">
+      <c r="B70" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" ht="33" customHeight="1" spans="3:14">
+      <c r="C71" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" customHeight="1" spans="2:2">
+      <c r="B72" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" ht="95" customHeight="1" spans="3:14">
+      <c r="C73" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="40">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B4:N4"/>
@@ -5755,18 +6435,30 @@
     <mergeCell ref="B17:N17"/>
     <mergeCell ref="B18:N18"/>
     <mergeCell ref="B19:N19"/>
-    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="C21:N21"/>
     <mergeCell ref="C23:N23"/>
-    <mergeCell ref="B24:N24"/>
-    <mergeCell ref="B27:N27"/>
-    <mergeCell ref="B28:N28"/>
-    <mergeCell ref="B30:N30"/>
-    <mergeCell ref="B33:N33"/>
-    <mergeCell ref="C35:N35"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C39:N39"/>
-    <mergeCell ref="C41:N41"/>
+    <mergeCell ref="C25:N25"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="D35:N35"/>
+    <mergeCell ref="C36:N36"/>
+    <mergeCell ref="B41:N41"/>
     <mergeCell ref="C43:N43"/>
+    <mergeCell ref="B44:N44"/>
+    <mergeCell ref="B47:N47"/>
+    <mergeCell ref="B48:N48"/>
+    <mergeCell ref="B50:N50"/>
+    <mergeCell ref="C52:N52"/>
+    <mergeCell ref="D53:N53"/>
+    <mergeCell ref="B63:N63"/>
+    <mergeCell ref="C65:N65"/>
+    <mergeCell ref="C67:N67"/>
+    <mergeCell ref="C69:N69"/>
+    <mergeCell ref="C71:N71"/>
+    <mergeCell ref="C73:N73"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5797,22 +6489,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="19" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" ht="57" customHeight="1" spans="4:13">
       <c r="D4" s="7" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -5826,10 +6518,10 @@
     </row>
     <row r="5" ht="24" customHeight="1" spans="2:11">
       <c r="B5" s="5" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -5842,12 +6534,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" ht="54" customHeight="1" spans="3:13">
       <c r="C7" s="7" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -5862,10 +6554,10 @@
     </row>
     <row r="9" ht="37" customHeight="1" spans="2:13">
       <c r="B9" s="21" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -5894,12 +6586,12 @@
     </row>
     <row r="11" ht="19" customHeight="1" spans="2:2">
       <c r="B11" s="5" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" ht="93" customHeight="1" spans="3:13">
       <c r="C12" s="7" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -5914,15 +6606,15 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="5" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -5937,7 +6629,7 @@
     <row r="16" ht="53" customHeight="1" spans="2:13">
       <c r="B16" s="5"/>
       <c r="C16" s="7" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -5952,7 +6644,7 @@
     </row>
     <row r="17" ht="54" customHeight="1" spans="3:13">
       <c r="C17" s="7" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -5967,12 +6659,12 @@
     </row>
     <row r="18" ht="21" customHeight="1" spans="2:2">
       <c r="B18" s="5" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" ht="129" customHeight="1" spans="3:13">
       <c r="C19" s="7" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -5987,12 +6679,12 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" ht="180" customHeight="1" spans="3:13">
-      <c r="C21" s="81" t="s">
-        <v>177</v>
+      <c r="C21" s="79" t="s">
+        <v>205</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -6007,12 +6699,12 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="5" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" ht="49" customHeight="1" spans="3:13">
       <c r="C23" s="7" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -6027,12 +6719,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" ht="73" customHeight="1" spans="2:13">
       <c r="B26" s="7" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -6048,12 +6740,12 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="5" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" ht="57" customHeight="1" spans="3:13">
       <c r="C28" s="7" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -6068,10 +6760,10 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="5" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -6085,7 +6777,7 @@
     </row>
     <row r="30" ht="127" customHeight="1" spans="3:13">
       <c r="C30" s="7" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -6100,10 +6792,10 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="5" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -6117,7 +6809,7 @@
     </row>
     <row r="32" ht="81" customHeight="1" spans="3:13">
       <c r="C32" s="7" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -6132,7 +6824,7 @@
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="5" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="3"/>
@@ -6148,7 +6840,7 @@
     </row>
     <row r="34" ht="36" customHeight="1" spans="3:13">
       <c r="C34" s="7" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -6163,10 +6855,10 @@
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="5" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -6180,7 +6872,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="25" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
@@ -6192,7 +6884,7 @@
     <row r="38" ht="60" customHeight="1" spans="1:13">
       <c r="A38" s="25"/>
       <c r="B38" s="27" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -6208,10 +6900,10 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="5" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -6225,7 +6917,7 @@
     </row>
     <row r="40" ht="37" customHeight="1" spans="3:13">
       <c r="C40" s="7" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -6240,7 +6932,7 @@
     </row>
     <row r="41" spans="4:13">
       <c r="D41" s="7" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -6254,7 +6946,7 @@
     </row>
     <row r="42" ht="37" customHeight="1" spans="3:13">
       <c r="C42" s="7" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -6269,10 +6961,10 @@
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="5" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -6286,12 +6978,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="19" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="4:13">
       <c r="D45" s="7" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -6360,17 +7052,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="3:14">
       <c r="C3" s="7" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -6386,10 +7078,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="5" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -6404,7 +7096,7 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="3:14">
       <c r="C5" s="7" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -6420,12 +7112,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="3:14">
       <c r="C7" s="7" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -6441,12 +7133,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1" spans="3:14">
       <c r="C10" s="7" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -6462,7 +7154,7 @@
     </row>
     <row r="11" ht="76" customHeight="1" spans="3:14">
       <c r="C11" s="7" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -6478,12 +7170,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="5" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="7" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -6499,12 +7191,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="5" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" ht="136" customHeight="1" spans="3:14">
       <c r="C15" s="7" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -6520,10 +7212,10 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="5" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -6538,7 +7230,7 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="3:14">
       <c r="C17" s="7" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -6568,12 +7260,12 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:14">
       <c r="B20" s="9" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -6590,12 +7282,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="5" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="7" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -6611,12 +7303,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="3:14">
       <c r="C24" s="7" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -6632,12 +7324,12 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="10" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="D26" s="7" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -6652,12 +7344,12 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="10" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="4:14">
       <c r="D28" s="8" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -6672,17 +7364,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="5" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" ht="73" customHeight="1" spans="3:14">
       <c r="C32" s="7" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -6698,12 +7390,12 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" ht="82" customHeight="1" spans="3:14">
       <c r="C34" s="7" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -6719,12 +7411,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" ht="145" customHeight="1" spans="3:14">
       <c r="C36" s="7" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -6740,12 +7432,12 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="5" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="8" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -6761,17 +7453,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="5" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="10" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="4:14">
       <c r="D41" s="7" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -6786,12 +7478,12 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="10" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" ht="38" customHeight="1" spans="4:14">
       <c r="D43" s="7" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -6806,12 +7498,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="10" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="D45" s="7" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -6826,10 +7518,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -6845,12 +7537,12 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="5" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" ht="74" customHeight="1" spans="3:14">
       <c r="C49" s="7" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -6866,12 +7558,12 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="5" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" ht="57" customHeight="1" spans="3:14">
       <c r="C51" s="7" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -6887,12 +7579,12 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="5" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" ht="37" customHeight="1" spans="3:14">
       <c r="C53" s="7" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -6908,24 +7600,24 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="5" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="C56" s="10"/>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="10" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="10"/>
       <c r="D58" s="7" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -6940,13 +7632,13 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="10" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" ht="95" customHeight="1" spans="3:14">
       <c r="C60" s="10"/>
-      <c r="D60" s="81" t="s">
-        <v>261</v>
+      <c r="D60" s="79" t="s">
+        <v>289</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -6961,13 +7653,13 @@
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="10" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" ht="108" customHeight="1" spans="3:14">
       <c r="C62" s="10"/>
       <c r="D62" s="7" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -6982,12 +7674,12 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="10" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" ht="36" customHeight="1" spans="4:14">
       <c r="D64" s="7" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -7014,10 +7706,10 @@
     </row>
     <row r="66" ht="19" customHeight="1" spans="1:14">
       <c r="A66" s="2" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -7033,19 +7725,19 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="5" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="C67" s="10"/>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="10" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" ht="72" customHeight="1" spans="3:14">
       <c r="C69" s="10"/>
-      <c r="D69" s="81" t="s">
-        <v>270</v>
+      <c r="D69" s="79" t="s">
+        <v>298</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -7060,13 +7752,13 @@
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="10" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" ht="102" customHeight="1" spans="3:14">
       <c r="C71" s="10"/>
-      <c r="D71" s="81" t="s">
-        <v>272</v>
+      <c r="D71" s="79" t="s">
+        <v>300</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -7081,7 +7773,7 @@
     </row>
     <row r="72" spans="3:13">
       <c r="C72" s="10" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -7097,7 +7789,7 @@
     <row r="73" spans="3:13">
       <c r="C73" s="10"/>
       <c r="D73" s="8" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -7111,7 +7803,7 @@
     </row>
     <row r="74" spans="3:13">
       <c r="C74" s="10" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -7127,7 +7819,7 @@
     <row r="75" ht="57" customHeight="1" spans="3:14">
       <c r="C75" s="10"/>
       <c r="D75" s="7" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
@@ -7142,13 +7834,13 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="10" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" ht="108" customHeight="1" spans="3:14">
       <c r="C77" s="10"/>
-      <c r="D77" s="81" t="s">
-        <v>278</v>
+      <c r="D77" s="79" t="s">
+        <v>306</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -7163,17 +7855,17 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="5" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" ht="159" customHeight="1" spans="3:14">
       <c r="C81" s="7" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -7189,10 +7881,10 @@
     </row>
     <row r="82" spans="2:14">
       <c r="B82" s="5" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -7207,7 +7899,7 @@
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:14">
       <c r="C83" s="7" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -7223,7 +7915,7 @@
     </row>
     <row r="84" ht="22" customHeight="1" spans="3:13">
       <c r="C84" s="11" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -7239,7 +7931,7 @@
     <row r="85" ht="161" customHeight="1" spans="3:14">
       <c r="C85" s="7"/>
       <c r="D85" s="7" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -7254,17 +7946,17 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="2" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="5" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" ht="85" customHeight="1" spans="3:14">
       <c r="C88" s="7" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -7280,12 +7972,12 @@
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="10" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" ht="60" customHeight="1" spans="4:14">
       <c r="D90" s="7" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -7300,12 +7992,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="5" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" ht="56" customHeight="1" spans="3:14">
       <c r="C92" s="7" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -7321,12 +8013,12 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="10" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" ht="153" customHeight="1" spans="4:14">
       <c r="D94" s="7" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -7354,12 +8046,12 @@
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:1">
       <c r="A96" s="2" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" ht="41" customHeight="1" spans="2:14">
       <c r="B97" s="7" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -7376,12 +8068,12 @@
     </row>
     <row r="98" ht="23" customHeight="1" spans="2:2">
       <c r="B98" s="5" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" ht="172" customHeight="1" spans="3:14">
       <c r="C99" s="7" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -7397,12 +8089,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="5" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="3:14">
       <c r="C101" s="7" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -7418,7 +8110,7 @@
     </row>
     <row r="102" ht="125" customHeight="1" spans="3:14">
       <c r="C102" s="12" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -7448,10 +8140,10 @@
     </row>
     <row r="104" ht="24" customHeight="1" spans="1:14">
       <c r="A104" s="2" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -7467,12 +8159,12 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="2:2">
       <c r="B105" s="5" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="3:14">
       <c r="C106" s="8" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -7488,12 +8180,12 @@
     </row>
     <row r="107" ht="20" customHeight="1" spans="2:2">
       <c r="B107" s="5" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="3:14">
       <c r="C108" s="8" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -7509,12 +8201,12 @@
     </row>
     <row r="109" ht="20" customHeight="1" spans="2:2">
       <c r="B109" s="5" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" ht="19" customHeight="1" spans="3:14">
       <c r="C110" s="7" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -7530,17 +8222,17 @@
     </row>
     <row r="112" ht="19" customHeight="1" spans="1:1">
       <c r="A112" s="2" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="5" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" ht="35" customHeight="1" spans="3:14">
       <c r="C114" s="7" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -7556,17 +8248,17 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="5" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="10" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117" ht="37" customHeight="1" spans="4:14">
       <c r="D117" s="7" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
@@ -7581,12 +8273,12 @@
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="10" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="4:14">
       <c r="D119" s="7" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
@@ -7601,12 +8293,12 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="10" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" ht="54" customHeight="1" spans="4:14">
       <c r="D121" s="7" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -7621,12 +8313,12 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="5" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
     </row>
     <row r="123" ht="36" customHeight="1" spans="3:14">
       <c r="C123" s="7" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -7642,17 +8334,17 @@
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="5" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="10" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="4:14">
       <c r="D126" s="7" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -7667,12 +8359,12 @@
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="10" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" ht="21" customHeight="1" spans="4:14">
       <c r="D128" s="7" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -7687,12 +8379,12 @@
     </row>
     <row r="129" ht="19" customHeight="1" spans="2:2">
       <c r="B129" s="5" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
     </row>
     <row r="130" spans="3:13">
       <c r="C130" s="14" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
@@ -7708,7 +8400,7 @@
     <row r="131" ht="76" customHeight="1" spans="3:14">
       <c r="C131" s="14"/>
       <c r="D131" s="16" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
@@ -7723,7 +8415,7 @@
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="14" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
@@ -7739,7 +8431,7 @@
     <row r="133" ht="95" customHeight="1" spans="3:14">
       <c r="C133" s="14"/>
       <c r="D133" s="16" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
@@ -7754,7 +8446,7 @@
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="14" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
@@ -7770,7 +8462,7 @@
     <row r="135" ht="79" customHeight="1" spans="3:14">
       <c r="C135" s="14"/>
       <c r="D135" s="16" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
@@ -7785,12 +8477,12 @@
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="10" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" ht="73" customHeight="1" spans="4:14">
       <c r="D137" s="16" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
@@ -7805,12 +8497,12 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="5" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="3:14">
       <c r="C139" s="7" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -7826,10 +8518,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="2" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -7845,7 +8537,7 @@
     </row>
     <row r="142" ht="187" customHeight="1" spans="2:14">
       <c r="B142" s="9" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -7862,12 +8554,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="2" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
     </row>
     <row r="145" ht="39" customHeight="1" spans="2:14">
       <c r="B145" s="9" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -7884,12 +8576,12 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="5" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
     </row>
     <row r="147" ht="220" customHeight="1" spans="3:14">
       <c r="C147" s="7" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -7905,10 +8597,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="2" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -7924,12 +8616,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="5" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="151" ht="190" customHeight="1" spans="3:14">
       <c r="C151" s="7" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -7945,12 +8637,12 @@
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="5" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" ht="117" customHeight="1" spans="3:14">
-      <c r="C153" s="81" t="s">
-        <v>351</v>
+      <c r="C153" s="79" t="s">
+        <v>379</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -7966,10 +8658,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="2" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -7985,12 +8677,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="5" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" ht="145" customHeight="1" spans="3:14">
       <c r="C156" s="7" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -8006,12 +8698,12 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="5" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="158" ht="102" customHeight="1" spans="3:14">
-      <c r="C158" s="81" t="s">
-        <v>357</v>
+      <c r="C158" s="79" t="s">
+        <v>385</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -8027,12 +8719,12 @@
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="5" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
     </row>
     <row r="160" ht="55" customHeight="1" spans="3:14">
       <c r="C160" s="7" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -8048,7 +8740,7 @@
     </row>
     <row r="161" ht="71" customHeight="1" spans="3:14">
       <c r="C161" s="7" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -8064,7 +8756,7 @@
     </row>
     <row r="162" ht="162" customHeight="1" spans="3:14">
       <c r="C162" s="7" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -8080,7 +8772,7 @@
     </row>
     <row r="163" ht="139" customHeight="1" spans="3:14">
       <c r="C163" s="7" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -8096,12 +8788,12 @@
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="5" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
     </row>
     <row r="165" ht="54" customHeight="1" spans="3:14">
       <c r="C165" s="7" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -8117,20 +8809,20 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="2" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="5" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
     </row>
     <row r="169" ht="77" customHeight="1" spans="3:14">
       <c r="C169" s="6" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
@@ -8144,13 +8836,13 @@
       <c r="N169" s="7"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="82" t="s">
-        <v>369</v>
+      <c r="C171" s="80" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="172" spans="4:14">
       <c r="D172" s="8" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
@@ -8165,10 +8857,10 @@
     </row>
     <row r="173" spans="2:14">
       <c r="B173" s="5" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="18"/>
@@ -8183,7 +8875,7 @@
     </row>
     <row r="174" ht="83" customHeight="1" spans="3:14">
       <c r="C174" s="7" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
@@ -8199,17 +8891,17 @@
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="2" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="5" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
     </row>
     <row r="178" ht="72" customHeight="1" spans="3:14">
       <c r="C178" s="7" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -8225,12 +8917,12 @@
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="5" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
     </row>
     <row r="180" ht="58" customHeight="1" spans="3:14">
       <c r="C180" s="7" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -8246,12 +8938,12 @@
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="5" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
     </row>
     <row r="183" ht="37" customHeight="1" spans="3:14">
       <c r="C183" s="7" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -8267,12 +8959,12 @@
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="5" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
     </row>
     <row r="185" ht="33" customHeight="1" spans="3:14">
       <c r="C185" s="7" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -8288,17 +8980,17 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="2" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="5" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
     </row>
     <row r="189" ht="91" customHeight="1" spans="3:14">
       <c r="C189" s="7" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -8314,12 +9006,12 @@
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="5" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
     </row>
     <row r="191" ht="178" customHeight="1" spans="3:14">
       <c r="C191" s="7" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -8451,339 +9143,339 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" ht="66" spans="2:2">
       <c r="B3" s="3" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" ht="33" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" ht="82.5" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" ht="49.5" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" ht="66" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="3" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" ht="99" spans="2:2">
       <c r="B24" s="3" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" ht="165" spans="2:2">
       <c r="B27" s="3" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="2:2">
       <c r="B30" s="3" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" ht="82.5" spans="2:2">
       <c r="B33" s="3" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" ht="66" spans="2:2">
       <c r="B36" s="3" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" ht="49.5" spans="2:2">
       <c r="B39" s="3" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" ht="66" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" ht="66" spans="2:2">
       <c r="B45" s="3" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" ht="49.5" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" ht="82.5" spans="2:2">
       <c r="B51" s="3" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" ht="33" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" ht="49.5" spans="2:2">
       <c r="B57" s="3" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" ht="33" spans="2:2">
       <c r="B60" s="3" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" ht="82.5" spans="2:2">
       <c r="B63" s="3" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="3" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="3" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70" ht="33" spans="2:2">
       <c r="B70" s="3" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71" ht="49.5" spans="2:2">
       <c r="B71" s="3" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" ht="33" spans="2:2">
       <c r="B74" s="3" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="3" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:2">
       <c r="B80" s="3" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="2" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="3" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" ht="49.5" spans="2:2">
       <c r="B84" s="3" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87" ht="33" spans="2:2">
       <c r="B87" s="3" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" ht="66" spans="2:2">
       <c r="B88" s="3" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
     </row>
     <row r="91" ht="148.5" spans="2:2">
       <c r="B91" s="3" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" ht="82.5" spans="2:2">
       <c r="B92" s="3" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
     </row>
     <row r="94" ht="33" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
     </row>
     <row r="95" ht="115.5" spans="2:2">
       <c r="B95" s="3" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -8809,7 +9501,7 @@
   <sheetData>
     <row r="1" ht="198" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1"/>

--- a/LINUX.xlsx
+++ b/LINUX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -2398,10 +2398,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -2587,6 +2587,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2600,32 +2615,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2639,9 +2637,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2655,6 +2653,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -2662,8 +2684,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2681,52 +2727,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2757,36 +2757,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2799,7 +2769,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2811,7 +2793,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2823,7 +2841,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2835,85 +2907,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2925,19 +2931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2951,17 +2951,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2971,6 +2965,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2986,6 +2995,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3007,39 +3040,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3053,148 +3053,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5364,7 +5364,7 @@
   <sheetPr/>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="A49" sqref="A49"/>
@@ -6471,10 +6471,10 @@
   <sheetPr/>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection pane="topRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>

--- a/LINUX.xlsx
+++ b/LINUX.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494">
   <si>
     <t>NTP时间同步</t>
   </si>
@@ -1259,6 +1259,43 @@
     <t>chcon -t 或chcon --reference（复原来的 文件标签）=修改标签</t>
   </si>
   <si>
+    <t>加密与解密应用</t>
+  </si>
+  <si>
+    <t>加密算法</t>
+  </si>
+  <si>
+    <t>1.为确保数据机密性算法：
+a) 对称加密算法(AES,DES)
+b) 非对称加密算法（RSA，DSA）
+2.为确保数据完整性算法：
+a) 信息摘要（MD5，SHA256，SHA512）</t>
+  </si>
+  <si>
+    <t>MD5校验</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安装包：gnupg2       程序名：gpg </t>
+  </si>
+  <si>
+    <t>gpg –version                     //查看版本
+gpg -c                           //对文件加密  
+gpg -d                          //解密</t>
+  </si>
+  <si>
+    <t>GPG非对称加密</t>
+  </si>
+  <si>
+    <t>gpg --gen-key                       //创建密钥
+gpg --list-keys                    //查看公钥环
+gpg --list-secret-keys            //查看私钥环
+gpg -a --export UserB &gt; /tmp/UserA.pub    
+            //--export的作用是导出密钥，-a的作用是导出的密钥存储为ASCII格式
+gpg --import                    //导入公钥信息
+gpg -b                        //创建分离式数字签名
+gpg --verify                 //验证签名</t>
+  </si>
+  <si>
     <t>shell 脚本</t>
   </si>
   <si>
@@ -2399,9 +2436,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -2593,98 +2630,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2701,7 +2646,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2715,6 +2707,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -2722,9 +2745,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2757,7 +2794,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2769,7 +2824,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2781,163 +2968,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2964,61 +3001,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3040,6 +3023,60 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3053,152 +3090,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3281,6 +3318,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3783,8 +3823,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="76"/>
-    <col min="2" max="2" width="9" style="77"/>
+    <col min="1" max="1" width="9" style="77"/>
+    <col min="2" max="2" width="9" style="78"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData/>
@@ -3807,78 +3847,78 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18.875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="65" customWidth="1"/>
-    <col min="3" max="3" width="73.125" style="66" customWidth="1"/>
-    <col min="4" max="8" width="9" style="66"/>
-    <col min="9" max="16352" width="9" style="65"/>
-    <col min="16353" max="16384" width="9" style="67"/>
+    <col min="2" max="2" width="11.875" style="66" customWidth="1"/>
+    <col min="3" max="3" width="73.125" style="67" customWidth="1"/>
+    <col min="4" max="8" width="9" style="67"/>
+    <col min="9" max="16352" width="9" style="66"/>
+    <col min="16353" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="3:3">
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="71" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="48" customHeight="1" spans="3:3">
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:3">
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="71" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="3:3">
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="72" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="3:3">
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" ht="33" customHeight="1" spans="3:3">
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="72" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:3">
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="71" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="43" customHeight="1" spans="3:3">
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="72" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="3:3">
-      <c r="C12" s="71"/>
+      <c r="C12" s="72"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:1">
       <c r="A13" s="25" t="s">
@@ -3886,79 +3926,79 @@
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="2:7">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="2:7">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
       <c r="A16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="67" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="2:7">
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="2:7">
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:7">
       <c r="A22" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="75" t="s">
         <v>22</v>
       </c>
       <c r="D22"/>
@@ -3968,7 +4008,7 @@
     </row>
     <row r="23" ht="90" customHeight="1" spans="2:7">
       <c r="B23"/>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="76" t="s">
         <v>23</v>
       </c>
       <c r="D23"/>
@@ -4005,117 +4045,117 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="37" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="39" customWidth="1"/>
-    <col min="4" max="14" width="9" style="39"/>
-    <col min="15" max="15" width="9" style="40"/>
+    <col min="1" max="1" width="17.375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="40" customWidth="1"/>
+    <col min="4" max="14" width="9" style="40"/>
+    <col min="15" max="15" width="9" style="41"/>
     <col min="16" max="16" width="9" style="4"/>
-    <col min="17" max="16384" width="9" style="38"/>
+    <col min="17" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -4134,1169 +4174,1169 @@
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="43"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
     </row>
     <row r="13" ht="39" customHeight="1" spans="2:14">
-      <c r="B13" s="43"/>
-      <c r="C13" s="78" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" ht="42" customHeight="1" spans="2:14">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="16" ht="34" customHeight="1" spans="1:14">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" ht="39" customHeight="1" spans="2:14">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="49" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" ht="79" customHeight="1" spans="3:14">
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="2:2">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" ht="58" customHeight="1" spans="3:14">
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" ht="78" customHeight="1" spans="3:14">
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="43"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="43"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="43"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="43"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" ht="71" customHeight="1" spans="2:15">
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="56"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="57"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="38" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" ht="60" customHeight="1" spans="2:15">
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="57"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="58"/>
     </row>
     <row r="36" ht="55" customHeight="1" spans="2:15">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="57"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="58"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:15">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="58"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="59"/>
     </row>
     <row r="38" ht="21" customHeight="1" spans="2:3">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="50"/>
+      <c r="C38" s="51"/>
     </row>
     <row r="39" ht="54" customHeight="1" spans="2:14">
-      <c r="B39" s="54"/>
-      <c r="C39" s="50" t="s">
+      <c r="B39" s="55"/>
+      <c r="C39" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
     </row>
     <row r="40" ht="21" customHeight="1" spans="2:3">
-      <c r="B40" s="54"/>
-      <c r="C40" s="50" t="s">
+      <c r="B40" s="55"/>
+      <c r="C40" s="51" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" ht="72" customHeight="1" spans="2:14">
-      <c r="B41" s="54"/>
-      <c r="C41" s="50" t="s">
+      <c r="B41" s="55"/>
+      <c r="C41" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
     </row>
     <row r="42" ht="39" customHeight="1" spans="2:14">
-      <c r="B42" s="54"/>
-      <c r="C42" s="50" t="s">
+      <c r="B42" s="55"/>
+      <c r="C42" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
     </row>
     <row r="43" ht="21" customHeight="1" spans="2:4">
-      <c r="B43" s="54"/>
-      <c r="C43" s="50" t="s">
+      <c r="B43" s="55"/>
+      <c r="C43" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="50"/>
+      <c r="D43" s="51"/>
     </row>
     <row r="44" ht="66" customHeight="1" spans="2:14">
-      <c r="B44" s="54"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="49" t="s">
+      <c r="B44" s="55"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
     </row>
     <row r="45" ht="161" customHeight="1" spans="2:14">
-      <c r="B45" s="54"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="55" t="s">
+      <c r="B45" s="55"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="58"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="59"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42" t="s">
+      <c r="C47" s="43"/>
+      <c r="D47" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="38" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="50" ht="81" customHeight="1" spans="2:14">
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="49" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52" ht="33" customHeight="1" spans="3:14">
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="49" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" ht="36" customHeight="1" spans="3:14">
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
     </row>
     <row r="55" ht="19" customHeight="1" spans="2:14">
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
     </row>
     <row r="56" ht="103" customHeight="1" spans="3:14">
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
     </row>
     <row r="57" ht="23" customHeight="1" spans="2:14">
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
     </row>
     <row r="58" ht="41" customHeight="1" spans="3:14">
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
     </row>
     <row r="59" ht="23" customHeight="1" spans="2:14">
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
     </row>
     <row r="60" ht="57" customHeight="1" spans="3:14">
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
     </row>
     <row r="61" ht="27" customHeight="1" spans="2:14">
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47" t="s">
+      <c r="C61" s="48"/>
+      <c r="D61" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
     </row>
     <row r="62" ht="41" customHeight="1" spans="3:14">
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
     </row>
     <row r="63" ht="26" customHeight="1" spans="2:14">
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="47" t="s">
+      <c r="C63" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
     </row>
     <row r="64" ht="25" customHeight="1" spans="2:14">
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
     </row>
     <row r="65" ht="25" customHeight="1" spans="2:14">
-      <c r="B65" s="48"/>
-      <c r="C65" s="55" t="s">
+      <c r="B65" s="49"/>
+      <c r="C65" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="47" t="s">
+      <c r="D65" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
     </row>
     <row r="66" ht="25" customHeight="1" spans="2:14">
-      <c r="B66" s="48"/>
-      <c r="C66" s="59" t="s">
+      <c r="B66" s="49"/>
+      <c r="C66" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="47" t="s">
+      <c r="D66" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="48"/>
     </row>
     <row r="67" ht="25" customHeight="1" spans="2:14">
-      <c r="B67" s="48"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47" t="s">
+      <c r="B67" s="49"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
     </row>
     <row r="68" ht="36" customHeight="1" spans="3:14">
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="71" ht="54" customHeight="1" spans="2:14">
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="42"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
     </row>
     <row r="72" ht="26" customHeight="1" spans="2:14">
-      <c r="B72" s="46"/>
-      <c r="C72" s="42" t="s">
+      <c r="B72" s="47"/>
+      <c r="C72" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
     </row>
     <row r="73" ht="25" customHeight="1" spans="2:14">
-      <c r="B73" s="46"/>
-      <c r="C73" s="42" t="s">
+      <c r="B73" s="47"/>
+      <c r="C73" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
     </row>
     <row r="74" ht="312" customHeight="1" spans="2:14">
-      <c r="B74" s="46"/>
-      <c r="C74" s="47" t="s">
+      <c r="B74" s="47"/>
+      <c r="C74" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
     </row>
     <row r="75" ht="26" customHeight="1" spans="2:14">
-      <c r="B75" s="46"/>
-      <c r="C75" s="42" t="s">
+      <c r="B75" s="47"/>
+      <c r="C75" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
     </row>
     <row r="76" ht="36" customHeight="1" spans="2:14">
-      <c r="B76" s="60" t="s">
+      <c r="B76" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
     </row>
     <row r="77" ht="26" customHeight="1" spans="2:14">
-      <c r="B77" s="46"/>
-      <c r="C77" s="42" t="s">
+      <c r="B77" s="47"/>
+      <c r="C77" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="42"/>
-      <c r="N77" s="42"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
     </row>
     <row r="78" ht="54" customHeight="1" spans="2:14">
-      <c r="B78" s="46"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="42"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
     </row>
     <row r="79" ht="54" customHeight="1" spans="2:14">
-      <c r="B79" s="46"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="42"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
     </row>
     <row r="80" ht="54" customHeight="1" spans="2:14">
-      <c r="B80" s="46"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
     </row>
     <row r="81" ht="54" customHeight="1" spans="2:14">
-      <c r="B81" s="46"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="42"/>
-      <c r="N81" s="42"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="61" t="s">
+      <c r="A83" s="62" t="s">
         <v>107</v>
       </c>
       <c r="B83" s="26"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
-      <c r="N83" s="62"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
+      <c r="L83" s="63"/>
+      <c r="M83" s="63"/>
+      <c r="N83" s="63"/>
     </row>
     <row r="84" ht="72" customHeight="1" spans="1:14">
-      <c r="A84" s="61"/>
-      <c r="B84" s="63" t="s">
+      <c r="A84" s="62"/>
+      <c r="B84" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
-      <c r="J84" s="64"/>
-      <c r="K84" s="64"/>
-      <c r="L84" s="64"/>
-      <c r="M84" s="64"/>
-      <c r="N84" s="64"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
+      <c r="M84" s="65"/>
+      <c r="N84" s="65"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="38" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="87" spans="2:14">
-      <c r="B87" s="46" t="s">
+      <c r="B87" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47"/>
-      <c r="J87" s="47"/>
-      <c r="K87" s="47"/>
-      <c r="L87" s="47"/>
-      <c r="M87" s="47"/>
-      <c r="N87" s="47"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="48"/>
+      <c r="N87" s="48"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="38" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="90" ht="54" customHeight="1" spans="2:14">
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="47"/>
-      <c r="K90" s="47"/>
-      <c r="L90" s="47"/>
-      <c r="M90" s="47"/>
-      <c r="N90" s="47"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="48"/>
+      <c r="M90" s="48"/>
+      <c r="N90" s="48"/>
     </row>
     <row r="91" ht="21" customHeight="1" spans="2:2">
-      <c r="B91" s="48" t="s">
+      <c r="B91" s="49" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="92" ht="120" customHeight="1" spans="3:14">
-      <c r="C92" s="78" t="s">
+      <c r="C92" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="48"/>
+      <c r="N92" s="48"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="48" t="s">
+      <c r="B93" s="49" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="94" ht="31" customHeight="1" spans="3:14">
-      <c r="C94" s="47" t="s">
+      <c r="C94" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="47"/>
-      <c r="K94" s="47"/>
-      <c r="L94" s="47"/>
-      <c r="M94" s="47"/>
-      <c r="N94" s="47"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="48"/>
+      <c r="J94" s="48"/>
+      <c r="K94" s="48"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="48"/>
+      <c r="N94" s="48"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="48" t="s">
+      <c r="B95" s="49" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="96" spans="3:14">
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="42"/>
-      <c r="L96" s="42"/>
-      <c r="M96" s="42"/>
-      <c r="N96" s="42"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -5372,7 +5412,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16" style="28" customWidth="1"/>
+    <col min="1" max="1" width="16" style="29" customWidth="1"/>
     <col min="2" max="2" width="26" style="4" customWidth="1"/>
     <col min="3" max="13" width="9" style="6"/>
     <col min="14" max="14" width="11.625" style="4" customWidth="1"/>
@@ -5380,7 +5420,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5436,7 +5476,7 @@
       <c r="N4" s="9"/>
     </row>
     <row r="5" customHeight="1" spans="2:14">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>123</v>
       </c>
       <c r="C5" s="8"/>
@@ -5450,10 +5490,10 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="29"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" ht="45" customHeight="1" spans="2:14">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -5472,7 +5512,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" customHeight="1" spans="2:14">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>126</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -5491,7 +5531,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" ht="70" customHeight="1" spans="2:14">
-      <c r="B8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="11" t="s">
         <v>128</v>
       </c>
@@ -5508,7 +5548,7 @@
       <c r="N8" s="11"/>
     </row>
     <row r="9" customHeight="1" spans="2:14">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -5527,7 +5567,7 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" ht="70" customHeight="1" spans="2:14">
-      <c r="B10" s="29"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="11" t="s">
         <v>131</v>
       </c>
@@ -5544,7 +5584,7 @@
       <c r="N10" s="11"/>
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:14">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="8"/>
@@ -5563,7 +5603,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" ht="142" customHeight="1" spans="2:14">
-      <c r="B12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="11" t="s">
         <v>134</v>
       </c>
@@ -5580,26 +5620,26 @@
       <c r="N12" s="11"/>
     </row>
     <row r="13" ht="22" customHeight="1" spans="2:14">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>135</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
     </row>
     <row r="14" ht="156" customHeight="1" spans="2:14">
-      <c r="B14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="11" t="s">
         <v>137</v>
       </c>
@@ -5616,7 +5656,7 @@
       <c r="N14" s="11"/>
     </row>
     <row r="16" customHeight="1" spans="1:1">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5655,7 +5695,7 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" customHeight="1" spans="2:14">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="30" t="s">
         <v>123</v>
       </c>
       <c r="C19" s="8"/>
@@ -5669,10 +5709,10 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="29"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" customHeight="1" spans="2:14">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="32" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="8"/>
@@ -5686,10 +5726,10 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="29"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" ht="42" customHeight="1" spans="2:14">
-      <c r="B21" s="29"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="7" t="s">
         <v>142</v>
       </c>
@@ -5706,7 +5746,7 @@
       <c r="N21" s="8"/>
     </row>
     <row r="22" customHeight="1" spans="2:14">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>143</v>
       </c>
       <c r="C22" s="8"/>
@@ -5720,10 +5760,10 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="29"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" ht="84" customHeight="1" spans="2:14">
-      <c r="B23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="7" t="s">
         <v>144</v>
       </c>
@@ -5740,7 +5780,7 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" customHeight="1" spans="2:14">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="30" t="s">
         <v>145</v>
       </c>
       <c r="C24" s="8"/>
@@ -5754,10 +5794,10 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="29"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" ht="52" customHeight="1" spans="2:14">
-      <c r="B25" s="29"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="7" t="s">
         <v>146</v>
       </c>
@@ -5774,7 +5814,7 @@
       <c r="N25" s="7"/>
     </row>
     <row r="26" ht="169" customHeight="1" spans="2:14">
-      <c r="B26" s="29"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="7" t="s">
         <v>147</v>
       </c>
@@ -5791,7 +5831,7 @@
       <c r="N26" s="7"/>
     </row>
     <row r="27" customHeight="1" spans="2:14">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="31" t="s">
         <v>148</v>
       </c>
       <c r="C27" s="8"/>
@@ -5805,10 +5845,10 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="29"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" ht="73" customHeight="1" spans="2:14">
-      <c r="B28" s="29"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="7" t="s">
         <v>149</v>
       </c>
@@ -5825,7 +5865,7 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" customHeight="1" spans="2:14">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="31" t="s">
         <v>126</v>
       </c>
       <c r="C29" s="8"/>
@@ -5839,10 +5879,10 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="29"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" ht="150" customHeight="1" spans="2:14">
-      <c r="B30" s="29"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="7" t="s">
         <v>150</v>
       </c>
@@ -5859,7 +5899,7 @@
       <c r="N30" s="8"/>
     </row>
     <row r="31" customHeight="1" spans="2:14">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="31" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="8"/>
@@ -5873,10 +5913,10 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="29"/>
+      <c r="N31" s="30"/>
     </row>
     <row r="32" ht="112" customHeight="1" spans="2:14">
-      <c r="B32" s="29"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="7" t="s">
         <v>152</v>
       </c>
@@ -5893,7 +5933,7 @@
       <c r="N32" s="7"/>
     </row>
     <row r="33" customHeight="1" spans="2:14">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="31" t="s">
         <v>153</v>
       </c>
       <c r="C33" s="8"/>
@@ -5907,10 +5947,10 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="29"/>
+      <c r="N33" s="30"/>
     </row>
     <row r="34" ht="44" customHeight="1" spans="2:14">
-      <c r="B34" s="29"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="7" t="s">
         <v>154</v>
       </c>
@@ -5927,7 +5967,7 @@
       <c r="N34" s="8"/>
     </row>
     <row r="35" customHeight="1" spans="2:14">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C35" s="8"/>
@@ -5946,7 +5986,7 @@
       <c r="N35" s="8"/>
     </row>
     <row r="36" ht="233" customHeight="1" spans="2:14">
-      <c r="B36" s="29"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="7" t="s">
         <v>157</v>
       </c>
@@ -5963,7 +6003,7 @@
       <c r="N36" s="7"/>
     </row>
     <row r="37" customHeight="1" spans="2:14">
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="31" t="s">
         <v>158</v>
       </c>
       <c r="C37" s="8"/>
@@ -5977,10 +6017,10 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="29"/>
+      <c r="N37" s="30"/>
     </row>
     <row r="38" customHeight="1" spans="2:14">
-      <c r="B38" s="29"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -5992,10 +6032,10 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="29"/>
+      <c r="N38" s="30"/>
     </row>
     <row r="39" customHeight="1" spans="2:14">
-      <c r="B39" s="29"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -6007,10 +6047,10 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="29"/>
+      <c r="N39" s="30"/>
     </row>
     <row r="40" customHeight="1" spans="1:1">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="29" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6053,12 +6093,12 @@
       <c r="N43" s="9"/>
     </row>
     <row r="44" ht="90" customHeight="1" spans="2:2">
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="33" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="29" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6080,7 +6120,7 @@
       <c r="N47" s="9"/>
     </row>
     <row r="48" customHeight="1" spans="2:14">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="30" t="s">
         <v>166</v>
       </c>
       <c r="C48" s="8"/>
@@ -6094,10 +6134,10 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="29"/>
+      <c r="N48" s="30"/>
     </row>
     <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="29" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6119,7 +6159,7 @@
       <c r="N50" s="9"/>
     </row>
     <row r="51" ht="28" customHeight="1" spans="2:14">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="32" t="s">
         <v>169</v>
       </c>
       <c r="C51" s="7"/>
@@ -6277,25 +6317,25 @@
       <c r="N60" s="9"/>
     </row>
     <row r="62" customHeight="1" spans="1:14">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="29" t="s">
         <v>173</v>
       </c>
       <c r="B62"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="36"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="37"/>
     </row>
     <row r="63" ht="53" customHeight="1" spans="1:14">
-      <c r="A63" s="34"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="9" t="s">
         <v>174</v>
       </c>
@@ -6469,19 +6509,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A47" sqref="A47"/>
+      <selection pane="topRight" activeCell="G59" sqref="F59:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="26.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11" style="6" customWidth="1"/>
     <col min="4" max="12" width="9" style="6"/>
     <col min="13" max="13" width="11.625" style="6" customWidth="1"/>
     <col min="14" max="16384" width="9" style="4"/>
@@ -6683,7 +6723,7 @@
       </c>
     </row>
     <row r="21" ht="180" customHeight="1" spans="3:13">
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="80" t="s">
         <v>205</v>
       </c>
       <c r="D21" s="8"/>
@@ -6995,8 +7035,88 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
     </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" ht="84" customHeight="1" spans="3:13">
+      <c r="C49" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13">
+      <c r="D51" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" ht="60" customHeight="1" spans="4:13">
+      <c r="D52" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" ht="133" customHeight="1" spans="4:13">
+      <c r="D55" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="30">
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="C7:M7"/>
@@ -7023,6 +7143,10 @@
     <mergeCell ref="C42:M42"/>
     <mergeCell ref="D43:M43"/>
     <mergeCell ref="D45:M45"/>
+    <mergeCell ref="C49:M49"/>
+    <mergeCell ref="D51:M51"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="D55:M55"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7052,17 +7176,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="3:14">
       <c r="C3" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -7078,10 +7202,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="5" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -7096,7 +7220,7 @@
     </row>
     <row r="5" ht="36" customHeight="1" spans="3:14">
       <c r="C5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -7112,12 +7236,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="3:14">
       <c r="C7" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -7133,12 +7257,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" ht="108" customHeight="1" spans="3:14">
       <c r="C10" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -7154,7 +7278,7 @@
     </row>
     <row r="11" ht="76" customHeight="1" spans="3:14">
       <c r="C11" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -7170,12 +7294,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="5" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="3:14">
       <c r="C13" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -7191,12 +7315,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" ht="136" customHeight="1" spans="3:14">
       <c r="C15" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -7212,10 +7336,10 @@
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="5" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -7230,7 +7354,7 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="3:14">
       <c r="C17" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -7260,12 +7384,12 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="2:14">
       <c r="B20" s="9" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -7282,12 +7406,12 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="5" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -7303,12 +7427,12 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" ht="54" customHeight="1" spans="3:14">
       <c r="C24" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -7324,12 +7448,12 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="10" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="D26" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -7344,12 +7468,12 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="10" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="4:14">
       <c r="D28" s="8" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -7364,17 +7488,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="5" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" ht="73" customHeight="1" spans="3:14">
       <c r="C32" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -7390,12 +7514,12 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" ht="82" customHeight="1" spans="3:14">
       <c r="C34" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -7411,12 +7535,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" ht="145" customHeight="1" spans="3:14">
       <c r="C36" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -7432,12 +7556,12 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="5" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -7453,17 +7577,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="5" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="10" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" ht="55" customHeight="1" spans="4:14">
       <c r="D41" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -7478,12 +7602,12 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="10" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" ht="38" customHeight="1" spans="4:14">
       <c r="D43" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -7498,12 +7622,12 @@
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="10" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="D45" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -7518,10 +7642,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -7537,12 +7661,12 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" ht="74" customHeight="1" spans="3:14">
       <c r="C49" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -7558,12 +7682,12 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" ht="57" customHeight="1" spans="3:14">
       <c r="C51" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -7579,12 +7703,12 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="5" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" ht="37" customHeight="1" spans="3:14">
       <c r="C53" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -7600,24 +7724,24 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="5" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C56" s="10"/>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" s="10" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="10"/>
       <c r="D58" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -7632,13 +7756,13 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="10" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" ht="95" customHeight="1" spans="3:14">
       <c r="C60" s="10"/>
-      <c r="D60" s="79" t="s">
-        <v>289</v>
+      <c r="D60" s="80" t="s">
+        <v>297</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -7653,13 +7777,13 @@
     </row>
     <row r="61" spans="3:3">
       <c r="C61" s="10" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" ht="108" customHeight="1" spans="3:14">
       <c r="C62" s="10"/>
       <c r="D62" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -7674,12 +7798,12 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="10" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" ht="36" customHeight="1" spans="4:14">
       <c r="D64" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -7706,10 +7830,10 @@
     </row>
     <row r="66" ht="19" customHeight="1" spans="1:14">
       <c r="A66" s="2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -7725,19 +7849,19 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="5" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C67" s="10"/>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="10" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" ht="72" customHeight="1" spans="3:14">
       <c r="C69" s="10"/>
-      <c r="D69" s="79" t="s">
-        <v>298</v>
+      <c r="D69" s="80" t="s">
+        <v>306</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -7752,13 +7876,13 @@
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="10" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" ht="102" customHeight="1" spans="3:14">
       <c r="C71" s="10"/>
-      <c r="D71" s="79" t="s">
-        <v>300</v>
+      <c r="D71" s="80" t="s">
+        <v>308</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -7773,7 +7897,7 @@
     </row>
     <row r="72" spans="3:13">
       <c r="C72" s="10" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -7789,7 +7913,7 @@
     <row r="73" spans="3:13">
       <c r="C73" s="10"/>
       <c r="D73" s="8" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -7803,7 +7927,7 @@
     </row>
     <row r="74" spans="3:13">
       <c r="C74" s="10" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -7819,7 +7943,7 @@
     <row r="75" ht="57" customHeight="1" spans="3:14">
       <c r="C75" s="10"/>
       <c r="D75" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
@@ -7834,13 +7958,13 @@
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="10" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" ht="108" customHeight="1" spans="3:14">
       <c r="C77" s="10"/>
-      <c r="D77" s="79" t="s">
-        <v>306</v>
+      <c r="D77" s="80" t="s">
+        <v>314</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -7855,17 +7979,17 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="5" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" ht="159" customHeight="1" spans="3:14">
       <c r="C81" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -7881,10 +8005,10 @@
     </row>
     <row r="82" spans="2:14">
       <c r="B82" s="5" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -7899,7 +8023,7 @@
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:14">
       <c r="C83" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -7915,7 +8039,7 @@
     </row>
     <row r="84" ht="22" customHeight="1" spans="3:13">
       <c r="C84" s="11" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -7931,7 +8055,7 @@
     <row r="85" ht="161" customHeight="1" spans="3:14">
       <c r="C85" s="7"/>
       <c r="D85" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -7946,17 +8070,17 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="5" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" ht="85" customHeight="1" spans="3:14">
       <c r="C88" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -7972,12 +8096,12 @@
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="10" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" ht="60" customHeight="1" spans="4:14">
       <c r="D90" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -7992,12 +8116,12 @@
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="5" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" ht="56" customHeight="1" spans="3:14">
       <c r="C92" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -8013,12 +8137,12 @@
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="10" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" ht="153" customHeight="1" spans="4:14">
       <c r="D94" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -8046,12 +8170,12 @@
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:1">
       <c r="A96" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" ht="41" customHeight="1" spans="2:14">
       <c r="B97" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -8068,12 +8192,12 @@
     </row>
     <row r="98" ht="23" customHeight="1" spans="2:2">
       <c r="B98" s="5" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99" ht="172" customHeight="1" spans="3:14">
       <c r="C99" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -8089,12 +8213,12 @@
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" ht="55" customHeight="1" spans="3:14">
       <c r="C101" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -8110,7 +8234,7 @@
     </row>
     <row r="102" ht="125" customHeight="1" spans="3:14">
       <c r="C102" s="12" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -8140,10 +8264,10 @@
     </row>
     <row r="104" ht="24" customHeight="1" spans="1:14">
       <c r="A104" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -8159,12 +8283,12 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="2:2">
       <c r="B105" s="5" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="3:14">
       <c r="C106" s="8" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -8180,12 +8304,12 @@
     </row>
     <row r="107" ht="20" customHeight="1" spans="2:2">
       <c r="B107" s="5" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="3:14">
       <c r="C108" s="8" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -8201,12 +8325,12 @@
     </row>
     <row r="109" ht="20" customHeight="1" spans="2:2">
       <c r="B109" s="5" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110" ht="19" customHeight="1" spans="3:14">
       <c r="C110" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -8222,17 +8346,17 @@
     </row>
     <row r="112" ht="19" customHeight="1" spans="1:1">
       <c r="A112" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="5" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114" ht="35" customHeight="1" spans="3:14">
       <c r="C114" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -8248,17 +8372,17 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="5" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" s="10" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117" ht="37" customHeight="1" spans="4:14">
       <c r="D117" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
@@ -8273,12 +8397,12 @@
     </row>
     <row r="118" spans="3:3">
       <c r="C118" s="10" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119" spans="4:14">
       <c r="D119" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
@@ -8293,12 +8417,12 @@
     </row>
     <row r="120" spans="3:3">
       <c r="C120" s="10" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="121" ht="54" customHeight="1" spans="4:14">
       <c r="D121" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -8313,12 +8437,12 @@
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="5" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="123" ht="36" customHeight="1" spans="3:14">
       <c r="C123" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -8334,17 +8458,17 @@
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="5" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="125" spans="3:3">
       <c r="C125" s="10" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="126" spans="4:14">
       <c r="D126" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -8359,12 +8483,12 @@
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="10" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" ht="21" customHeight="1" spans="4:14">
       <c r="D128" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -8379,12 +8503,12 @@
     </row>
     <row r="129" ht="19" customHeight="1" spans="2:2">
       <c r="B129" s="5" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="3:13">
       <c r="C130" s="14" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
@@ -8400,7 +8524,7 @@
     <row r="131" ht="76" customHeight="1" spans="3:14">
       <c r="C131" s="14"/>
       <c r="D131" s="16" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
@@ -8415,7 +8539,7 @@
     </row>
     <row r="132" spans="3:13">
       <c r="C132" s="14" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
@@ -8431,7 +8555,7 @@
     <row r="133" ht="95" customHeight="1" spans="3:14">
       <c r="C133" s="14"/>
       <c r="D133" s="16" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
@@ -8446,7 +8570,7 @@
     </row>
     <row r="134" spans="3:13">
       <c r="C134" s="14" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
@@ -8462,7 +8586,7 @@
     <row r="135" ht="79" customHeight="1" spans="3:14">
       <c r="C135" s="14"/>
       <c r="D135" s="16" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
@@ -8477,12 +8601,12 @@
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="10" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137" ht="73" customHeight="1" spans="4:14">
       <c r="D137" s="16" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
@@ -8497,12 +8621,12 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="5" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="139" spans="3:14">
       <c r="C139" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -8518,10 +8642,10 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="2" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -8537,7 +8661,7 @@
     </row>
     <row r="142" ht="187" customHeight="1" spans="2:14">
       <c r="B142" s="9" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -8554,12 +8678,12 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="145" ht="39" customHeight="1" spans="2:14">
       <c r="B145" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -8576,12 +8700,12 @@
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="5" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="147" ht="220" customHeight="1" spans="3:14">
       <c r="C147" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -8597,10 +8721,10 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="2" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -8616,12 +8740,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="5" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="151" ht="190" customHeight="1" spans="3:14">
       <c r="C151" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -8637,12 +8761,12 @@
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="5" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="153" ht="117" customHeight="1" spans="3:14">
-      <c r="C153" s="79" t="s">
-        <v>379</v>
+      <c r="C153" s="80" t="s">
+        <v>387</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -8658,10 +8782,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -8677,12 +8801,12 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="5" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="156" ht="145" customHeight="1" spans="3:14">
       <c r="C156" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -8698,12 +8822,12 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="5" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" ht="102" customHeight="1" spans="3:14">
-      <c r="C158" s="79" t="s">
-        <v>385</v>
+      <c r="C158" s="80" t="s">
+        <v>393</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -8719,12 +8843,12 @@
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="5" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="160" ht="55" customHeight="1" spans="3:14">
       <c r="C160" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -8740,7 +8864,7 @@
     </row>
     <row r="161" ht="71" customHeight="1" spans="3:14">
       <c r="C161" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -8756,7 +8880,7 @@
     </row>
     <row r="162" ht="162" customHeight="1" spans="3:14">
       <c r="C162" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -8772,7 +8896,7 @@
     </row>
     <row r="163" ht="139" customHeight="1" spans="3:14">
       <c r="C163" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -8788,12 +8912,12 @@
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="5" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165" ht="54" customHeight="1" spans="3:14">
       <c r="C165" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -8809,20 +8933,20 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="5" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="169" ht="77" customHeight="1" spans="3:14">
       <c r="C169" s="6" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
@@ -8836,13 +8960,13 @@
       <c r="N169" s="7"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="80" t="s">
-        <v>397</v>
+      <c r="C171" s="81" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="172" spans="4:14">
       <c r="D172" s="8" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
@@ -8857,10 +8981,10 @@
     </row>
     <row r="173" spans="2:14">
       <c r="B173" s="5" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="18"/>
@@ -8875,7 +8999,7 @@
     </row>
     <row r="174" ht="83" customHeight="1" spans="3:14">
       <c r="C174" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
@@ -8891,17 +9015,17 @@
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="5" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="178" ht="72" customHeight="1" spans="3:14">
       <c r="C178" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -8917,12 +9041,12 @@
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="5" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="180" ht="58" customHeight="1" spans="3:14">
       <c r="C180" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -8938,12 +9062,12 @@
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="5" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="183" ht="37" customHeight="1" spans="3:14">
       <c r="C183" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -8959,12 +9083,12 @@
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="5" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="185" ht="33" customHeight="1" spans="3:14">
       <c r="C185" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -8980,17 +9104,17 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="2" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="189" ht="91" customHeight="1" spans="3:14">
       <c r="C189" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -9006,12 +9130,12 @@
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="5" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="191" ht="178" customHeight="1" spans="3:14">
       <c r="C191" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -9143,339 +9267,339 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" ht="35" customHeight="1" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" ht="66" spans="2:2">
       <c r="B3" s="3" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" ht="33" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" ht="82.5" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" ht="49.5" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" ht="66" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="3" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" ht="99" spans="2:2">
       <c r="B24" s="3" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" ht="165" spans="2:2">
       <c r="B27" s="3" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" ht="49.5" spans="2:2">
       <c r="B30" s="3" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" ht="82.5" spans="2:2">
       <c r="B33" s="3" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" ht="66" spans="2:2">
       <c r="B36" s="3" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" ht="49.5" spans="2:2">
       <c r="B39" s="3" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" ht="66" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" ht="66" spans="2:2">
       <c r="B45" s="3" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" ht="49.5" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" ht="82.5" spans="2:2">
       <c r="B51" s="3" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" ht="33" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" ht="49.5" spans="2:2">
       <c r="B57" s="3" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" ht="33" spans="2:2">
       <c r="B60" s="3" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" ht="82.5" spans="2:2">
       <c r="B63" s="3" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="3" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="3" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" ht="33" spans="2:2">
       <c r="B70" s="3" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" ht="49.5" spans="2:2">
       <c r="B71" s="3" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" ht="33" spans="2:2">
       <c r="B74" s="3" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="3" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="80" ht="132" spans="2:2">
       <c r="B80" s="3" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="2" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="3" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" ht="49.5" spans="2:2">
       <c r="B84" s="3" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="87" ht="33" spans="2:2">
       <c r="B87" s="3" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="88" ht="66" spans="2:2">
       <c r="B88" s="3" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="91" ht="148.5" spans="2:2">
       <c r="B91" s="3" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="92" ht="82.5" spans="2:2">
       <c r="B92" s="3" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="94" ht="33" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="95" ht="115.5" spans="2:2">
       <c r="B95" s="3" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -9501,7 +9625,7 @@
   <sheetData>
     <row r="1" ht="198" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" ht="23" customHeight="1"/>
